--- a/config/uat/ccp/nclccp.xlsx
+++ b/config/uat/ccp/nclccp.xlsx
@@ -5,25 +5,25 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NCL\GitHub\ccp_automation\config\uat\ccp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NCL\GitHub\ccpautomation\config\uat\ccp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9A8E5D-17EC-4613-8826-E516304410FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E658C5EA-C7F1-4369-ABAF-B4A5D78886F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="771" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="3" r:id="rId1"/>
-    <sheet name="OffloadExportFormXlPage" sheetId="13" r:id="rId2"/>
-    <sheet name="CustomsExportFormPdfPage" sheetId="14" r:id="rId3"/>
-    <sheet name="UsportPage" sheetId="4" r:id="rId4"/>
-    <sheet name="EditOffloadFormPage" sheetId="7" r:id="rId5"/>
-    <sheet name="ItineraryForUsPortPage" sheetId="9" r:id="rId6"/>
-    <sheet name="EmailOffloadFormPage" sheetId="11" r:id="rId7"/>
-    <sheet name="ExportCustomsFormXl" sheetId="10" r:id="rId8"/>
-    <sheet name="AmendEditOffloadFormPage" sheetId="8" r:id="rId9"/>
-    <sheet name="UsportPage2" sheetId="6" r:id="rId10"/>
-    <sheet name="DashboardPage" sheetId="1" r:id="rId11"/>
+    <sheet name="DashboardPage" sheetId="1" r:id="rId2"/>
+    <sheet name="OffloadExportFormXlPage" sheetId="13" r:id="rId3"/>
+    <sheet name="ItineraryForUsPortPage" sheetId="9" r:id="rId4"/>
+    <sheet name="CustomsExportFormPdfPage" sheetId="14" r:id="rId5"/>
+    <sheet name="UsportPage" sheetId="4" r:id="rId6"/>
+    <sheet name="EditOffloadFormPage" sheetId="7" r:id="rId7"/>
+    <sheet name="EmailOffloadFormPage" sheetId="11" r:id="rId8"/>
+    <sheet name="ExportCustomsFormXl" sheetId="10" r:id="rId9"/>
+    <sheet name="AmendEditOffloadFormPage" sheetId="8" r:id="rId10"/>
+    <sheet name="UsportPage2" sheetId="6" r:id="rId11"/>
     <sheet name="OffloadeventsPage" sheetId="2" r:id="rId12"/>
     <sheet name="OffloadformsPage" sheetId="5" r:id="rId13"/>
     <sheet name="RecallIntitiated" sheetId="12" r:id="rId14"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="222">
   <si>
     <t>DATA_ID</t>
   </si>
@@ -666,9 +666,6 @@
     <t>(2TT-Cottrellville) {US-United States}</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>srpedyala@nacl.com</t>
   </si>
   <si>
@@ -706,6 +703,18 @@
   </si>
   <si>
     <t>customsformpdf2</t>
+  </si>
+  <si>
+    <t>vessel</t>
+  </si>
+  <si>
+    <t>portvalue</t>
+  </si>
+  <si>
+    <t>(2TT-Cottrellville) {US-United States}|CLICK</t>
+  </si>
+  <si>
+    <t>No|CLICK</t>
   </si>
 </sst>
 </file>
@@ -1200,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1303,6 +1312,130 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD52EC0-EC45-494E-8D1E-2CD04920CEE5}">
+  <dimension ref="A1:J9"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="21.08984375" customWidth="1"/>
+    <col min="2" max="2" width="22.1796875" customWidth="1"/>
+    <col min="3" max="3" width="21.90625" customWidth="1"/>
+    <col min="4" max="4" width="22.08984375" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" customWidth="1"/>
+    <col min="6" max="8" width="22.08984375" customWidth="1"/>
+    <col min="10" max="10" width="24.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D4" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="15" thickBot="1">
+      <c r="A5" t="s">
+        <v>176</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="15" thickBot="1">
+      <c r="A6" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="15"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="J9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812A3DFD-C9A0-4AD6-905C-A582CC503DE6}">
   <dimension ref="A1:AV24"/>
   <sheetViews>
@@ -1746,59 +1879,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2287,7 +2373,7 @@
         <v>165</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G6" s="15"/>
     </row>
@@ -2297,7 +2383,7 @@
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -2406,6 +2492,171 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N1" sqref="N1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>188</v>
+      </c>
+      <c r="J10" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>191</v>
+      </c>
+      <c r="K11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>192</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>218</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A922B6E-DBE4-4912-A6F2-ED308F973CCD}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -2469,7 +2720,7 @@
         <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2498,11 +2749,327 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAFA6AD-6022-40EA-988B-6F5370EE5D4C}">
+  <dimension ref="A1:Z26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AA11" sqref="AA11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="2" max="2" width="27" customWidth="1"/>
+    <col min="3" max="3" width="26.90625" customWidth="1"/>
+    <col min="4" max="4" width="25.26953125" customWidth="1"/>
+    <col min="5" max="5" width="41.6328125" customWidth="1"/>
+    <col min="6" max="6" width="20.08984375" customWidth="1"/>
+    <col min="7" max="8" width="17.90625" customWidth="1"/>
+    <col min="9" max="12" width="16.7265625" customWidth="1"/>
+    <col min="13" max="13" width="21" customWidth="1"/>
+    <col min="14" max="14" width="31.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.08984375" customWidth="1"/>
+    <col min="17" max="17" width="18.1796875" customWidth="1"/>
+    <col min="18" max="18" width="21.6328125" customWidth="1"/>
+    <col min="19" max="19" width="17.90625" customWidth="1"/>
+    <col min="20" max="20" width="11.6328125" customWidth="1"/>
+    <col min="21" max="21" width="20.08984375" customWidth="1"/>
+    <col min="22" max="23" width="16.90625" customWidth="1"/>
+    <col min="24" max="24" width="11.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26">
+      <c r="A2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26">
+      <c r="A3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26">
+      <c r="A4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" t="s">
+        <v>185</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" t="s">
+        <v>188</v>
+      </c>
+      <c r="H8" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" t="s">
+        <v>189</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" t="s">
+        <v>190</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" t="s">
+        <v>191</v>
+      </c>
+      <c r="L12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" t="s">
+        <v>192</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="N14" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" t="s">
+        <v>194</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" t="s">
+        <v>195</v>
+      </c>
+      <c r="P16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:26">
+      <c r="A17" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:26">
+      <c r="A18" t="s">
+        <v>196</v>
+      </c>
+      <c r="R18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:26">
+      <c r="A19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:26">
+      <c r="A20" t="s">
+        <v>197</v>
+      </c>
+      <c r="T20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:26">
+      <c r="A21" t="s">
+        <v>166</v>
+      </c>
+      <c r="U21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26">
+      <c r="A22" t="s">
+        <v>198</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26">
+      <c r="A23" t="s">
+        <v>199</v>
+      </c>
+      <c r="W23" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26">
+      <c r="A24" t="s">
+        <v>200</v>
+      </c>
+      <c r="X24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26">
+      <c r="A25" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:26">
+      <c r="A26" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="V22" r:id="rId1" xr:uid="{30FA34AA-080E-468B-9B42-02C31934FB54}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9A2D9C-2784-470B-B91D-ACE450BAC5B2}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
@@ -2538,7 +3105,7 @@
         <v>194</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>109</v>
@@ -2566,7 +3133,7 @@
         <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2587,7 +3154,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -2603,12 +3170,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BC31"/>
   <sheetViews>
-    <sheetView topLeftCell="BK1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BB28" sqref="BB28"/>
     </sheetView>
   </sheetViews>
@@ -3146,12 +3713,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F6F92B-CE4D-4CE1-BDAA-9B5D90BAB133}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -3348,292 +3915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAFA6AD-6022-40EA-988B-6F5370EE5D4C}">
-  <dimension ref="A1:W23"/>
-  <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
-    <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="26.90625" customWidth="1"/>
-    <col min="4" max="4" width="25.26953125" customWidth="1"/>
-    <col min="5" max="5" width="41.6328125" customWidth="1"/>
-    <col min="6" max="6" width="20.08984375" customWidth="1"/>
-    <col min="7" max="8" width="17.90625" customWidth="1"/>
-    <col min="9" max="11" width="16.7265625" customWidth="1"/>
-    <col min="12" max="12" width="21" customWidth="1"/>
-    <col min="13" max="13" width="31.08984375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="31.08984375" customWidth="1"/>
-    <col min="16" max="16" width="18.1796875" customWidth="1"/>
-    <col min="17" max="17" width="21.6328125" customWidth="1"/>
-    <col min="18" max="18" width="17.90625" customWidth="1"/>
-    <col min="19" max="19" width="11.6328125" customWidth="1"/>
-    <col min="20" max="20" width="20.08984375" customWidth="1"/>
-    <col min="21" max="22" width="16.90625" customWidth="1"/>
-    <col min="23" max="23" width="11.7265625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23">
-      <c r="A2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3" t="s">
-        <v>183</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
-      <c r="A4" t="s">
-        <v>184</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
-      <c r="A5" t="s">
-        <v>185</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
-      <c r="A6" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
-      <c r="A7" s="13" t="s">
-        <v>187</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="A8" t="s">
-        <v>188</v>
-      </c>
-      <c r="H8" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
-      <c r="A9" t="s">
-        <v>189</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
-      <c r="A10" t="s">
-        <v>190</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
-      <c r="A11" t="s">
-        <v>191</v>
-      </c>
-      <c r="K11" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
-      <c r="A12" t="s">
-        <v>192</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
-      <c r="A13" t="s">
-        <v>193</v>
-      </c>
-      <c r="M13" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
-      <c r="A14" t="s">
-        <v>194</v>
-      </c>
-      <c r="N14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23">
-      <c r="A15" t="s">
-        <v>195</v>
-      </c>
-      <c r="O15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="A16" t="s">
-        <v>113</v>
-      </c>
-      <c r="P16" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23">
-      <c r="A17" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="R18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
-      <c r="A19" t="s">
-        <v>197</v>
-      </c>
-      <c r="S19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
-      <c r="A20" t="s">
-        <v>166</v>
-      </c>
-      <c r="T20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
-      <c r="A21" t="s">
-        <v>198</v>
-      </c>
-      <c r="U21" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
-      <c r="A22" t="s">
-        <v>199</v>
-      </c>
-      <c r="V22" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
-      <c r="A23" t="s">
-        <v>200</v>
-      </c>
-      <c r="W23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="U21" r:id="rId1" xr:uid="{30FA34AA-080E-468B-9B42-02C31934FB54}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DED914-F6D4-4CE2-A8BA-68207D44A0C9}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -3658,22 +3940,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="9" t="s">
         <v>214</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>215</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>198</v>
@@ -3682,13 +3964,13 @@
         <v>199</v>
       </c>
       <c r="J1" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -3697,7 +3979,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -3705,15 +3987,15 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -3721,7 +4003,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -3729,7 +4011,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -3747,7 +4029,7 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3755,11 +4037,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F322F26-4FB8-40DF-B1E3-0F1986B4EFA1}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -3799,7 +4081,7 @@
         <v>166</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>109</v>
@@ -3827,7 +4109,7 @@
         <v>177</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3865,130 +4147,6 @@
     <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>109</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD52EC0-EC45-494E-8D1E-2CD04920CEE5}">
-  <dimension ref="A1:J9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="21.08984375" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" customWidth="1"/>
-    <col min="6" max="8" width="22.08984375" customWidth="1"/>
-    <col min="10" max="10" width="24.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" s="2"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C3" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>162</v>
-      </c>
-      <c r="D4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
-      <c r="A5" t="s">
-        <v>176</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
-      <c r="A6" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="13" t="s">
-        <v>177</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="J9" t="s">
-        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/config/uat/ccp/nclccp.xlsx
+++ b/config/uat/ccp/nclccp.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NCL\GitHub\ccpautomation\config\uat\ccp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E658C5EA-C7F1-4369-ABAF-B4A5D78886F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9BE7C9-10E7-4C92-B337-D8724FD6B43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="3" r:id="rId1"/>
     <sheet name="DashboardPage" sheetId="1" r:id="rId2"/>
     <sheet name="OffloadExportFormXlPage" sheetId="13" r:id="rId3"/>
-    <sheet name="ItineraryForUsPortPage" sheetId="9" r:id="rId4"/>
+    <sheet name="itineraryForUsPortPage" sheetId="9" r:id="rId4"/>
     <sheet name="CustomsExportFormPdfPage" sheetId="14" r:id="rId5"/>
     <sheet name="UsportPage" sheetId="4" r:id="rId6"/>
     <sheet name="EditOffloadFormPage" sheetId="7" r:id="rId7"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="229">
   <si>
     <t>DATA_ID</t>
   </si>
@@ -180,12 +180,6 @@
     <t>CustomsLogin</t>
   </si>
   <si>
-    <t>customs.broker</t>
-  </si>
-  <si>
-    <t>serinity</t>
-  </si>
-  <si>
     <t>undeletebutton</t>
   </si>
   <si>
@@ -588,9 +582,6 @@
     <t>Edit</t>
   </si>
   <si>
-    <t>NCL_Gem_MIA_Oct 03 2021</t>
-  </si>
-  <si>
     <t>NCL_Gem_2MR_Jul 20 2022</t>
   </si>
   <si>
@@ -714,7 +705,37 @@
     <t>(2TT-Cottrellville) {US-United States}|CLICK</t>
   </si>
   <si>
-    <t>No|CLICK</t>
+    <t>anchoredchkbx</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>offloadingallowedvalue</t>
+  </si>
+  <si>
+    <t>portnonusvalue</t>
+  </si>
+  <si>
+    <t>(2BC-Canale-di-Verde) {FR-France}|CLICK</t>
+  </si>
+  <si>
+    <t>customsbroker</t>
+  </si>
+  <si>
+    <t>serenity</t>
+  </si>
+  <si>
+    <t>Offloadresponse</t>
+  </si>
+  <si>
+    <t>000-147-000000002</t>
+  </si>
+  <si>
+    <t>AmendInitiatedsearchbar</t>
+  </si>
+  <si>
+    <t>editicon</t>
   </si>
 </sst>
 </file>
@@ -1210,7 +1231,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1293,16 +1314,13 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>223</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>224</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1313,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD52EC0-EC45-494E-8D1E-2CD04920CEE5}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1326,8 +1344,8 @@
     <col min="3" max="3" width="21.90625" customWidth="1"/>
     <col min="4" max="4" width="22.08984375" customWidth="1"/>
     <col min="5" max="5" width="21.6328125" customWidth="1"/>
-    <col min="6" max="8" width="22.08984375" customWidth="1"/>
-    <col min="10" max="10" width="24.26953125" customWidth="1"/>
+    <col min="6" max="7" width="22.08984375" customWidth="1"/>
+    <col min="9" max="9" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1335,34 +1353,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="J1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1370,23 +1388,23 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -1394,44 +1412,55 @@
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F7" s="15"/>
-      <c r="G7" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>180</v>
-      </c>
+      <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="13" t="s">
-        <v>178</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
+        <v>176</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="J9" t="s">
-        <v>180</v>
+        <v>178</v>
+      </c>
+      <c r="I9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="J11" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1469,139 +1498,139 @@
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:48">
@@ -1622,7 +1651,7 @@
     </row>
     <row r="4" spans="1:48">
       <c r="A4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -1630,7 +1659,7 @@
     </row>
     <row r="5" spans="1:48">
       <c r="A5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -1638,7 +1667,7 @@
     </row>
     <row r="6" spans="1:48">
       <c r="A6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -1646,15 +1675,15 @@
     </row>
     <row r="7" spans="1:48">
       <c r="A7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:48">
       <c r="A8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -1662,15 +1691,15 @@
     </row>
     <row r="9" spans="1:48">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:48">
       <c r="A10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -1678,7 +1707,7 @@
     </row>
     <row r="11" spans="1:48">
       <c r="A11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="K11" t="s">
         <v>2</v>
@@ -1686,31 +1715,31 @@
     </row>
     <row r="12" spans="1:48">
       <c r="A12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="M12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N12">
         <v>45653</v>
       </c>
       <c r="O12" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="P12" t="s">
         <v>2</v>
       </c>
       <c r="Q12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R12" t="s">
         <v>28</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="T12" t="s">
         <v>2</v>
@@ -1718,7 +1747,7 @@
     </row>
     <row r="13" spans="1:48">
       <c r="A13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="U13" t="s">
         <v>1</v>
@@ -1726,7 +1755,7 @@
     </row>
     <row r="14" spans="1:48">
       <c r="A14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="V14" t="s">
         <v>2</v>
@@ -1734,31 +1763,31 @@
     </row>
     <row r="15" spans="1:48">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B15" s="5"/>
       <c r="W15" t="s">
         <v>2</v>
       </c>
       <c r="X15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Y15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="Z15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:48">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AA16" t="s">
         <v>2</v>
       </c>
       <c r="AB16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AC16">
         <v>1</v>
@@ -1770,35 +1799,35 @@
         <v>2</v>
       </c>
       <c r="AF16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:48">
       <c r="A17" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AG17" t="s">
         <v>2</v>
       </c>
       <c r="AH17" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:48">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AI18" t="s">
         <v>2</v>
       </c>
       <c r="AJ18" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AK18">
         <v>123534312</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -1809,13 +1838,13 @@
     </row>
     <row r="19" spans="1:48">
       <c r="A19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AI19" t="s">
         <v>2</v>
       </c>
       <c r="AJ19" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="AL19" s="6"/>
       <c r="AM19">
@@ -1827,7 +1856,7 @@
     </row>
     <row r="20" spans="1:48">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AO20" t="s">
         <v>2</v>
@@ -1838,10 +1867,10 @@
     </row>
     <row r="21" spans="1:48">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AQ21" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AR21" t="s">
         <v>2</v>
@@ -1849,7 +1878,7 @@
     </row>
     <row r="22" spans="1:48">
       <c r="A22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AS22" t="s">
         <v>1</v>
@@ -1857,18 +1886,18 @@
     </row>
     <row r="23" spans="1:48">
       <c r="A23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AT23" t="s">
         <v>2</v>
       </c>
       <c r="AU23" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="24" spans="1:48">
       <c r="A24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AV24" t="s">
         <v>2</v>
@@ -1935,34 +1964,34 @@
         <v>36</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:18">
@@ -2019,7 +2048,7 @@
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="I8" t="s">
         <v>2</v>
@@ -2027,7 +2056,7 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -2039,15 +2068,15 @@
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L11" t="s">
         <v>2</v>
@@ -2055,21 +2084,21 @@
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M12" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="P12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="N13" t="s">
         <v>2</v>
@@ -2077,17 +2106,17 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Q16" t="s">
         <v>28</v>
@@ -2095,10 +2124,10 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2115,7 +2144,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2141,48 +2170,48 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>47</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>38</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2190,10 +2219,10 @@
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -2201,7 +2230,7 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -2209,7 +2238,7 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -2217,7 +2246,7 @@
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -2231,13 +2260,13 @@
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="M7" t="s">
         <v>2</v>
@@ -2245,7 +2274,7 @@
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J8" t="s">
         <v>2</v>
@@ -2253,7 +2282,7 @@
     </row>
     <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="N9" t="s">
         <v>2</v>
@@ -2315,30 +2344,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>176</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2346,23 +2375,23 @@
     </row>
     <row r="3" spans="1:14" ht="26.25" customHeight="1">
       <c r="A3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="26.25" customHeight="1">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -2370,25 +2399,25 @@
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
       <c r="A6" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -2511,6 +2540,7 @@
     <col min="8" max="8" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="2" customFormat="1">
@@ -2521,37 +2551,37 @@
         <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>191</v>
-      </c>
       <c r="L1" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2" spans="1:13">
@@ -2564,7 +2594,7 @@
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2572,7 +2602,7 @@
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -2580,7 +2610,7 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -2588,7 +2618,7 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -2596,7 +2626,7 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -2604,7 +2634,7 @@
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="13" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -2612,7 +2642,7 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="I9" t="s">
         <v>2</v>
@@ -2620,31 +2650,31 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="J10" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="K11" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="L12" s="16" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="M13" t="s">
         <v>2</v>
@@ -2661,7 +2691,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2680,27 +2710,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2709,7 +2739,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2717,15 +2747,15 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -2733,7 +2763,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -2741,7 +2771,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -2751,10 +2781,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAFA6AD-6022-40EA-988B-6F5370EE5D4C}">
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:AC29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
-      <selection activeCell="AA11" sqref="AA11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AC7" sqref="AC7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2777,283 +2807,324 @@
     <col min="21" max="21" width="20.08984375" customWidth="1"/>
     <col min="22" max="23" width="16.90625" customWidth="1"/>
     <col min="24" max="24" width="11.7265625" customWidth="1"/>
+    <col min="25" max="25" width="36.6328125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.90625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.36328125" customWidth="1"/>
+    <col min="28" max="28" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:29">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>185</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="K1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26">
+      <c r="AB1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
+    <row r="3" spans="1:29">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:26">
+    <row r="4" spans="1:29">
       <c r="A4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29">
+      <c r="A5" t="s">
+        <v>182</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
+      <c r="A6" s="13" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
+      <c r="A7" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:26">
-      <c r="A5" t="s">
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
+      <c r="A8" t="s">
         <v>185</v>
       </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
-      <c r="A6" s="13" t="s">
+      <c r="H8" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
+      <c r="A9" t="s">
         <v>186</v>
       </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
-      <c r="A7" s="13" t="s">
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
+      <c r="A10" t="s">
         <v>187</v>
       </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
-      <c r="A8" t="s">
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
+      <c r="A11" t="s">
+        <v>215</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
+      <c r="A12" t="s">
         <v>188</v>
       </c>
-      <c r="H8" t="s">
+      <c r="L12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29">
+      <c r="A13" t="s">
+        <v>189</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29">
+      <c r="A14" t="s">
+        <v>190</v>
+      </c>
+      <c r="N14" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
-      <c r="A9" t="s">
-        <v>189</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" t="s">
-        <v>190</v>
-      </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
-      <c r="A11" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26">
-      <c r="A12" t="s">
+    <row r="15" spans="1:29">
+      <c r="A15" t="s">
         <v>191</v>
       </c>
-      <c r="L12" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="13" spans="1:26">
-      <c r="A13" t="s">
+      <c r="O15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29">
+      <c r="A16" t="s">
         <v>192</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="14" spans="1:26">
-      <c r="A14" t="s">
-        <v>193</v>
-      </c>
-      <c r="N14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="15" spans="1:26">
-      <c r="A15" t="s">
-        <v>194</v>
-      </c>
-      <c r="O15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:26">
-      <c r="A16" t="s">
-        <v>195</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:29">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q17" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="18" spans="1:26">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" t="s">
+        <v>193</v>
+      </c>
+      <c r="R18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29">
+      <c r="A19" t="s">
+        <v>61</v>
+      </c>
+      <c r="S19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29">
+      <c r="A20" t="s">
+        <v>194</v>
+      </c>
+      <c r="T20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29">
+      <c r="A21" t="s">
+        <v>164</v>
+      </c>
+      <c r="U21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29">
+      <c r="A22" t="s">
+        <v>195</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29">
+      <c r="A23" t="s">
         <v>196</v>
       </c>
-      <c r="R18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:26">
-      <c r="A19" t="s">
-        <v>63</v>
-      </c>
-      <c r="S19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:26">
-      <c r="A20" t="s">
+      <c r="W23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29">
+      <c r="A24" t="s">
         <v>197</v>
       </c>
-      <c r="T20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26">
-      <c r="A21" t="s">
-        <v>166</v>
-      </c>
-      <c r="U21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:26">
-      <c r="A22" t="s">
-        <v>198</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="23" spans="1:26">
-      <c r="A23" t="s">
-        <v>199</v>
-      </c>
-      <c r="W23" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="24" spans="1:26">
-      <c r="A24" t="s">
-        <v>200</v>
-      </c>
       <c r="X24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:29">
       <c r="A25" t="s">
+        <v>216</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
+      <c r="A26" t="s">
+        <v>193</v>
+      </c>
+      <c r="Z26" t="s">
         <v>219</v>
       </c>
-      <c r="Y25" t="s">
+    </row>
+    <row r="27" spans="1:29">
+      <c r="A27" t="s">
+        <v>218</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29">
+      <c r="A28" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
-      <c r="A26" t="s">
-        <v>196</v>
-      </c>
-      <c r="Z26" t="s">
+      <c r="AB28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29">
+      <c r="A29" t="s">
         <v>221</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -3090,30 +3161,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -3122,7 +3193,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -3130,15 +3201,15 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -3146,7 +3217,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -3154,7 +3225,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="13" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -3162,7 +3233,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>
@@ -3174,9 +3245,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BC31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BB28" sqref="BB28"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -3208,7 +3279,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>15</v>
+        <v>225</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -3232,144 +3303,144 @@
         <v>26</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:55">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -3377,7 +3448,7 @@
     </row>
     <row r="3" spans="1:55">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>225</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -3431,7 +3502,7 @@
         <v>27</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:55">
@@ -3453,7 +3524,7 @@
         <v>1</v>
       </c>
       <c r="P9" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:55">
@@ -3474,7 +3545,7 @@
     </row>
     <row r="12" spans="1:55">
       <c r="A12" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="K12" t="s">
         <v>2</v>
@@ -3482,7 +3553,7 @@
     </row>
     <row r="13" spans="1:55">
       <c r="A13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L13" t="s">
         <v>2</v>
@@ -3490,7 +3561,7 @@
     </row>
     <row r="14" spans="1:55">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="M14" t="s">
         <v>2</v>
@@ -3498,15 +3569,15 @@
     </row>
     <row r="15" spans="1:55">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N15" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="16" spans="1:55">
       <c r="A16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="O16" t="s">
         <v>2</v>
@@ -3514,15 +3585,15 @@
     </row>
     <row r="17" spans="1:55">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:55">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q18" t="s">
         <v>2</v>
@@ -3530,7 +3601,7 @@
     </row>
     <row r="19" spans="1:55">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="R19" t="s">
         <v>2</v>
@@ -3538,31 +3609,31 @@
     </row>
     <row r="20" spans="1:55">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="S20" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="T20" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="U20">
         <v>54543</v>
       </c>
       <c r="V20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="W20" t="s">
         <v>2</v>
       </c>
       <c r="X20" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="Y20" t="s">
         <v>28</v>
       </c>
       <c r="Z20" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="AA20" t="s">
         <v>2</v>
@@ -3570,7 +3641,7 @@
     </row>
     <row r="21" spans="1:55">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AB21" t="s">
         <v>1</v>
@@ -3578,7 +3649,7 @@
     </row>
     <row r="22" spans="1:55">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AC22" t="s">
         <v>2</v>
@@ -3586,30 +3657,30 @@
     </row>
     <row r="23" spans="1:55">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AD23" t="s">
         <v>2</v>
       </c>
       <c r="AE23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AF23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="AG23" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:55">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AH24" t="s">
         <v>2</v>
       </c>
       <c r="AI24" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AJ24">
         <v>1</v>
@@ -3621,35 +3692,35 @@
         <v>2</v>
       </c>
       <c r="AM24" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:55">
       <c r="A25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AN25" t="s">
         <v>2</v>
       </c>
       <c r="AO25" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="26" spans="1:55">
       <c r="A26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AP26" t="s">
         <v>2</v>
       </c>
       <c r="AQ26" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AR26">
         <v>12343212</v>
       </c>
       <c r="AS26" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="AT26">
         <v>1</v>
@@ -3660,7 +3731,7 @@
     </row>
     <row r="27" spans="1:55">
       <c r="A27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AV27" t="s">
         <v>2</v>
@@ -3671,10 +3742,10 @@
     </row>
     <row r="28" spans="1:55">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AX28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="AY28" t="s">
         <v>2</v>
@@ -3682,7 +3753,7 @@
     </row>
     <row r="29" spans="1:55">
       <c r="A29" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AZ29" t="s">
         <v>1</v>
@@ -3690,18 +3761,18 @@
     </row>
     <row r="30" spans="1:55">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="BA30" t="s">
         <v>2</v>
       </c>
       <c r="BB30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:55">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="BC31" t="s">
         <v>2</v>
@@ -3731,47 +3802,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="8" t="s">
         <v>167</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1">
       <c r="A2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -3793,7 +3864,7 @@
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1">
       <c r="A3" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
@@ -3815,7 +3886,7 @@
     </row>
     <row r="4" spans="1:16" ht="13.5" customHeight="1">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -3826,20 +3897,20 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -3848,7 +3919,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -3858,17 +3929,17 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="I9" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>2</v>
@@ -3876,7 +3947,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>2</v>
@@ -3884,7 +3955,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>2</v>
@@ -3892,7 +3963,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>2</v>
@@ -3940,37 +4011,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="E1" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>211</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="H1" s="9" t="s">
+        <v>195</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>212</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>213</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>199</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>215</v>
       </c>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -3979,7 +4050,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -3987,15 +4058,15 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -4003,7 +4074,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="13" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -4011,7 +4082,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="13" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -4019,17 +4090,17 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4063,33 +4134,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="I1" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -4098,7 +4169,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -4106,15 +4177,15 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -4122,7 +4193,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -4130,7 +4201,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -4138,7 +4209,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -4146,7 +4217,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/config/uat/ccp/nclccp.xlsx
+++ b/config/uat/ccp/nclccp.xlsx
@@ -8,24 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NCL\GitHub\ccpautomation\config\uat\ccp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9BE7C9-10E7-4C92-B337-D8724FD6B43F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB6E1E0-C65C-4276-B52C-1061531FBB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="3" r:id="rId1"/>
     <sheet name="DashboardPage" sheetId="1" r:id="rId2"/>
-    <sheet name="OffloadExportFormXlPage" sheetId="13" r:id="rId3"/>
-    <sheet name="itineraryForUsPortPage" sheetId="9" r:id="rId4"/>
-    <sheet name="CustomsExportFormPdfPage" sheetId="14" r:id="rId5"/>
-    <sheet name="UsportPage" sheetId="4" r:id="rId6"/>
-    <sheet name="EditOffloadFormPage" sheetId="7" r:id="rId7"/>
-    <sheet name="EmailOffloadFormPage" sheetId="11" r:id="rId8"/>
-    <sheet name="ExportCustomsFormXl" sheetId="10" r:id="rId9"/>
-    <sheet name="AmendEditOffloadFormPage" sheetId="8" r:id="rId10"/>
-    <sheet name="UsportPage2" sheetId="6" r:id="rId11"/>
-    <sheet name="OffloadeventsPage" sheetId="2" r:id="rId12"/>
-    <sheet name="OffloadformsPage" sheetId="5" r:id="rId13"/>
+    <sheet name="itineraryForUsPortPage" sheetId="9" r:id="rId3"/>
+    <sheet name="OffloadeventsPage" sheetId="2" r:id="rId4"/>
+    <sheet name="OffloadExportFormXlPage" sheetId="13" r:id="rId5"/>
+    <sheet name="CustomsExportFormPdfPage" sheetId="14" r:id="rId6"/>
+    <sheet name="UsportPage" sheetId="4" r:id="rId7"/>
+    <sheet name="EditOffloadFormPage" sheetId="7" r:id="rId8"/>
+    <sheet name="EmailOffloadFormPage" sheetId="11" r:id="rId9"/>
+    <sheet name="ExportCustomsFormXl" sheetId="10" r:id="rId10"/>
+    <sheet name="OffloadformsPage" sheetId="5" r:id="rId11"/>
+    <sheet name="AmendEditOffloadFormPage" sheetId="8" r:id="rId12"/>
+    <sheet name="UsportPage2" sheetId="6" r:id="rId13"/>
     <sheet name="RecallIntitiated" sheetId="12" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="252">
   <si>
     <t>DATA_ID</t>
   </si>
@@ -264,12 +264,6 @@
     <t>411-102-000000067</t>
   </si>
   <si>
-    <t>Ship:Gem on:Jan 11, 2023 at: (NYC-New York) {US-United States}|CLICK</t>
-  </si>
-  <si>
-    <t>Ship:Gem on:Dec 10, 2022 at: (CRT-Cartagena (Spain)) {ES-Spain}|CLICK</t>
-  </si>
-  <si>
     <t>Offloadforms</t>
   </si>
   <si>
@@ -651,12 +645,6 @@
     <t>Gem|CLICK</t>
   </si>
   <si>
-    <t>01/25/2023</t>
-  </si>
-  <si>
-    <t>(2TT-Cottrellville) {US-United States}</t>
-  </si>
-  <si>
     <t>srpedyala@nacl.com</t>
   </si>
   <si>
@@ -702,9 +690,6 @@
     <t>portvalue</t>
   </si>
   <si>
-    <t>(2TT-Cottrellville) {US-United States}|CLICK</t>
-  </si>
-  <si>
     <t>anchoredchkbx</t>
   </si>
   <si>
@@ -736,6 +721,90 @@
   </si>
   <si>
     <t>editicon</t>
+  </si>
+  <si>
+    <t>portusvalue</t>
+  </si>
+  <si>
+    <t>ItineraryForUsPortPage</t>
+  </si>
+  <si>
+    <t>mamatha.engine</t>
+  </si>
+  <si>
+    <t>CreatorLogin</t>
+  </si>
+  <si>
+    <t>offloadformLnk</t>
+  </si>
+  <si>
+    <t>applychanges</t>
+  </si>
+  <si>
+    <t>updatebutton</t>
+  </si>
+  <si>
+    <t>closewindow</t>
+  </si>
+  <si>
+    <t>itinerariespg</t>
+  </si>
+  <si>
+    <t>NewItinryName</t>
+  </si>
+  <si>
+    <t>vesselitinerarydrpdwntxtnonusport1</t>
+  </si>
+  <si>
+    <t>userprofile</t>
+  </si>
+  <si>
+    <t>logoutbutton</t>
+  </si>
+  <si>
+    <t>Offloadeventdropdownvaluedirectly</t>
+  </si>
+  <si>
+    <t>Offloadeventdropdownsingle</t>
+  </si>
+  <si>
+    <t>OffloadEventCodeVal</t>
+  </si>
+  <si>
+    <t>(4CP-Captiva) {US-United States}|CLICK</t>
+  </si>
+  <si>
+    <t>Offloadeventdropdownvaluee2e</t>
+  </si>
+  <si>
+    <t>offloadpurposedropdown</t>
+  </si>
+  <si>
+    <t>offloadpurposevalue</t>
+  </si>
+  <si>
+    <t>Repair</t>
+  </si>
+  <si>
+    <t>CLICK_WAIT</t>
+  </si>
+  <si>
+    <t>ItineraryDate</t>
+  </si>
+  <si>
+    <t>FILE_UPLOAD|D:\CCPAutomationtemp\File1.pdf</t>
+  </si>
+  <si>
+    <t>nclnonustest</t>
+  </si>
+  <si>
+    <t>existingrejectedoffloadform</t>
+  </si>
+  <si>
+    <t>existingreleasedoffloadform</t>
+  </si>
+  <si>
+    <t>NOCLGEM122222011</t>
   </si>
 </sst>
 </file>
@@ -808,7 +877,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -830,6 +899,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -867,7 +942,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -913,6 +988,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1228,10 +1304,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1314,12 +1390,26 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="D6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" t="s">
+        <v>226</v>
+      </c>
+      <c r="C7" t="s">
+        <v>226</v>
+      </c>
+      <c r="D7" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1330,10 +1420,301 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F322F26-4FB8-40DF-B1E3-0F1986B4EFA1}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="2" max="2" width="36" customWidth="1"/>
+    <col min="3" max="3" width="27.36328125" customWidth="1"/>
+    <col min="4" max="4" width="20.54296875" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" customWidth="1"/>
+    <col min="6" max="6" width="27.26953125" customWidth="1"/>
+    <col min="7" max="7" width="25.81640625" customWidth="1"/>
+    <col min="8" max="8" width="30.1796875" customWidth="1"/>
+    <col min="9" max="9" width="30.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246945EE-2FD4-4748-ABAD-B8C4C50658FF}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" t="s">
+        <v>60</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="K7" t="s">
+        <v>67</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" t="s">
+        <v>250</v>
+      </c>
+      <c r="C11" t="s">
+        <v>251</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" location="Proforma-ProformaHeader/184467440737096715" display="http://10.65.47.213/LandedGoods/Proforma/ProformaHeader - Proforma-ProformaHeader/184467440737096715" xr:uid="{01BB1E2B-E925-4C0B-8068-58448A8B2078}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD52EC0-EC45-494E-8D1E-2CD04920CEE5}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
@@ -1353,34 +1734,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>176</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -1388,23 +1769,23 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="15" thickBot="1">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -1412,7 +1793,7 @@
     </row>
     <row r="6" spans="1:10" ht="15" thickBot="1">
       <c r="A6" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F6" s="14" t="s">
         <v>46</v>
@@ -1421,14 +1802,14 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
@@ -1436,23 +1817,23 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I9" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F10" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="13" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="J11" t="s">
         <v>28</v>
@@ -1464,7 +1845,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812A3DFD-C9A0-4AD6-905C-A582CC503DE6}">
   <dimension ref="A1:AV24"/>
   <sheetViews>
@@ -1498,139 +1879,139 @@
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:48">
@@ -1651,7 +2032,7 @@
     </row>
     <row r="4" spans="1:48">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -1659,7 +2040,7 @@
     </row>
     <row r="5" spans="1:48">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -1667,7 +2048,7 @@
     </row>
     <row r="6" spans="1:48">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -1675,15 +2056,15 @@
     </row>
     <row r="7" spans="1:48">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:48">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -1691,15 +2072,15 @@
     </row>
     <row r="9" spans="1:48">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I9" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:48">
       <c r="A10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -1707,7 +2088,7 @@
     </row>
     <row r="11" spans="1:48">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="K11" t="s">
         <v>2</v>
@@ -1715,31 +2096,31 @@
     </row>
     <row r="12" spans="1:48">
       <c r="A12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N12">
         <v>45653</v>
       </c>
       <c r="O12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P12" t="s">
         <v>2</v>
       </c>
       <c r="Q12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R12" t="s">
         <v>28</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="T12" t="s">
         <v>2</v>
@@ -1747,7 +2128,7 @@
     </row>
     <row r="13" spans="1:48">
       <c r="A13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s">
         <v>1</v>
@@ -1755,7 +2136,7 @@
     </row>
     <row r="14" spans="1:48">
       <c r="A14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="V14" t="s">
         <v>2</v>
@@ -1763,31 +2144,31 @@
     </row>
     <row r="15" spans="1:48">
       <c r="A15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" s="5"/>
       <c r="W15" t="s">
         <v>2</v>
       </c>
       <c r="X15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Y15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="Z15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16" spans="1:48">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AA16" t="s">
         <v>2</v>
       </c>
       <c r="AB16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AC16">
         <v>1</v>
@@ -1799,35 +2180,35 @@
         <v>2</v>
       </c>
       <c r="AF16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17" spans="1:48">
       <c r="A17" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="AG17" t="s">
         <v>2</v>
       </c>
       <c r="AH17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="1:48">
       <c r="A18" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AI18" t="s">
         <v>2</v>
       </c>
       <c r="AJ18" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AK18">
         <v>123534312</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -1838,13 +2219,13 @@
     </row>
     <row r="19" spans="1:48">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AI19" t="s">
         <v>2</v>
       </c>
       <c r="AJ19" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="AL19" s="6"/>
       <c r="AM19">
@@ -1867,10 +2248,10 @@
     </row>
     <row r="21" spans="1:48">
       <c r="A21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="AQ21" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AR21" t="s">
         <v>2</v>
@@ -1878,7 +2259,7 @@
     </row>
     <row r="22" spans="1:48">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AS22" t="s">
         <v>1</v>
@@ -1886,18 +2267,18 @@
     </row>
     <row r="23" spans="1:48">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AT23" t="s">
         <v>2</v>
       </c>
       <c r="AU23" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" spans="1:48">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AV24" t="s">
         <v>2</v>
@@ -1905,395 +2286,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:R17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.26953125" customWidth="1"/>
-    <col min="13" max="13" width="67.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="67.453125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" t="str">
-        <f>C3</f>
-        <v>NCL_Gem_AUA_Apr 22 2021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" t="s">
-        <v>72</v>
-      </c>
-      <c r="O12" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="P12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="N13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="R17" t="s">
-        <v>71</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="O12" r:id="rId1" xr:uid="{E2A6E463-C708-4E5E-87E2-030A6CC33522}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246945EE-2FD4-4748-ABAD-B8C4C50658FF}">
-  <dimension ref="A1:N9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
-      <c r="A6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="K7" t="s">
-        <v>67</v>
-      </c>
-      <c r="L7" t="s">
-        <v>67</v>
-      </c>
-      <c r="M7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" t="s">
-        <v>68</v>
-      </c>
-      <c r="J8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="N9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" location="Proforma-ProformaHeader/184467440737096715" display="http://10.65.47.213/LandedGoods/Proforma/ProformaHeader - Proforma-ProformaHeader/184467440737096715" xr:uid="{01BB1E2B-E925-4C0B-8068-58448A8B2078}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2344,30 +2336,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>174</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2375,23 +2367,23 @@
     </row>
     <row r="3" spans="1:14" ht="26.25" customHeight="1">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="26.25" customHeight="1">
       <c r="A4" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="A5" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -2399,25 +2391,25 @@
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
       <c r="A6" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -2522,10 +2514,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2541,9 +2533,10 @@
     <col min="9" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16.08984375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="2" customFormat="1">
+    <row r="1" spans="1:15" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2554,37 +2547,43 @@
         <v>48</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>185</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
+        <v>211</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -2592,7 +2591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2600,84 +2599,98 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
+        <v>179</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="13" t="s">
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" t="s">
         <v>183</v>
       </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>185</v>
-      </c>
       <c r="J10" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K11" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>189</v>
-      </c>
-      <c r="L12" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>187</v>
+      </c>
+      <c r="L12" s="16"/>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="M13" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>235</v>
+      </c>
+      <c r="N14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>236</v>
+      </c>
+      <c r="O15" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -2687,104 +2700,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A922B6E-DBE4-4912-A6F2-ED308F973CCD}">
-  <dimension ref="A1:G7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAFA6AD-6022-40EA-988B-6F5370EE5D4C}">
+  <dimension ref="A1:AP41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="26.08984375" customWidth="1"/>
-    <col min="2" max="2" width="36.81640625" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" customWidth="1"/>
-    <col min="7" max="7" width="24.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAFA6AD-6022-40EA-988B-6F5370EE5D4C}">
-  <dimension ref="A1:AC29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AC7" sqref="AC7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2814,329 +2734,783 @@
     <col min="29" max="29" width="35.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29">
+    <row r="1" spans="1:42">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="P1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>191</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>61</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>197</v>
-      </c>
       <c r="Y1" s="2" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="2" spans="1:29">
+        <v>225</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="AG1" s="23"/>
+      <c r="AH1" s="2"/>
+      <c r="AI1" s="2"/>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="2"/>
+      <c r="AL1" s="2"/>
+      <c r="AM1" s="2"/>
+      <c r="AN1" s="2"/>
+      <c r="AO1" s="2"/>
+      <c r="AP1" s="2"/>
+    </row>
+    <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:29">
+    <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:29">
+    <row r="4" spans="1:42">
       <c r="A4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:42">
+      <c r="A5" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="A5" t="s">
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="13" t="s">
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42">
+      <c r="A8" t="s">
         <v>183</v>
       </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="13" t="s">
+      <c r="H8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:42">
+      <c r="A9" t="s">
         <v>184</v>
       </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" t="s">
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:42">
+      <c r="A10" t="s">
         <v>185</v>
       </c>
-      <c r="H8" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9" t="s">
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:42">
+      <c r="A11" t="s">
+        <v>211</v>
+      </c>
+      <c r="K11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:42">
+      <c r="A12" t="s">
         <v>186</v>
       </c>
-      <c r="I9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10" t="s">
+      <c r="L12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="13" spans="1:42">
+      <c r="A13" t="s">
         <v>187</v>
       </c>
-      <c r="J10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="A11" t="s">
-        <v>215</v>
-      </c>
-      <c r="K11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:29">
-      <c r="A12" t="s">
+      <c r="M13" s="16" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:42">
+      <c r="A14" t="s">
         <v>188</v>
       </c>
-      <c r="L12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="13" spans="1:29">
-      <c r="A13" t="s">
+      <c r="N14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:42">
+      <c r="A15" t="s">
         <v>189</v>
       </c>
-      <c r="M13" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="14" spans="1:29">
-      <c r="A14" t="s">
+      <c r="O15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:42">
+      <c r="A16" t="s">
         <v>190</v>
-      </c>
-      <c r="N14" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29">
-      <c r="A15" t="s">
-        <v>191</v>
-      </c>
-      <c r="O15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:29">
-      <c r="A16" t="s">
-        <v>192</v>
       </c>
       <c r="P16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:29">
+    <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:29">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="R18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:29">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
         <v>61</v>
       </c>
       <c r="S19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
+        <v>192</v>
+      </c>
+      <c r="T20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" t="s">
+        <v>162</v>
+      </c>
+      <c r="U21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" t="s">
+        <v>193</v>
+      </c>
+      <c r="V22" s="4" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" t="s">
         <v>194</v>
       </c>
-      <c r="T20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29">
-      <c r="A21" t="s">
-        <v>164</v>
-      </c>
-      <c r="U21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29">
-      <c r="A22" t="s">
+      <c r="W23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" t="s">
         <v>195</v>
       </c>
-      <c r="V22" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29">
-      <c r="A23" t="s">
-        <v>196</v>
-      </c>
-      <c r="W23" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29">
-      <c r="A24" t="s">
-        <v>197</v>
-      </c>
       <c r="X24" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:29">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
+        <v>224</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:31">
+      <c r="A26" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" t="s">
+        <v>213</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" t="s">
+        <v>215</v>
+      </c>
+      <c r="AB28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" t="s">
         <v>216</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y29" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:29">
-      <c r="A26" t="s">
-        <v>193</v>
-      </c>
-      <c r="Z26" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29">
-      <c r="A27" t="s">
-        <v>218</v>
-      </c>
-      <c r="AA27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29">
-      <c r="A28" t="s">
-        <v>220</v>
-      </c>
-      <c r="AB28" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29">
-      <c r="A29" t="s">
-        <v>221</v>
-      </c>
-      <c r="AC29" t="s">
-        <v>222</v>
+    <row r="30" spans="1:31">
+      <c r="A30" t="s">
+        <v>225</v>
+      </c>
+      <c r="AC30" s="16" t="str">
+        <f>M13</f>
+        <v>ItineraryDate</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31">
+      <c r="A32" t="s">
+        <v>231</v>
+      </c>
+      <c r="AE32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:42">
+      <c r="A33" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:42">
+      <c r="AG34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:42">
+      <c r="AH35" t="s">
+        <v>233</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK35" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:42">
+      <c r="AJ36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:42">
+      <c r="AM39" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="40" spans="1:42">
+      <c r="AN40" t="s">
+        <v>233</v>
+      </c>
+      <c r="AO40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:42">
+      <c r="AP41" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="V22" r:id="rId1" xr:uid="{30FA34AA-080E-468B-9B42-02C31934FB54}"/>
+    <hyperlink ref="AK35" r:id="rId2" xr:uid="{E44504B7-F46E-4C05-9038-3D112CB97A76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.26953125" customWidth="1"/>
+    <col min="13" max="13" width="67.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="str">
+        <f>C3</f>
+        <v>NCL_Gem_AUA_Apr 22 2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" t="s">
+        <v>233</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="S17" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>229</v>
+      </c>
+      <c r="T18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P19" r:id="rId1" xr:uid="{E2A6E463-C708-4E5E-87E2-030A6CC33522}"/>
+    <hyperlink ref="P14" r:id="rId2" xr:uid="{99131489-385D-4C4A-8A03-08728EFF4F74}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A922B6E-DBE4-4912-A6F2-ED308F973CCD}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="26.08984375" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.08984375" customWidth="1"/>
+    <col min="4" max="4" width="22.36328125" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.36328125" customWidth="1"/>
+    <col min="7" max="7" width="24.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="13" t="s">
+        <v>189</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9A2D9C-2784-470B-B91D-ACE450BAC5B2}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -3161,30 +3535,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E1" s="17" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -3193,7 +3567,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -3201,15 +3575,15 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -3217,7 +3591,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -3225,7 +3599,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="13" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -3233,7 +3607,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3241,13 +3615,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BC31"/>
+  <dimension ref="A1:BF35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6:XFD6"/>
+      <selection pane="bottomLeft" activeCell="BA31" sqref="BA31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -3264,14 +3638,15 @@
     <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="23.26953125" customWidth="1"/>
-    <col min="16" max="16" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.26953125" customWidth="1"/>
+    <col min="15" max="15" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="45.1796875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:55" s="2" customFormat="1">
+    <row r="1" spans="1:58" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3279,7 +3654,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -3303,142 +3678,151 @@
         <v>26</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>94</v>
+        <v>241</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>95</v>
+        <v>243</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AZ1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="BB1" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="BC1" s="2" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="2" spans="1:55">
+        <v>228</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="2" spans="1:58">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3446,15 +3830,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:55">
+    <row r="3" spans="1:58">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:55">
+    <row r="4" spans="1:58">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3467,7 +3851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:55">
+    <row r="5" spans="1:58">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3480,7 +3864,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:55">
+    <row r="6" spans="1:58">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3491,7 +3875,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:55">
+    <row r="7" spans="1:58">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3502,230 +3886,233 @@
         <v>27</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="8" spans="1:55">
+        <v>149</v>
+      </c>
+      <c r="BE7" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="8" spans="1:58">
       <c r="A8" t="s">
         <v>21</v>
       </c>
       <c r="I8" t="s">
         <v>28</v>
       </c>
-      <c r="O8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:55">
+    </row>
+    <row r="9" spans="1:58">
       <c r="A9" t="s">
         <v>22</v>
       </c>
       <c r="J9" t="s">
         <v>1</v>
       </c>
-      <c r="P9" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="10" spans="1:55">
+      <c r="O9" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="10" spans="1:58">
       <c r="A10" t="s">
         <v>17</v>
       </c>
-      <c r="Q10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:55">
+      <c r="P10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:58">
       <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="R11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:55">
+      <c r="Q11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:58">
       <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:58">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:58">
+      <c r="A14" t="s">
         <v>73</v>
       </c>
-      <c r="K12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:55">
-      <c r="A13" t="s">
+      <c r="M14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:58">
+      <c r="A15" t="s">
         <v>74</v>
       </c>
-      <c r="L13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:55">
-      <c r="A14" t="s">
-        <v>75</v>
-      </c>
-      <c r="M14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:55">
-      <c r="A15" t="s">
-        <v>76</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="16" spans="1:55">
+      <c r="N15" t="s">
+        <v>239</v>
+      </c>
+      <c r="BE15" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="16" spans="1:58">
       <c r="A16" t="s">
-        <v>77</v>
-      </c>
-      <c r="O16" t="s">
-        <v>2</v>
+        <v>242</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:55">
       <c r="A17" t="s">
-        <v>78</v>
-      </c>
-      <c r="P17" t="s">
-        <v>137</v>
+        <v>243</v>
+      </c>
+      <c r="O17" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="18" spans="1:55">
       <c r="A18" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="P18" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:55">
       <c r="A19" t="s">
-        <v>80</v>
-      </c>
-      <c r="R19" t="s">
-        <v>2</v>
+        <v>78</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:55">
       <c r="A20" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="R20" t="s">
+        <v>136</v>
       </c>
       <c r="S20" t="s">
-        <v>138</v>
-      </c>
-      <c r="T20" t="s">
-        <v>139</v>
-      </c>
-      <c r="U20">
+        <v>137</v>
+      </c>
+      <c r="T20">
         <v>54543</v>
       </c>
+      <c r="U20" t="s">
+        <v>150</v>
+      </c>
       <c r="V20" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" t="s">
+        <v>151</v>
+      </c>
+      <c r="X20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y20" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="W20" t="s">
-        <v>2</v>
-      </c>
-      <c r="X20" t="s">
-        <v>153</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z20" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="AA20" t="s">
+      <c r="Z20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:55">
       <c r="A21" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA21" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:55">
       <c r="A22" t="s">
-        <v>83</v>
-      </c>
-      <c r="AC22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB22" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:55">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>82</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>2</v>
       </c>
       <c r="AD23" t="s">
-        <v>2</v>
+        <v>136</v>
       </c>
       <c r="AE23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="AF23" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:55">
       <c r="A24" t="s">
-        <v>85</v>
+        <v>83</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>2</v>
       </c>
       <c r="AH24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AI24" t="s">
-        <v>143</v>
+        <v>141</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
       </c>
       <c r="AJ24">
         <v>1</v>
       </c>
-      <c r="AK24">
-        <v>1</v>
+      <c r="AK24" t="s">
+        <v>2</v>
       </c>
       <c r="AL24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:55">
       <c r="A25" t="s">
-        <v>86</v>
+        <v>84</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>2</v>
       </c>
       <c r="AN25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AO25" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="26" spans="1:55">
       <c r="A26" t="s">
-        <v>87</v>
-      </c>
-      <c r="AP26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AQ26" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="AR26">
+        <v>85</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP26" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ26">
         <v>12343212</v>
       </c>
-      <c r="AS26" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="AT26">
+      <c r="AR26" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS26">
         <v>1</v>
       </c>
-      <c r="AU26" t="s">
+      <c r="AT26" t="s">
         <v>2</v>
       </c>
     </row>
@@ -3733,49 +4120,81 @@
       <c r="A27" t="s">
         <v>66</v>
       </c>
+      <c r="AU27" t="s">
+        <v>2</v>
+      </c>
       <c r="AV27" t="s">
-        <v>2</v>
-      </c>
-      <c r="AW27" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:55">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>86</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>147</v>
       </c>
       <c r="AX28" t="s">
-        <v>149</v>
-      </c>
-      <c r="AY28" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:55">
       <c r="A29" t="s">
-        <v>89</v>
-      </c>
-      <c r="AZ29" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY29" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:55">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>88</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>2</v>
       </c>
       <c r="BA30" t="s">
-        <v>2</v>
-      </c>
-      <c r="BB30" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
     </row>
     <row r="31" spans="1:55">
       <c r="A31" t="s">
-        <v>91</v>
-      </c>
-      <c r="BC31" t="s">
-        <v>2</v>
+        <v>89</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:55">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:57">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:57">
+      <c r="A34" t="s">
+        <v>237</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="35" spans="1:57">
+      <c r="A35" t="s">
+        <v>241</v>
+      </c>
+      <c r="N35" t="s">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -3784,12 +4203,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F6F92B-CE4D-4CE1-BDAA-9B5D90BAB133}">
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -3802,47 +4221,47 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="8" t="s">
         <v>165</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>167</v>
       </c>
       <c r="N1" s="9"/>
       <c r="O1" s="9"/>
     </row>
     <row r="2" spans="1:16" s="11" customFormat="1">
       <c r="A2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -3864,7 +4283,7 @@
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B3"/>
       <c r="C3" t="s">
@@ -3886,7 +4305,7 @@
     </row>
     <row r="4" spans="1:16" ht="13.5" customHeight="1">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -3897,20 +4316,20 @@
     </row>
     <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -3919,7 +4338,7 @@
     </row>
     <row r="8" spans="1:16">
       <c r="A8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -3929,7 +4348,7 @@
     </row>
     <row r="9" spans="1:16">
       <c r="A9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I9" s="13" t="s">
         <v>46</v>
@@ -3939,7 +4358,7 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>2</v>
@@ -3947,7 +4366,7 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>2</v>
@@ -3955,7 +4374,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>2</v>
@@ -3963,7 +4382,7 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>2</v>
@@ -3986,7 +4405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DED914-F6D4-4CE2-A8BA-68207D44A0C9}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -4011,37 +4430,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="H1" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="20" t="s">
         <v>208</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>209</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>210</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>195</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>212</v>
       </c>
       <c r="K1" s="20"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -4050,7 +4469,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -4058,15 +4477,15 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -4074,7 +4493,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="13" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -4082,7 +4501,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="13" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -4090,134 +4509,17 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>212</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F322F26-4FB8-40DF-B1E3-0F1986B4EFA1}">
-  <dimension ref="A1:I9"/>
-  <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
-    <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" customWidth="1"/>
-    <col min="5" max="5" width="28.453125" customWidth="1"/>
-    <col min="6" max="6" width="27.26953125" customWidth="1"/>
-    <col min="7" max="7" width="25.81640625" customWidth="1"/>
-    <col min="8" max="8" width="30.1796875" customWidth="1"/>
-    <col min="9" max="9" width="30.453125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>191</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="I1" s="18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>186</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>187</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>175</v>
-      </c>
-      <c r="D4" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="13" t="s">
-        <v>164</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="13" t="s">
-        <v>166</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>107</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>

--- a/config/uat/ccp/nclccp.xlsx
+++ b/config/uat/ccp/nclccp.xlsx
@@ -8,25 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NCL\GitHub\ccpautomation\config\uat\ccp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB6E1E0-C65C-4276-B52C-1061531FBB9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90128238-C7F3-4EB2-A03B-35C15B7D5EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="3" r:id="rId1"/>
     <sheet name="DashboardPage" sheetId="1" r:id="rId2"/>
     <sheet name="itineraryForUsPortPage" sheetId="9" r:id="rId3"/>
-    <sheet name="OffloadeventsPage" sheetId="2" r:id="rId4"/>
-    <sheet name="OffloadExportFormXlPage" sheetId="13" r:id="rId5"/>
-    <sheet name="CustomsExportFormPdfPage" sheetId="14" r:id="rId6"/>
-    <sheet name="UsportPage" sheetId="4" r:id="rId7"/>
-    <sheet name="EditOffloadFormPage" sheetId="7" r:id="rId8"/>
-    <sheet name="EmailOffloadFormPage" sheetId="11" r:id="rId9"/>
-    <sheet name="ExportCustomsFormXl" sheetId="10" r:id="rId10"/>
-    <sheet name="OffloadformsPage" sheetId="5" r:id="rId11"/>
-    <sheet name="AmendEditOffloadFormPage" sheetId="8" r:id="rId12"/>
-    <sheet name="UsportPage2" sheetId="6" r:id="rId13"/>
-    <sheet name="RecallIntitiated" sheetId="12" r:id="rId14"/>
+    <sheet name="AdministrationPage" sheetId="16" r:id="rId4"/>
+    <sheet name="SettingsPortPage" sheetId="15" r:id="rId5"/>
+    <sheet name="OffloadeventsPage" sheetId="2" r:id="rId6"/>
+    <sheet name="OffloadExportFormXlPage" sheetId="13" r:id="rId7"/>
+    <sheet name="CustomsExportFormPdfPage" sheetId="14" r:id="rId8"/>
+    <sheet name="UsportPage" sheetId="4" r:id="rId9"/>
+    <sheet name="EditOffloadFormPage" sheetId="7" r:id="rId10"/>
+    <sheet name="EmailOffloadFormPage" sheetId="11" r:id="rId11"/>
+    <sheet name="ExportCustomsFormXl" sheetId="10" r:id="rId12"/>
+    <sheet name="OffloadformsPage" sheetId="5" r:id="rId13"/>
+    <sheet name="AmendEditOffloadFormPage" sheetId="8" r:id="rId14"/>
+    <sheet name="UsportPage2" sheetId="6" r:id="rId15"/>
+    <sheet name="RecallIntitiated" sheetId="12" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="294">
   <si>
     <t>DATA_ID</t>
   </si>
@@ -792,9 +794,6 @@
     <t>ItineraryDate</t>
   </si>
   <si>
-    <t>FILE_UPLOAD|D:\CCPAutomationtemp\File1.pdf</t>
-  </si>
-  <si>
     <t>nclnonustest</t>
   </si>
   <si>
@@ -805,6 +804,135 @@
   </si>
   <si>
     <t>NOCLGEM122222011</t>
+  </si>
+  <si>
+    <t>AdminLogin</t>
+  </si>
+  <si>
+    <t>admin.fauzia</t>
+  </si>
+  <si>
+    <t>adminfauzia</t>
+  </si>
+  <si>
+    <t>portcodetxt</t>
+  </si>
+  <si>
+    <t>portnametxt</t>
+  </si>
+  <si>
+    <t>portnamewodiacriticstxt</t>
+  </si>
+  <si>
+    <t>countrydrpdwn</t>
+  </si>
+  <si>
+    <t>countrydrpdwntxt</t>
+  </si>
+  <si>
+    <t>newportsavebtn</t>
+  </si>
+  <si>
+    <t>newportpg</t>
+  </si>
+  <si>
+    <t>test001</t>
+  </si>
+  <si>
+    <t>portlink</t>
+  </si>
+  <si>
+    <t>portpage</t>
+  </si>
+  <si>
+    <t>newportbutton</t>
+  </si>
+  <si>
+    <t>Anguilla (AI)|CLICK</t>
+  </si>
+  <si>
+    <t>test002</t>
+  </si>
+  <si>
+    <t>test003</t>
+  </si>
+  <si>
+    <t>userspage</t>
+  </si>
+  <si>
+    <t>newuserbutton</t>
+  </si>
+  <si>
+    <t>companydrpdwn</t>
+  </si>
+  <si>
+    <t>companydrpdwntxt</t>
+  </si>
+  <si>
+    <t>sitedrpdwn</t>
+  </si>
+  <si>
+    <t>sitedrpdwntxt</t>
+  </si>
+  <si>
+    <t>departmentdrpdwn</t>
+  </si>
+  <si>
+    <t>departmentdrpdwntxt</t>
+  </si>
+  <si>
+    <t>usernametxt</t>
+  </si>
+  <si>
+    <t>displaynametxt</t>
+  </si>
+  <si>
+    <t>emailtxt</t>
+  </si>
+  <si>
+    <t>passwordtxt</t>
+  </si>
+  <si>
+    <t>confirmpasswordtxt</t>
+  </si>
+  <si>
+    <t>roletxt</t>
+  </si>
+  <si>
+    <t>NCL</t>
+  </si>
+  <si>
+    <t>NCL =&gt; Gem</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>sravan.art</t>
+  </si>
+  <si>
+    <t>administrationlnk</t>
+  </si>
+  <si>
+    <t>usermanagementlnk</t>
+  </si>
+  <si>
+    <t>siterdbtn</t>
+  </si>
+  <si>
+    <t>roletxtvalue</t>
+  </si>
+  <si>
+    <t>creator|CLICK</t>
+  </si>
+  <si>
+    <t>rolepurser</t>
+  </si>
+  <si>
+    <t>purser|CLICK</t>
+  </si>
+  <si>
+    <t>FILE_UPLOAD|D:\CCPAutomationtemp\File3.pdf</t>
   </si>
 </sst>
 </file>
@@ -1304,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1413,6 +1541,20 @@
         <v>2</v>
       </c>
     </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>251</v>
+      </c>
+      <c r="B8" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1420,6 +1562,330 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F6F92B-CE4D-4CE1-BDAA-9B5D90BAB133}">
+  <dimension ref="A1:R18"/>
+  <sheetViews>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+    </row>
+    <row r="2" spans="1:16" s="11" customFormat="1">
+      <c r="A2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+    </row>
+    <row r="3" spans="1:16" s="2" customFormat="1">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3"/>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3"/>
+      <c r="F3"/>
+      <c r="G3"/>
+      <c r="H3"/>
+      <c r="I3"/>
+      <c r="J3"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+    </row>
+    <row r="4" spans="1:16" ht="13.5" customHeight="1">
+      <c r="A4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" s="3"/>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
+        <v>161</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" t="s">
+        <v>163</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" t="s">
+        <v>164</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="P16" s="4"/>
+    </row>
+    <row r="18" spans="18:18">
+      <c r="R18" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DED914-F6D4-4CE2-A8BA-68207D44A0C9}">
+  <dimension ref="A1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="24.08984375" customWidth="1"/>
+    <col min="2" max="2" width="35.90625" customWidth="1"/>
+    <col min="3" max="3" width="39.54296875" customWidth="1"/>
+    <col min="4" max="4" width="31.26953125" customWidth="1"/>
+    <col min="5" max="5" width="37.453125" customWidth="1"/>
+    <col min="6" max="6" width="46.453125" customWidth="1"/>
+    <col min="7" max="7" width="53.54296875" customWidth="1"/>
+    <col min="8" max="8" width="41.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="I1" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="J1" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="K1" s="20"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D4" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="13" t="s">
+        <v>207</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>208</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F322F26-4FB8-40DF-B1E3-0F1986B4EFA1}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -1536,11 +2002,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246945EE-2FD4-4748-ABAD-B8C4C50658FF}">
   <dimension ref="A1:N11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
@@ -1687,15 +2153,15 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
+        <v>249</v>
+      </c>
+      <c r="C11" t="s">
         <v>250</v>
-      </c>
-      <c r="C11" t="s">
-        <v>251</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -1710,7 +2176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD52EC0-EC45-494E-8D1E-2CD04920CEE5}">
   <dimension ref="A1:J11"/>
   <sheetViews>
@@ -1845,7 +2311,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812A3DFD-C9A0-4AD6-905C-A582CC503DE6}">
   <dimension ref="A1:AV24"/>
   <sheetViews>
@@ -2289,7 +2755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195D053A-3061-42FF-AB43-9180C3C35D16}">
   <dimension ref="A1:T27"/>
   <sheetViews>
@@ -2514,10 +2980,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O15"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2536,7 +3002,7 @@
     <col min="14" max="14" width="10.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1">
+    <row r="1" spans="1:18" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2582,8 +3048,17 @@
       <c r="O1" s="2" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>30</v>
       </c>
@@ -2591,7 +3066,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>48</v>
       </c>
@@ -2599,7 +3074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>177</v>
       </c>
@@ -2607,7 +3082,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>178</v>
       </c>
@@ -2615,7 +3090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>179</v>
       </c>
@@ -2623,7 +3098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>180</v>
       </c>
@@ -2631,7 +3106,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:18">
       <c r="A8" s="13" t="s">
         <v>181</v>
       </c>
@@ -2639,7 +3114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:18">
       <c r="A9" s="13" t="s">
         <v>182</v>
       </c>
@@ -2647,7 +3122,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>183</v>
       </c>
@@ -2655,7 +3130,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>186</v>
       </c>
@@ -2663,13 +3138,13 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>187</v>
       </c>
       <c r="L12" s="16"/>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>211</v>
       </c>
@@ -2677,7 +3152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>235</v>
       </c>
@@ -2685,12 +3160,36 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>236</v>
       </c>
       <c r="O15" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>262</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>287</v>
+      </c>
+      <c r="R18" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -2703,8 +3202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAFA6AD-6022-40EA-988B-6F5370EE5D4C}">
   <dimension ref="A1:AP41"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -3152,10 +3651,379 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1347EB-A013-4CA5-905D-90025F7B92A2}">
+  <dimension ref="A1:R19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.1796875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C1" t="s">
+        <v>269</v>
+      </c>
+      <c r="D1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F1" t="s">
+        <v>272</v>
+      </c>
+      <c r="G1" t="s">
+        <v>273</v>
+      </c>
+      <c r="H1" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1" t="s">
+        <v>275</v>
+      </c>
+      <c r="J1" t="s">
+        <v>288</v>
+      </c>
+      <c r="K1" t="s">
+        <v>276</v>
+      </c>
+      <c r="L1" t="s">
+        <v>277</v>
+      </c>
+      <c r="M1" t="s">
+        <v>278</v>
+      </c>
+      <c r="N1" t="s">
+        <v>279</v>
+      </c>
+      <c r="O1" t="s">
+        <v>280</v>
+      </c>
+      <c r="P1" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>289</v>
+      </c>
+      <c r="R1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>271</v>
+      </c>
+      <c r="E5" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>272</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>274</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>275</v>
+      </c>
+      <c r="I9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" t="s">
+        <v>288</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" t="s">
+        <v>276</v>
+      </c>
+      <c r="K11" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" t="s">
+        <v>277</v>
+      </c>
+      <c r="L12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" t="s">
+        <v>278</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" t="s">
+        <v>279</v>
+      </c>
+      <c r="N14" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" t="s">
+        <v>280</v>
+      </c>
+      <c r="O15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" t="s">
+        <v>281</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" t="s">
+        <v>61</v>
+      </c>
+      <c r="R18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>292</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="M13" r:id="rId1" xr:uid="{2B3F1523-AD06-4D95-B334-0F2B8A69CBC6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957BD7CD-A76D-4E2D-819C-0B731482386B}">
+  <dimension ref="A1:J10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>256</v>
+      </c>
+      <c r="D4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>257</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="F6" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>260</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>263</v>
+      </c>
+      <c r="I9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>264</v>
+      </c>
+      <c r="J10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="O7" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -3359,7 +4227,7 @@
         <v>55</v>
       </c>
       <c r="Q14" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -3417,7 +4285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A922B6E-DBE4-4912-A6F2-ED308F973CCD}">
   <dimension ref="A1:G7"/>
   <sheetViews>
@@ -3510,7 +4378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9A2D9C-2784-470B-B91D-ACE450BAC5B2}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -3615,13 +4483,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BF35"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BA31" sqref="BA31"/>
+    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BA28" sqref="BA28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -4154,7 +5022,7 @@
         <v>2</v>
       </c>
       <c r="BA30" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
     </row>
     <row r="31" spans="1:55">
@@ -4201,328 +5069,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F6F92B-CE4D-4CE1-BDAA-9B5D90BAB133}">
-  <dimension ref="A1:R18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:16" s="11" customFormat="1">
-      <c r="A2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1">
-      <c r="A3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-    </row>
-    <row r="4" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" t="s">
-        <v>160</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I9" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" t="s">
-        <v>162</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
-        <v>163</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
-        <v>164</v>
-      </c>
-      <c r="L12" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="P16" s="4"/>
-    </row>
-    <row r="18" spans="18:18">
-      <c r="R18" s="3"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DED914-F6D4-4CE2-A8BA-68207D44A0C9}">
-  <dimension ref="A1:K10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="24.08984375" customWidth="1"/>
-    <col min="2" max="2" width="35.90625" customWidth="1"/>
-    <col min="3" max="3" width="39.54296875" customWidth="1"/>
-    <col min="4" max="4" width="31.26953125" customWidth="1"/>
-    <col min="5" max="5" width="37.453125" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" customWidth="1"/>
-    <col min="7" max="7" width="53.54296875" customWidth="1"/>
-    <col min="8" max="8" width="41.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>205</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="K1" s="20"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s">
-        <v>202</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s">
-        <v>203</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s">
-        <v>204</v>
-      </c>
-      <c r="D4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="13" t="s">
-        <v>207</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s">
-        <v>208</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/config/uat/ccp/nclccp.xlsx
+++ b/config/uat/ccp/nclccp.xlsx
@@ -5,30 +5,37 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\NCL\GitHub\ccpautomation\config\uat\ccp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finalgithub\ccpautomationFinal\ccpautomationFinal\config\uat\ccp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90128238-C7F3-4EB2-A03B-35C15B7D5EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB3994B-43C1-4CD6-8498-3E309628852A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="3" r:id="rId1"/>
     <sheet name="DashboardPage" sheetId="1" r:id="rId2"/>
-    <sheet name="itineraryForUsPortPage" sheetId="9" r:id="rId3"/>
-    <sheet name="AdministrationPage" sheetId="16" r:id="rId4"/>
-    <sheet name="SettingsPortPage" sheetId="15" r:id="rId5"/>
-    <sheet name="OffloadeventsPage" sheetId="2" r:id="rId6"/>
-    <sheet name="OffloadExportFormXlPage" sheetId="13" r:id="rId7"/>
-    <sheet name="CustomsExportFormPdfPage" sheetId="14" r:id="rId8"/>
-    <sheet name="UsportPage" sheetId="4" r:id="rId9"/>
-    <sheet name="EditOffloadFormPage" sheetId="7" r:id="rId10"/>
-    <sheet name="EmailOffloadFormPage" sheetId="11" r:id="rId11"/>
-    <sheet name="ExportCustomsFormXl" sheetId="10" r:id="rId12"/>
-    <sheet name="OffloadformsPage" sheetId="5" r:id="rId13"/>
-    <sheet name="AmendEditOffloadFormPage" sheetId="8" r:id="rId14"/>
-    <sheet name="UsportPage2" sheetId="6" r:id="rId15"/>
-    <sheet name="RecallIntitiated" sheetId="12" r:id="rId16"/>
+    <sheet name="1" sheetId="23" r:id="rId3"/>
+    <sheet name="StatusBrokerSubmittedToCustomsP" sheetId="18" r:id="rId4"/>
+    <sheet name="customsrejectPage" sheetId="19" r:id="rId5"/>
+    <sheet name="OffloadstatuscustomsapprovePage" sheetId="20" r:id="rId6"/>
+    <sheet name="itineraryForUsPortPage" sheetId="9" r:id="rId7"/>
+    <sheet name="AdministrationPage" sheetId="16" r:id="rId8"/>
+    <sheet name="SettingsPortPage" sheetId="15" r:id="rId9"/>
+    <sheet name="OffloadeventsPage" sheetId="2" r:id="rId10"/>
+    <sheet name="OffloadExportFormXlPage" sheetId="13" r:id="rId11"/>
+    <sheet name="CustomsExportFormPdfPage" sheetId="14" r:id="rId12"/>
+    <sheet name="CCPUsportPage" sheetId="17" r:id="rId13"/>
+    <sheet name="UsportPage" sheetId="4" r:id="rId14"/>
+    <sheet name="EditOffloadFormPage" sheetId="7" r:id="rId15"/>
+    <sheet name="EmailOffloadFormPage" sheetId="11" r:id="rId16"/>
+    <sheet name="ExportCustomsFormXl" sheetId="10" r:id="rId17"/>
+    <sheet name="OffloadformsPage" sheetId="5" r:id="rId18"/>
+    <sheet name="AmendEditOffloadFormPage" sheetId="8" r:id="rId19"/>
+    <sheet name="UsportPage2" sheetId="6" r:id="rId20"/>
+    <sheet name="ExportDraftPage" sheetId="21" r:id="rId21"/>
+    <sheet name="ExcelExportOffloadPage" sheetId="22" r:id="rId22"/>
+    <sheet name="RecallIntitiated" sheetId="12" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="399">
   <si>
     <t>DATA_ID</t>
   </si>
@@ -497,9 +504,6 @@
     <t>Add note Test</t>
   </si>
   <si>
-    <t>FILE_UPLOAD|D:\CCPAutomationtemp\TestFile1.pdf</t>
-  </si>
-  <si>
     <t>NCL_Gem_NYC_Dec 22 2022|CLICK</t>
   </si>
   <si>
@@ -933,13 +937,331 @@
   </si>
   <si>
     <t>FILE_UPLOAD|D:\CCPAutomationtemp\File3.pdf</t>
+  </si>
+  <si>
+    <t>StorageFrom</t>
+  </si>
+  <si>
+    <t>StorageTo</t>
+  </si>
+  <si>
+    <t>StorageReason</t>
+  </si>
+  <si>
+    <t>searchbar_vessel</t>
+  </si>
+  <si>
+    <t>editOffloadForm</t>
+  </si>
+  <si>
+    <t>whseApprove</t>
+  </si>
+  <si>
+    <t>refresh</t>
+  </si>
+  <si>
+    <t>verifyStatusOffloadForm</t>
+  </si>
+  <si>
+    <t>whseReject</t>
+  </si>
+  <si>
+    <t>RejectReason</t>
+  </si>
+  <si>
+    <t>RejectNotes</t>
+  </si>
+  <si>
+    <t>SaveWhsReject</t>
+  </si>
+  <si>
+    <t>DeleteOffloadForm</t>
+  </si>
+  <si>
+    <t>ClickYesDelete</t>
+  </si>
+  <si>
+    <t>CloseWindow</t>
+  </si>
+  <si>
+    <t>release</t>
+  </si>
+  <si>
+    <t>brokerreview</t>
+  </si>
+  <si>
+    <t>exception</t>
+  </si>
+  <si>
+    <t>editItem</t>
+  </si>
+  <si>
+    <t>tariffdropdown</t>
+  </si>
+  <si>
+    <t>tariffnumber</t>
+  </si>
+  <si>
+    <t>NCL_Gem_NYC_Dec 22 2022|CLICK_WAIT</t>
+  </si>
+  <si>
+    <t>Offloadeventdropdownvalue_NonUS</t>
+  </si>
+  <si>
+    <t>NCL_Gem_PLA_Dec 25 2022|CLICK</t>
+  </si>
+  <si>
+    <t>OffloadpuropseWhseApproveReq</t>
+  </si>
+  <si>
+    <t>Storage|CLICK</t>
+  </si>
+  <si>
+    <t>12/12/2023</t>
+  </si>
+  <si>
+    <t>12/15/2023</t>
+  </si>
+  <si>
+    <t>getVesselRefNumber</t>
+  </si>
+  <si>
+    <t>destinationAddressFields_NonUS</t>
+  </si>
+  <si>
+    <t>Brazil (BR)</t>
+  </si>
+  <si>
+    <t>(AL)-Alagoas</t>
+  </si>
+  <si>
+    <t>NewItem_Manufacturer_NonUS</t>
+  </si>
+  <si>
+    <t>NewItem_Valuation_NonUS</t>
+  </si>
+  <si>
+    <t>FILE_UPLOAD|D:\CCPAutomationtemp\TestFile2.pdf</t>
+  </si>
+  <si>
+    <t>VesselRefNumber</t>
+  </si>
+  <si>
+    <t>searchbar_whseApprove</t>
+  </si>
+  <si>
+    <t>searchbar_whseReject</t>
+  </si>
+  <si>
+    <t>searchbar_release</t>
+  </si>
+  <si>
+    <t>411-107-000000270</t>
+  </si>
+  <si>
+    <t>Submitted|IS_DISPLAYED</t>
+  </si>
+  <si>
+    <t>Test Reject</t>
+  </si>
+  <si>
+    <t>Test Reject Note</t>
+  </si>
+  <si>
+    <t>verifyStatusOffloadFormReject</t>
+  </si>
+  <si>
+    <t>WarehouseStorageRejected|IS_DISPLAYED</t>
+  </si>
+  <si>
+    <t>verifyStatusOffloadFormWhseApproveReq</t>
+  </si>
+  <si>
+    <t>WarehouseApprovalRequested|IS_DISPLAYED</t>
+  </si>
+  <si>
+    <t>verifyStatusOffloadFormDraft</t>
+  </si>
+  <si>
+    <t>Draft|IS_DISPLAYED</t>
+  </si>
+  <si>
+    <t>verifyStatus_Purser_GSAM_Released</t>
+  </si>
+  <si>
+    <t>Purser_GSAM_Released|IS_DISPLAYED</t>
+  </si>
+  <si>
+    <t>verifyStatus_Pre_EntryReviewCompleted</t>
+  </si>
+  <si>
+    <t>Pre_EntryReviewCompleted|IS_DISPLAYED</t>
+  </si>
+  <si>
+    <t>verifyStatus_BrokerException</t>
+  </si>
+  <si>
+    <t>BrokerException|IS_DISPLAYED</t>
+  </si>
+  <si>
+    <t>searchWithOffload</t>
+  </si>
+  <si>
+    <t>searchbarSubmittedform</t>
+  </si>
+  <si>
+    <t>searchbarPurserGSAMReleased</t>
+  </si>
+  <si>
+    <t>itemsTabedit</t>
+  </si>
+  <si>
+    <t>1111.11.1111</t>
+  </si>
+  <si>
+    <t>exceptionreason</t>
+  </si>
+  <si>
+    <t>whseapprover</t>
+  </si>
+  <si>
+    <t>411-102-000000077</t>
+  </si>
+  <si>
+    <t>411-102-000000083</t>
+  </si>
+  <si>
+    <t>411-107-000000259</t>
+  </si>
+  <si>
+    <t>411-102-000000032</t>
+  </si>
+  <si>
+    <t>attachedoffloadforms</t>
+  </si>
+  <si>
+    <t>attachedfiles</t>
+  </si>
+  <si>
+    <t>srpedyala@ncl.com</t>
+  </si>
+  <si>
+    <t>entrynumber</t>
+  </si>
+  <si>
+    <t>customsreject</t>
+  </si>
+  <si>
+    <t>customsapprove</t>
+  </si>
+  <si>
+    <t>searchbar3</t>
+  </si>
+  <si>
+    <t>searchbar4</t>
+  </si>
+  <si>
+    <t>searchbar5</t>
+  </si>
+  <si>
+    <t>searchbar6</t>
+  </si>
+  <si>
+    <t>searchbar7</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>edit2</t>
+  </si>
+  <si>
+    <t>searchbar8</t>
+  </si>
+  <si>
+    <t>offloadform1</t>
+  </si>
+  <si>
+    <t>Edit5</t>
+  </si>
+  <si>
+    <t>Offloadform2</t>
+  </si>
+  <si>
+    <t>Offloadform3</t>
+  </si>
+  <si>
+    <t>edit4</t>
+  </si>
+  <si>
+    <t>searchbar</t>
+  </si>
+  <si>
+    <t>NotesFields1</t>
+  </si>
+  <si>
+    <t>NCL_Gem_MIA_Jan 02 2023</t>
+  </si>
+  <si>
+    <t>404-113-000000033</t>
+  </si>
+  <si>
+    <t>418-113-000000108</t>
+  </si>
+  <si>
+    <t>Broker Submitted To Customs</t>
+  </si>
+  <si>
+    <t>418-110-000000013</t>
+  </si>
+  <si>
+    <t>CE1302draft</t>
+  </si>
+  <si>
+    <t>offloadevent</t>
+  </si>
+  <si>
+    <t>Offloadforms3</t>
+  </si>
+  <si>
+    <t>Offloadforms4</t>
+  </si>
+  <si>
+    <t>vesseloffload8</t>
+  </si>
+  <si>
+    <t>Offloadforms5</t>
+  </si>
+  <si>
+    <t>Clickonoffloadform</t>
+  </si>
+  <si>
+    <t>offloadformpdf1</t>
+  </si>
+  <si>
+    <t>selectfile</t>
+  </si>
+  <si>
+    <t>selectfile2</t>
+  </si>
+  <si>
+    <t>offloadformpdf5</t>
+  </si>
+  <si>
+    <t>FILE_UPLOAD|D:\File\Filename.txt</t>
+  </si>
+  <si>
+    <t>FILE_UPLOAD|D:\Folderfile\Filefolder.txt</t>
+  </si>
+  <si>
+    <t>E7T-1087176-7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -981,12 +1303,6 @@
       <name val="JetBrains Mono"/>
     </font>
     <font>
-      <b/>
-      <sz val="9.8000000000000007"/>
-      <color rgb="FF083080"/>
-      <name val="JetBrains Mono"/>
-    </font>
-    <font>
       <sz val="9.8000000000000007"/>
       <color theme="1"/>
       <name val="JetBrains Mono"/>
@@ -1004,8 +1320,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF297BDE"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9.8000000000000007"/>
+      <color rgb="FF6A8759"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color theme="1"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF202124"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF30569C"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1036,22 +1397,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1070,7 +1428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1087,24 +1445,17 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1117,6 +1468,35 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1432,17 +1812,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
@@ -1518,10 +1898,10 @@
         <v>42</v>
       </c>
       <c r="B6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
         <v>218</v>
-      </c>
-      <c r="C6" t="s">
-        <v>219</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -1529,29 +1909,46 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>250</v>
+      </c>
+      <c r="B8" t="s">
         <v>251</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>252</v>
       </c>
-      <c r="C8" t="s">
-        <v>253</v>
-      </c>
       <c r="D8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>354</v>
+      </c>
+      <c r="B9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C9" t="s">
+        <v>218</v>
+      </c>
+      <c r="D9" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1562,11 +1959,2073 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:T20"/>
+  <sheetViews>
+    <sheetView topLeftCell="O7" workbookViewId="0">
+      <selection activeCell="O19" sqref="O19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.26953125" customWidth="1"/>
+    <col min="13" max="13" width="67.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="str">
+        <f>C3</f>
+        <v>NCL_Gem_AUA_Apr 22 2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" t="s">
+        <v>232</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="S17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>228</v>
+      </c>
+      <c r="T18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P19" r:id="rId1" xr:uid="{E2A6E463-C708-4E5E-87E2-030A6CC33522}"/>
+    <hyperlink ref="P14" r:id="rId2" xr:uid="{99131489-385D-4C4A-8A03-08728EFF4F74}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A922B6E-DBE4-4912-A6F2-ED308F973CCD}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="26.1796875" customWidth="1"/>
+    <col min="2" max="2" width="36.81640625" customWidth="1"/>
+    <col min="3" max="3" width="22.1796875" customWidth="1"/>
+    <col min="4" max="4" width="22.453125" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" customWidth="1"/>
+    <col min="7" max="7" width="24.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9A2D9C-2784-470B-B91D-ACE450BAC5B2}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="2" max="2" width="21.7265625" customWidth="1"/>
+    <col min="3" max="3" width="20.54296875" customWidth="1"/>
+    <col min="4" max="4" width="17.54296875" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="6" max="6" width="19.81640625" customWidth="1"/>
+    <col min="7" max="7" width="25.26953125" customWidth="1"/>
+    <col min="8" max="8" width="14.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>188</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>184</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B447BFF-DFD0-420A-9B95-A22889489E98}">
+  <dimension ref="A1:BU56"/>
+  <sheetViews>
+    <sheetView topLeftCell="AR22" workbookViewId="0">
+      <selection activeCell="AT48" sqref="AT48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="31.453125" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23.26953125" customWidth="1"/>
+    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="20.453125" customWidth="1"/>
+    <col min="35" max="35" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="35.7265625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:73" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="BJ1" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="BR1" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="BT1" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="BU1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:73">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM2" s="21" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="1:73">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:73">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:73">
+      <c r="A5" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:73">
+      <c r="A6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:73">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:73">
+      <c r="A8" t="s">
+        <v>315</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:73">
+      <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:73">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:73">
+      <c r="A11" t="s">
+        <v>317</v>
+      </c>
+      <c r="I11" t="s">
+        <v>318</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="L11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:73">
+      <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="13" spans="1:73">
+      <c r="A13" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="14" spans="1:73">
+      <c r="A14" t="s">
+        <v>78</v>
+      </c>
+      <c r="N14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:73">
+      <c r="A15" t="s">
+        <v>79</v>
+      </c>
+      <c r="O15" t="s">
+        <v>136</v>
+      </c>
+      <c r="P15" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q15">
+        <v>54543</v>
+      </c>
+      <c r="R15" t="s">
+        <v>149</v>
+      </c>
+      <c r="S15" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s">
+        <v>150</v>
+      </c>
+      <c r="U15" t="s">
+        <v>28</v>
+      </c>
+      <c r="V15" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="W15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:73">
+      <c r="A16" t="s">
+        <v>322</v>
+      </c>
+      <c r="O16" t="s">
+        <v>136</v>
+      </c>
+      <c r="P16" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q16">
+        <v>45653</v>
+      </c>
+      <c r="R16" t="s">
+        <v>138</v>
+      </c>
+      <c r="S16" t="s">
+        <v>2</v>
+      </c>
+      <c r="T16" t="s">
+        <v>323</v>
+      </c>
+      <c r="U16" t="s">
+        <v>28</v>
+      </c>
+      <c r="V16" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="W16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:65">
+      <c r="A17" t="s">
+        <v>80</v>
+      </c>
+      <c r="X17" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM17" s="22"/>
+    </row>
+    <row r="18" spans="1:65">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>2</v>
+      </c>
+      <c r="BM18" s="21"/>
+    </row>
+    <row r="19" spans="1:65">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="Z19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AB19" t="s">
+        <v>136</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65">
+      <c r="A20" t="s">
+        <v>83</v>
+      </c>
+      <c r="AD20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF20">
+        <v>1</v>
+      </c>
+      <c r="AG20">
+        <v>1</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>2</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="21" spans="1:65">
+      <c r="A21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AJ21" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:65">
+      <c r="A22" t="s">
+        <v>325</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>2</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="23" spans="1:65">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM23" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AN23">
+        <v>12343212</v>
+      </c>
+      <c r="AO23" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AP23">
+        <v>1</v>
+      </c>
+      <c r="AQ23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:65">
+      <c r="A24" t="s">
+        <v>326</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM24" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AO24" s="6"/>
+      <c r="AP24">
+        <v>1</v>
+      </c>
+      <c r="AQ24" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:65">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="AR25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AS25" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="26" spans="1:65">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>147</v>
+      </c>
+      <c r="AU26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:65">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>2</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="29" spans="1:65">
+      <c r="A29" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="30" spans="1:65">
+      <c r="A30" t="s">
+        <v>172</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="31" spans="1:65">
+      <c r="A31" t="s">
+        <v>329</v>
+      </c>
+      <c r="BA31" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="32" spans="1:65">
+      <c r="A32" t="s">
+        <v>330</v>
+      </c>
+      <c r="BA32" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:66">
+      <c r="A33" t="s">
+        <v>331</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>328</v>
+      </c>
+      <c r="BA33" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="34" spans="1:66">
+      <c r="A34" t="s">
+        <v>297</v>
+      </c>
+      <c r="BB34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:66">
+      <c r="A35" t="s">
+        <v>298</v>
+      </c>
+      <c r="BC35" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:66">
+      <c r="A36" t="s">
+        <v>300</v>
+      </c>
+      <c r="BE36" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="37" spans="1:66">
+      <c r="A37" t="s">
+        <v>301</v>
+      </c>
+      <c r="BF37" t="s">
+        <v>2</v>
+      </c>
+      <c r="BG37" t="s">
+        <v>334</v>
+      </c>
+      <c r="BH37" t="s">
+        <v>335</v>
+      </c>
+      <c r="BI37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:66">
+      <c r="A38" t="s">
+        <v>336</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE38" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="39" spans="1:66">
+      <c r="A39" t="s">
+        <v>338</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:66">
+      <c r="A40" t="s">
+        <v>340</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:66">
+      <c r="A41" t="s">
+        <v>342</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>244</v>
+      </c>
+      <c r="BE41" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="42" spans="1:66">
+      <c r="A42" t="s">
+        <v>344</v>
+      </c>
+      <c r="BE42" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="43" spans="1:66">
+      <c r="A43" t="s">
+        <v>346</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>244</v>
+      </c>
+      <c r="BE43" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="44" spans="1:66">
+      <c r="A44" t="s">
+        <v>348</v>
+      </c>
+      <c r="AZ44" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45" spans="1:66">
+      <c r="A45" t="s">
+        <v>305</v>
+      </c>
+      <c r="BJ45" t="s">
+        <v>244</v>
+      </c>
+      <c r="BK45" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:66">
+      <c r="A46" t="s">
+        <v>307</v>
+      </c>
+      <c r="BL46" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="47" spans="1:66">
+      <c r="A47" t="s">
+        <v>234</v>
+      </c>
+      <c r="BM47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:66">
+      <c r="A48" t="s">
+        <v>235</v>
+      </c>
+      <c r="BN48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:73">
+      <c r="A49" t="s">
+        <v>308</v>
+      </c>
+      <c r="BO49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:73">
+      <c r="A50" t="s">
+        <v>349</v>
+      </c>
+      <c r="BA50" t="s">
+        <v>357</v>
+      </c>
+      <c r="BD50" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="51" spans="1:73">
+      <c r="A51" t="s">
+        <v>350</v>
+      </c>
+      <c r="BA51" t="s">
+        <v>358</v>
+      </c>
+      <c r="BD51" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="52" spans="1:73">
+      <c r="A52" t="s">
+        <v>309</v>
+      </c>
+      <c r="BP52" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="53" spans="1:73">
+      <c r="A53" t="s">
+        <v>310</v>
+      </c>
+      <c r="BQ53" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="54" spans="1:73">
+      <c r="A54" t="s">
+        <v>351</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>2</v>
+      </c>
+      <c r="BR54" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="55" spans="1:73">
+      <c r="A55" t="s">
+        <v>313</v>
+      </c>
+      <c r="BS55" t="s">
+        <v>2</v>
+      </c>
+      <c r="BT55" t="s">
+        <v>352</v>
+      </c>
+      <c r="BU55" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="56" spans="1:73">
+      <c r="A56" t="s">
+        <v>353</v>
+      </c>
+      <c r="BG56" t="s">
+        <v>334</v>
+      </c>
+      <c r="BH56" t="s">
+        <v>335</v>
+      </c>
+      <c r="BI56" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:BQ48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.1796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.453125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="23.26953125" customWidth="1"/>
+    <col min="15" max="15" width="20.453125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.7265625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="45.1796875" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:69" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BF1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="BG1" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="BJ1" s="9" t="s">
+        <v>387</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="2" spans="1:69">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:69">
+      <c r="A3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:69">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="K4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:69">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="L5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:69">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="M6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:69">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="BE7" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:69">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:69">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O9" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="10" spans="1:69">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="P10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:69">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:69">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:69">
+      <c r="A13" t="s">
+        <v>72</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:69">
+      <c r="A14" t="s">
+        <v>73</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:69">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15" t="s">
+        <v>238</v>
+      </c>
+      <c r="BE15" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:69">
+      <c r="A16" t="s">
+        <v>241</v>
+      </c>
+      <c r="BF16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:55">
+      <c r="A17" t="s">
+        <v>242</v>
+      </c>
+      <c r="O17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:55">
+      <c r="A18" t="s">
+        <v>77</v>
+      </c>
+      <c r="P18" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:55">
+      <c r="A19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:55">
+      <c r="A20" t="s">
+        <v>79</v>
+      </c>
+      <c r="R20" t="s">
+        <v>136</v>
+      </c>
+      <c r="S20" t="s">
+        <v>137</v>
+      </c>
+      <c r="T20">
+        <v>54543</v>
+      </c>
+      <c r="U20" t="s">
+        <v>149</v>
+      </c>
+      <c r="V20" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" t="s">
+        <v>150</v>
+      </c>
+      <c r="X20" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y20" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:55">
+      <c r="A21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:55">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+      <c r="AB22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:55">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>136</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55">
+      <c r="A24" t="s">
+        <v>83</v>
+      </c>
+      <c r="AG24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>141</v>
+      </c>
+      <c r="AI24">
+        <v>1</v>
+      </c>
+      <c r="AJ24">
+        <v>1</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>2</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55">
+      <c r="A25" t="s">
+        <v>84</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>2</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55">
+      <c r="A26" t="s">
+        <v>85</v>
+      </c>
+      <c r="AO26" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP26" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="AQ26">
+        <v>12343212</v>
+      </c>
+      <c r="AR26" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS26">
+        <v>1</v>
+      </c>
+      <c r="AT26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:55">
+      <c r="A27" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU27" t="s">
+        <v>2</v>
+      </c>
+      <c r="AV27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55">
+      <c r="A28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AW28" t="s">
+        <v>147</v>
+      </c>
+      <c r="AX28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:55">
+      <c r="A29" t="s">
+        <v>87</v>
+      </c>
+      <c r="AY29" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:55">
+      <c r="A30" t="s">
+        <v>88</v>
+      </c>
+      <c r="AZ30" t="s">
+        <v>2</v>
+      </c>
+      <c r="BA30" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="31" spans="1:55">
+      <c r="A31" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:55">
+      <c r="A32" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC32" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:69">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:69">
+      <c r="A34" t="s">
+        <v>236</v>
+      </c>
+      <c r="BE34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:69">
+      <c r="A35" t="s">
+        <v>240</v>
+      </c>
+      <c r="N35" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="36" spans="1:69">
+      <c r="A36" t="s">
+        <v>326</v>
+      </c>
+      <c r="AM36" s="5"/>
+      <c r="AO36" t="s">
+        <v>2</v>
+      </c>
+      <c r="AP36" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS36">
+        <v>1</v>
+      </c>
+      <c r="AT36" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:69">
+      <c r="A37" t="s">
+        <v>386</v>
+      </c>
+      <c r="AM37" s="5"/>
+      <c r="AO37" s="6"/>
+      <c r="BG37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:69">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="BH38" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:69">
+      <c r="A39" t="s">
+        <v>373</v>
+      </c>
+      <c r="BI39" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:69">
+      <c r="A40" t="s">
+        <v>375</v>
+      </c>
+      <c r="BJ40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:69">
+      <c r="A41" s="15"/>
+      <c r="BK41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:69">
+      <c r="A42" t="s">
+        <v>183</v>
+      </c>
+      <c r="BL42" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:69">
+      <c r="A43" t="s">
+        <v>387</v>
+      </c>
+      <c r="BM43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:69">
+      <c r="A44" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="45" spans="1:69">
+      <c r="A45" t="s">
+        <v>188</v>
+      </c>
+      <c r="BN45" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:69">
+      <c r="A46" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="BO46" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:69">
+      <c r="A47" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="BP47" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:69">
+      <c r="A48" t="s">
+        <v>391</v>
+      </c>
+      <c r="BQ48" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F6F92B-CE4D-4CE1-BDAA-9B5D90BAB133}">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -1574,129 +4033,150 @@
     <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="2" customFormat="1">
+    <row r="1" spans="1:30" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>164</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="N1" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="R1" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>184</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" ht="13.5" customHeight="1">
+      <c r="A4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
+      <c r="A5" t="s">
         <v>165</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
-    </row>
-    <row r="2" spans="1:16" s="11" customFormat="1">
-      <c r="A2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2"/>
-      <c r="E2"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2"/>
-      <c r="K2"/>
-      <c r="L2"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-    </row>
-    <row r="3" spans="1:16" s="2" customFormat="1">
-      <c r="A3" t="s">
-        <v>155</v>
-      </c>
-      <c r="B3"/>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3"/>
-      <c r="E3"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-    </row>
-    <row r="4" spans="1:16" ht="13.5" customHeight="1">
-      <c r="A4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" t="s">
+      <c r="F5" t="s">
         <v>166</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="6" spans="1:30">
+      <c r="A6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" t="s">
+    <row r="7" spans="1:30">
+      <c r="A7" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" t="s">
-        <v>169</v>
-      </c>
       <c r="G7" t="s">
         <v>2</v>
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -1704,66 +4184,193 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:16">
+    <row r="9" spans="1:30">
       <c r="A9" t="s">
-        <v>161</v>
-      </c>
-      <c r="I9" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="I9" s="10" t="s">
         <v>46</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:16">
+    <row r="10" spans="1:30">
       <c r="A10" t="s">
+        <v>161</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30">
+      <c r="A11" t="s">
         <v>162</v>
       </c>
-      <c r="J10" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" t="s">
+      <c r="K11" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30">
+      <c r="A12" t="s">
         <v>163</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" t="s">
+      <c r="L12" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
+      <c r="A13" s="10" t="s">
         <v>164</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="13" t="s">
-        <v>165</v>
-      </c>
       <c r="M13" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="P16" s="4"/>
-    </row>
-    <row r="18" spans="18:18">
-      <c r="R18" s="3"/>
+    <row r="14" spans="1:30">
+      <c r="A14" t="s">
+        <v>188</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30">
+      <c r="A15" t="s">
+        <v>392</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30">
+      <c r="A16" t="s">
+        <v>385</v>
+      </c>
+      <c r="P16" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30" ht="29">
+      <c r="A17" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q17" s="3" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" t="s">
+        <v>21</v>
+      </c>
+      <c r="R18" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30">
+      <c r="A19" t="s">
+        <v>394</v>
+      </c>
+      <c r="S19" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30">
+      <c r="A20" t="s">
+        <v>184</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" t="s">
+        <v>362</v>
+      </c>
+      <c r="U21" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" t="s">
+        <v>371</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30">
+      <c r="A23" t="s">
+        <v>364</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30">
+      <c r="A24" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="X24" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" t="s">
+        <v>377</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" t="s">
+        <v>188</v>
+      </c>
+      <c r="Z26" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA27" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" t="s">
+        <v>192</v>
+      </c>
+      <c r="AB28" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" t="s">
+        <v>193</v>
+      </c>
+      <c r="AC29" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" t="s">
+        <v>194</v>
+      </c>
+      <c r="AD30" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="AB28" r:id="rId1" xr:uid="{3BE392AA-5A82-409E-B024-C0EE93862C4D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DED914-F6D4-4CE2-A8BA-68207D44A0C9}">
   <dimension ref="A1:K10"/>
   <sheetViews>
@@ -1773,14 +4380,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="24.08984375" customWidth="1"/>
-    <col min="2" max="2" width="35.90625" customWidth="1"/>
+    <col min="1" max="1" width="24.1796875" customWidth="1"/>
+    <col min="2" max="2" width="35.81640625" customWidth="1"/>
     <col min="3" max="3" width="39.54296875" customWidth="1"/>
     <col min="4" max="4" width="31.26953125" customWidth="1"/>
     <col min="5" max="5" width="37.453125" customWidth="1"/>
     <col min="6" max="6" width="46.453125" customWidth="1"/>
     <col min="7" max="7" width="53.54296875" customWidth="1"/>
-    <col min="8" max="8" width="41.90625" customWidth="1"/>
+    <col min="8" max="8" width="41.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -1788,46 +4395,46 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="F1" s="14" t="s">
         <v>205</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="G1" s="9" t="s">
         <v>206</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="I1" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="J1" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="K1" s="20"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1835,31 +4442,31 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
+        <v>204</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="13" t="s">
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="10" t="s">
         <v>206</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="13" t="s">
-        <v>207</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -1867,17 +4474,17 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -1885,7 +4492,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F322F26-4FB8-40DF-B1E3-0F1986B4EFA1}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -1897,7 +4504,7 @@
   <cols>
     <col min="1" max="1" width="25.54296875" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="27.36328125" customWidth="1"/>
+    <col min="3" max="3" width="27.453125" customWidth="1"/>
     <col min="4" max="4" width="20.54296875" customWidth="1"/>
     <col min="5" max="5" width="28.453125" customWidth="1"/>
     <col min="6" max="6" width="27.26953125" customWidth="1"/>
@@ -1911,42 +4518,42 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>189</v>
+        <v>172</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>188</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="I1" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1" s="15" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -1954,39 +4561,39 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="13" t="s">
-        <v>189</v>
+      <c r="A6" s="10" t="s">
+        <v>188</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="13" t="s">
-        <v>162</v>
+      <c r="A7" s="10" t="s">
+        <v>161</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="13" t="s">
-        <v>164</v>
+      <c r="A8" s="10" t="s">
+        <v>163</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -2002,7 +4609,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246945EE-2FD4-4748-ABAD-B8C4C50658FF}">
   <dimension ref="A1:N11"/>
   <sheetViews>
@@ -2015,14 +4622,13 @@
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.54296875" bestFit="1" customWidth="1"/>
@@ -2153,15 +4759,15 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" t="s">
         <v>249</v>
-      </c>
-      <c r="C11" t="s">
-        <v>250</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -2176,147 +4782,690 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD52EC0-EC45-494E-8D1E-2CD04920CEE5}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AF5" sqref="AF5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.08984375" customWidth="1"/>
+    <col min="1" max="1" width="21.1796875" customWidth="1"/>
     <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.90625" customWidth="1"/>
-    <col min="4" max="4" width="22.08984375" customWidth="1"/>
-    <col min="5" max="5" width="21.6328125" customWidth="1"/>
-    <col min="6" max="7" width="22.08984375" customWidth="1"/>
+    <col min="3" max="3" width="21.81640625" customWidth="1"/>
+    <col min="4" max="4" width="22.1796875" customWidth="1"/>
+    <col min="5" max="5" width="21.54296875" customWidth="1"/>
+    <col min="6" max="7" width="22.1796875" customWidth="1"/>
     <col min="9" max="9" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:32">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>174</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>222</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="W1" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32">
       <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32">
+      <c r="A3" t="s">
         <v>170</v>
       </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>171</v>
-      </c>
       <c r="C3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15" thickBot="1">
+    <row r="5" spans="1:32" ht="15" thickBot="1">
       <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" ht="15" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:32">
+      <c r="A7" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="15" thickBot="1">
-      <c r="A6" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="13" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+    </row>
+    <row r="8" spans="1:32">
+      <c r="A8" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="13" t="s">
-        <v>174</v>
       </c>
       <c r="H8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="13" t="s">
-        <v>176</v>
+    <row r="9" spans="1:32">
+      <c r="A9" s="10" t="s">
+        <v>175</v>
       </c>
       <c r="I9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32">
+      <c r="A11" s="10" t="s">
         <v>222</v>
-      </c>
-      <c r="F10" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="13" t="s">
-        <v>223</v>
       </c>
       <c r="J11" t="s">
         <v>28</v>
       </c>
     </row>
+    <row r="12" spans="1:32">
+      <c r="A12" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="K12" s="12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="N15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="A16" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="O16" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="17" spans="1:30">
+      <c r="A17" s="10" t="s">
+        <v>367</v>
+      </c>
+      <c r="P17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:30">
+      <c r="A18" s="10" t="s">
+        <v>368</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:30" ht="15" thickBot="1">
+      <c r="A19" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="R19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:30" ht="15" thickBot="1">
+      <c r="A20" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="S20" s="30" t="s">
+        <v>382</v>
+      </c>
+      <c r="T20" s="31"/>
+    </row>
+    <row r="21" spans="1:30">
+      <c r="A21" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="T21" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="22" spans="1:30">
+      <c r="A22" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="U22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:30" ht="15" thickBot="1">
+      <c r="A23" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="V23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:30" ht="15" thickBot="1">
+      <c r="A24" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="W24" s="32" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="25" spans="1:30">
+      <c r="A25" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="X25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:30">
+      <c r="A26" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:30">
+      <c r="A27" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:30">
+      <c r="A28" s="10" t="s">
+        <v>374</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:30">
+      <c r="A29" s="10" t="s">
+        <v>375</v>
+      </c>
+      <c r="AB29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:30">
+      <c r="A30" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="AC30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:30">
+      <c r="A31" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="AD31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:30">
+      <c r="A32" s="10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" ht="15">
+      <c r="A33" s="10" t="s">
+        <v>379</v>
+      </c>
+      <c r="AE33" s="33" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32">
+      <c r="AF34" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="W24" r:id="rId1" location="Proforma-ProformaHeader/276701161105644250" display="http://hdqqlgood02v/landedgoods/Proforma/ProformaHeader - Proforma-ProformaHeader/276701161105644250" xr:uid="{D21702C4-A305-4AAD-BBAE-0F5EED204EBE}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y25"/>
+  <sheetViews>
+    <sheetView topLeftCell="AE6" workbookViewId="0">
+      <selection activeCell="U21" sqref="U21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>186</v>
+      </c>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>234</v>
+      </c>
+      <c r="N14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" t="s">
+        <v>235</v>
+      </c>
+      <c r="O15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" t="s">
+        <v>261</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>286</v>
+      </c>
+      <c r="R18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" t="s">
+        <v>359</v>
+      </c>
+      <c r="S19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" t="s">
+        <v>360</v>
+      </c>
+      <c r="T20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" t="s">
+        <v>188</v>
+      </c>
+      <c r="U21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" t="s">
+        <v>191</v>
+      </c>
+      <c r="V22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="X24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="W23" r:id="rId1" xr:uid="{1ED398C6-7EAB-4A7C-8D76-5AB2D6C1BF0E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812A3DFD-C9A0-4AD6-905C-A582CC503DE6}">
   <dimension ref="A1:AV24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="AR10" workbookViewId="0">
+      <selection activeCell="AU24" sqref="AU24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -2739,7 +5888,7 @@
         <v>2</v>
       </c>
       <c r="AU23" t="s">
-        <v>148</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="1:48">
@@ -2755,7 +5904,85 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FCD1AC-6F9D-4ECD-AC33-8DDF768AD088}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="17.6328125" customWidth="1"/>
+    <col min="2" max="2" width="26.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A9BBE6-5910-4633-8446-BC269CDBDF70}">
+  <dimension ref="A1:C9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="24.54296875" customWidth="1"/>
+    <col min="2" max="2" width="24.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="10"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195D053A-3061-42FF-AB43-9180C3C35D16}">
   <dimension ref="A1:T27"/>
   <sheetViews>
@@ -2766,9 +5993,9 @@
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="23.1796875" customWidth="1"/>
-    <col min="2" max="2" width="30.6328125" customWidth="1"/>
+    <col min="2" max="2" width="30.54296875" customWidth="1"/>
     <col min="3" max="3" width="23.7265625" customWidth="1"/>
-    <col min="4" max="4" width="28.90625" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" customWidth="1"/>
     <col min="5" max="5" width="22.1796875" customWidth="1"/>
     <col min="6" max="6" width="27.453125" customWidth="1"/>
     <col min="7" max="7" width="34.1796875" customWidth="1"/>
@@ -2802,30 +6029,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>173</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2833,15 +6060,15 @@
     </row>
     <row r="3" spans="1:14" ht="26.25" customHeight="1">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="26.25" customHeight="1">
       <c r="A4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D4" t="s">
         <v>136</v>
@@ -2849,33 +6076,33 @@
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="A5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15" thickBot="1">
+      <c r="A6" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="G6" s="12"/>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1">
-      <c r="A6" s="13" t="s">
-        <v>161</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>209</v>
-      </c>
-      <c r="G6" s="15"/>
-    </row>
-    <row r="7" spans="1:14">
-      <c r="A7" s="13" t="s">
+      <c r="F7" s="12"/>
+      <c r="G7" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
-      <c r="A8" s="13" t="s">
-        <v>174</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -2883,322 +6110,238 @@
     </row>
     <row r="9" spans="1:14">
       <c r="J9" s="5"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="21"/>
+      <c r="L9" s="18"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
     </row>
     <row r="10" spans="1:14">
       <c r="J10" s="5"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="21"/>
-      <c r="N10" s="21"/>
+      <c r="L10" s="18"/>
+      <c r="M10" s="18"/>
+      <c r="N10" s="18"/>
     </row>
     <row r="11" spans="1:14">
       <c r="J11" s="5"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="21"/>
-      <c r="N11" s="21"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
     </row>
     <row r="12" spans="1:14">
       <c r="J12" s="5"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="21"/>
-      <c r="N12" s="21"/>
+      <c r="L12" s="18"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18"/>
     </row>
     <row r="13" spans="1:14">
       <c r="J13" s="5"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="18"/>
     </row>
     <row r="14" spans="1:14">
       <c r="J14" s="5"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="18"/>
     </row>
     <row r="15" spans="1:14">
       <c r="J15" s="5"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
     </row>
     <row r="16" spans="1:14">
       <c r="J16" s="5"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
+      <c r="L16" s="18"/>
+      <c r="M16" s="18"/>
+      <c r="N16" s="18"/>
     </row>
     <row r="17" spans="19:20">
-      <c r="S17" s="21"/>
-      <c r="T17" s="22"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="19"/>
     </row>
     <row r="18" spans="19:20">
-      <c r="S18" s="21"/>
-      <c r="T18" s="22"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="19"/>
     </row>
     <row r="19" spans="19:20">
-      <c r="S19" s="21"/>
-      <c r="T19" s="22"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="19"/>
     </row>
     <row r="20" spans="19:20">
-      <c r="S20" s="21"/>
-      <c r="T20" s="22"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="19"/>
     </row>
     <row r="21" spans="19:20">
-      <c r="S21" s="21"/>
-      <c r="T21" s="22"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="19"/>
     </row>
     <row r="22" spans="19:20">
-      <c r="S22" s="21"/>
-      <c r="T22" s="22"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="19"/>
     </row>
     <row r="23" spans="19:20">
-      <c r="S23" s="21"/>
-      <c r="T23" s="22"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="19"/>
     </row>
     <row r="24" spans="19:20">
-      <c r="S24" s="21"/>
-      <c r="T24" s="22"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="19"/>
     </row>
     <row r="25" spans="19:20">
-      <c r="S25" s="21"/>
-      <c r="T25" s="22"/>
+      <c r="S25" s="18"/>
+      <c r="T25" s="19"/>
     </row>
     <row r="26" spans="19:20">
-      <c r="S26" s="21"/>
-      <c r="T26" s="22"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="19"/>
     </row>
     <row r="27" spans="19:20">
-      <c r="S27" s="21"/>
-      <c r="T27" s="22"/>
+      <c r="S27" s="18"/>
+      <c r="T27" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:R18"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED738C1-FBEE-446C-B9CD-30BE7182638B}">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB78A0DA-C388-4896-8C5F-98998A0AED85}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.81640625" customWidth="1"/>
+    <col min="2" max="2" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="2" customFormat="1">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="B1" s="23" t="s">
+        <v>362</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
-      <c r="A4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
-      <c r="A5" t="s">
-        <v>178</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
-      <c r="A6" t="s">
-        <v>179</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
-      <c r="A7" t="s">
-        <v>180</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
-      <c r="A8" s="13" t="s">
-        <v>181</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
-      <c r="A9" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="A10" t="s">
-        <v>183</v>
-      </c>
-      <c r="J10" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
-      <c r="A11" t="s">
-        <v>186</v>
-      </c>
-      <c r="K11" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="A12" t="s">
-        <v>187</v>
-      </c>
-      <c r="L12" s="16"/>
-    </row>
-    <row r="13" spans="1:18">
-      <c r="A13" t="s">
-        <v>211</v>
-      </c>
-      <c r="M13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="A14" t="s">
-        <v>235</v>
-      </c>
-      <c r="N14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
-      <c r="A15" t="s">
-        <v>236</v>
-      </c>
-      <c r="O15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
-      <c r="A16" t="s">
-        <v>262</v>
-      </c>
-      <c r="P16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
-      <c r="A17" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
-      <c r="A18" t="s">
-        <v>287</v>
-      </c>
-      <c r="R18" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2" s="24" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889710D8-6560-450C-96FF-10C1B1284DDB}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="22.36328125" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="C1" s="16"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="26" t="s">
+        <v>363</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="16"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="16"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="B5" s="16"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="B11" s="27"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="E13" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0792EDB4-ABB3-4C25-A347-5CCBCC6AAF85}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="37.453125" customWidth="1"/>
+    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAFA6AD-6022-40EA-988B-6F5370EE5D4C}">
   <dimension ref="A1:AP41"/>
   <sheetViews>
@@ -3208,27 +6351,27 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
+    <col min="1" max="1" width="23.453125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="26.90625" customWidth="1"/>
+    <col min="3" max="3" width="26.81640625" customWidth="1"/>
     <col min="4" max="4" width="25.26953125" customWidth="1"/>
-    <col min="5" max="5" width="41.6328125" customWidth="1"/>
-    <col min="6" max="6" width="20.08984375" customWidth="1"/>
-    <col min="7" max="8" width="17.90625" customWidth="1"/>
+    <col min="5" max="5" width="41.54296875" customWidth="1"/>
+    <col min="6" max="6" width="20.1796875" customWidth="1"/>
+    <col min="7" max="8" width="17.81640625" customWidth="1"/>
     <col min="9" max="12" width="16.7265625" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
-    <col min="14" max="14" width="31.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.08984375" customWidth="1"/>
+    <col min="14" max="14" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.1796875" customWidth="1"/>
     <col min="17" max="17" width="18.1796875" customWidth="1"/>
-    <col min="18" max="18" width="21.6328125" customWidth="1"/>
-    <col min="19" max="19" width="17.90625" customWidth="1"/>
-    <col min="20" max="20" width="11.6328125" customWidth="1"/>
-    <col min="21" max="21" width="20.08984375" customWidth="1"/>
-    <col min="22" max="23" width="16.90625" customWidth="1"/>
+    <col min="18" max="18" width="21.54296875" customWidth="1"/>
+    <col min="19" max="19" width="17.81640625" customWidth="1"/>
+    <col min="20" max="20" width="11.54296875" customWidth="1"/>
+    <col min="21" max="21" width="20.1796875" customWidth="1"/>
+    <col min="22" max="23" width="16.81640625" customWidth="1"/>
     <col min="24" max="24" width="11.7265625" customWidth="1"/>
-    <col min="25" max="25" width="36.6328125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.90625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.36328125" customWidth="1"/>
+    <col min="25" max="25" width="36.54296875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.453125" customWidth="1"/>
     <col min="28" max="28" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="35.1796875" bestFit="1" customWidth="1"/>
   </cols>
@@ -3238,99 +6381,99 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="8" t="s">
         <v>187</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>109</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>61</v>
       </c>
       <c r="T1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>195</v>
-      </c>
       <c r="Y1" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="AB1" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AD1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="AF1" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="AG1" s="23"/>
+      <c r="AG1" s="20"/>
       <c r="AH1" s="2"/>
       <c r="AI1" s="2"/>
       <c r="AJ1" s="2"/>
@@ -3343,7 +6486,7 @@
     </row>
     <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -3351,7 +6494,7 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -3359,7 +6502,7 @@
     </row>
     <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -3367,23 +6510,23 @@
     </row>
     <row r="5" spans="1:42">
       <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:42">
+      <c r="A6" s="10" t="s">
         <v>180</v>
       </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:42">
-      <c r="A6" s="13" t="s">
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:42">
+      <c r="A7" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:42">
-      <c r="A7" s="13" t="s">
-        <v>182</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -3391,15 +6534,15 @@
     </row>
     <row r="8" spans="1:42">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="I9" t="s">
         <v>2</v>
@@ -3407,7 +6550,7 @@
     </row>
     <row r="10" spans="1:42">
       <c r="A10" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -3415,7 +6558,7 @@
     </row>
     <row r="11" spans="1:42">
       <c r="A11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="K11" t="s">
         <v>2</v>
@@ -3423,23 +6566,23 @@
     </row>
     <row r="12" spans="1:42">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="13" spans="1:42">
       <c r="A13" t="s">
-        <v>187</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>246</v>
+        <v>186</v>
+      </c>
+      <c r="M13" s="13" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="14" spans="1:42">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N14" t="s">
         <v>2</v>
@@ -3447,7 +6590,7 @@
     </row>
     <row r="15" spans="1:42">
       <c r="A15" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="O15" t="s">
         <v>2</v>
@@ -3455,7 +6598,7 @@
     </row>
     <row r="16" spans="1:42">
       <c r="A16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -3471,7 +6614,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="R18" t="s">
         <v>2</v>
@@ -3487,7 +6630,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="T20" t="s">
         <v>2</v>
@@ -3495,7 +6638,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="U21" t="s">
         <v>2</v>
@@ -3503,23 +6646,23 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="W23" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="X24" t="s">
         <v>2</v>
@@ -3527,23 +6670,23 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Y25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Z26" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AA27" t="s">
         <v>2</v>
@@ -3551,32 +6694,32 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AB28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29" spans="1:31">
       <c r="A29" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y29" t="s">
         <v>216</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>225</v>
-      </c>
-      <c r="AC30" s="16" t="str">
+        <v>224</v>
+      </c>
+      <c r="AC30" s="13" t="str">
         <f>M13</f>
         <v>ItineraryDate</v>
       </c>
     </row>
     <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AD31" t="s">
         <v>28</v>
@@ -3584,7 +6727,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AE32" t="s">
         <v>28</v>
@@ -3592,7 +6735,7 @@
     </row>
     <row r="33" spans="1:42">
       <c r="A33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AF33" t="s">
         <v>1</v>
@@ -3605,7 +6748,7 @@
     </row>
     <row r="35" spans="1:42">
       <c r="AH35" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AI35" t="s">
         <v>2</v>
@@ -3629,7 +6772,7 @@
     </row>
     <row r="40" spans="1:42">
       <c r="AN40" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AO40" t="s">
         <v>2</v>
@@ -3650,7 +6793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1347EB-A013-4CA5-905D-90025F7B92A2}">
   <dimension ref="A1:R19"/>
   <sheetViews>
@@ -3660,20 +6803,20 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="19.6328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.36328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="17.7265625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="12.26953125" bestFit="1" customWidth="1"/>
@@ -3685,52 +6828,52 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>267</v>
+      </c>
+      <c r="C1" t="s">
         <v>268</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>269</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>270</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>271</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>272</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>273</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>274</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>287</v>
+      </c>
+      <c r="K1" t="s">
         <v>275</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>276</v>
+      </c>
+      <c r="M1" t="s">
+        <v>277</v>
+      </c>
+      <c r="N1" t="s">
+        <v>278</v>
+      </c>
+      <c r="O1" t="s">
+        <v>279</v>
+      </c>
+      <c r="P1" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q1" t="s">
         <v>288</v>
-      </c>
-      <c r="K1" t="s">
-        <v>276</v>
-      </c>
-      <c r="L1" t="s">
-        <v>277</v>
-      </c>
-      <c r="M1" t="s">
-        <v>278</v>
-      </c>
-      <c r="N1" t="s">
-        <v>279</v>
-      </c>
-      <c r="O1" t="s">
-        <v>280</v>
-      </c>
-      <c r="P1" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>289</v>
       </c>
       <c r="R1" t="s">
         <v>61</v>
@@ -3738,7 +6881,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -3746,7 +6889,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -3754,7 +6897,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -3762,15 +6905,15 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -3778,15 +6921,15 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -3794,15 +6937,15 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="I9" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -3810,23 +6953,23 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="K11" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L12" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>55</v>
@@ -3834,23 +6977,23 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="N14" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O15" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="P16" t="s">
         <v>2</v>
@@ -3858,10 +7001,10 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q17" t="s">
         <v>289</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -3874,10 +7017,10 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q19" t="s">
         <v>291</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -3889,7 +7032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957BD7CD-A76D-4E2D-819C-0B731482386B}">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -3899,14 +7042,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.36328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -3914,76 +7057,76 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C3" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="13" t="s">
+      <c r="F6" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="10" t="s">
         <v>258</v>
-      </c>
-      <c r="F6" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="13" t="s">
-        <v>259</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -3991,7 +7134,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H8" t="s">
         <v>1</v>
@@ -3999,7 +7142,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="I9" t="s">
         <v>1</v>
@@ -4007,1062 +7150,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:T20"/>
-  <sheetViews>
-    <sheetView topLeftCell="O7" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.26953125" customWidth="1"/>
-    <col min="13" max="13" width="67.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.08984375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" t="str">
-        <f>C3</f>
-        <v>NCL_Gem_AUA_Apr 22 2021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" t="s">
-        <v>233</v>
-      </c>
-      <c r="N12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="S17" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>229</v>
-      </c>
-      <c r="T18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="P19" r:id="rId1" xr:uid="{E2A6E463-C708-4E5E-87E2-030A6CC33522}"/>
-    <hyperlink ref="P14" r:id="rId2" xr:uid="{99131489-385D-4C4A-8A03-08728EFF4F74}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A922B6E-DBE4-4912-A6F2-ED308F973CCD}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="26.08984375" customWidth="1"/>
-    <col min="2" max="2" width="36.81640625" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" customWidth="1"/>
-    <col min="4" max="4" width="22.36328125" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" customWidth="1"/>
-    <col min="6" max="6" width="16.36328125" customWidth="1"/>
-    <col min="7" max="7" width="24.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9A2D9C-2784-470B-B91D-ACE450BAC5B2}">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="24.90625" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.6328125" customWidth="1"/>
-    <col min="4" max="4" width="17.6328125" customWidth="1"/>
-    <col min="5" max="5" width="17.36328125" customWidth="1"/>
-    <col min="6" max="6" width="19.90625" customWidth="1"/>
-    <col min="7" max="7" width="25.26953125" customWidth="1"/>
-    <col min="8" max="8" width="14.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="E1" s="17" t="s">
-        <v>155</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>184</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>185</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>173</v>
-      </c>
-      <c r="D4" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="13" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>105</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BF35"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AX1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BA28" sqref="BA28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.26953125" customWidth="1"/>
-    <col min="15" max="15" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="45.1796875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="23.26953125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:58" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:58">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:58">
-      <c r="A3" t="s">
-        <v>220</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:58">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="K4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:58">
-      <c r="A5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="L5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:58">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:58">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="BE7" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="8" spans="1:58">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="I8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:58">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" t="s">
-        <v>1</v>
-      </c>
-      <c r="O9" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="10" spans="1:58">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="P10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:58">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:58">
-      <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:58">
-      <c r="A13" t="s">
-        <v>72</v>
-      </c>
-      <c r="L13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:58">
-      <c r="A14" t="s">
-        <v>73</v>
-      </c>
-      <c r="M14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:58">
-      <c r="A15" t="s">
-        <v>74</v>
-      </c>
-      <c r="N15" t="s">
-        <v>239</v>
-      </c>
-      <c r="BE15" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="16" spans="1:58">
-      <c r="A16" t="s">
-        <v>242</v>
-      </c>
-      <c r="BF16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:55">
-      <c r="A17" t="s">
-        <v>243</v>
-      </c>
-      <c r="O17" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="18" spans="1:55">
-      <c r="A18" t="s">
-        <v>77</v>
-      </c>
-      <c r="P18" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:55">
-      <c r="A19" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:55">
-      <c r="A20" t="s">
-        <v>79</v>
-      </c>
-      <c r="R20" t="s">
-        <v>136</v>
-      </c>
-      <c r="S20" t="s">
-        <v>137</v>
-      </c>
-      <c r="T20">
-        <v>54543</v>
-      </c>
-      <c r="U20" t="s">
-        <v>150</v>
-      </c>
-      <c r="V20" t="s">
-        <v>2</v>
-      </c>
-      <c r="W20" t="s">
-        <v>151</v>
-      </c>
-      <c r="X20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y20" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="Z20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:55">
-      <c r="A21" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA21" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:55">
-      <c r="A22" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:55">
-      <c r="A23" t="s">
-        <v>82</v>
-      </c>
-      <c r="AC23" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>136</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="24" spans="1:55">
-      <c r="A24" t="s">
-        <v>83</v>
-      </c>
-      <c r="AG24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH24" t="s">
-        <v>141</v>
-      </c>
-      <c r="AI24">
-        <v>1</v>
-      </c>
-      <c r="AJ24">
-        <v>1</v>
-      </c>
-      <c r="AK24" t="s">
-        <v>2</v>
-      </c>
-      <c r="AL24" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="25" spans="1:55">
-      <c r="A25" t="s">
-        <v>84</v>
-      </c>
-      <c r="AM25" t="s">
-        <v>2</v>
-      </c>
-      <c r="AN25" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="26" spans="1:55">
-      <c r="A26" t="s">
-        <v>85</v>
-      </c>
-      <c r="AO26" t="s">
-        <v>2</v>
-      </c>
-      <c r="AP26" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="AQ26">
-        <v>12343212</v>
-      </c>
-      <c r="AR26" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="AS26">
-        <v>1</v>
-      </c>
-      <c r="AT26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:55">
-      <c r="A27" t="s">
-        <v>66</v>
-      </c>
-      <c r="AU27" t="s">
-        <v>2</v>
-      </c>
-      <c r="AV27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:55">
-      <c r="A28" t="s">
-        <v>86</v>
-      </c>
-      <c r="AW28" t="s">
-        <v>147</v>
-      </c>
-      <c r="AX28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:55">
-      <c r="A29" t="s">
-        <v>87</v>
-      </c>
-      <c r="AY29" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:55">
-      <c r="A30" t="s">
-        <v>88</v>
-      </c>
-      <c r="AZ30" t="s">
-        <v>2</v>
-      </c>
-      <c r="BA30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="31" spans="1:55">
-      <c r="A31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB31" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="32" spans="1:55">
-      <c r="A32" t="s">
-        <v>48</v>
-      </c>
-      <c r="BC32" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:57">
-      <c r="A33" t="s">
-        <v>71</v>
-      </c>
-      <c r="BD33" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:57">
-      <c r="A34" t="s">
-        <v>237</v>
-      </c>
-      <c r="BE34" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:57">
-      <c r="A35" t="s">
-        <v>241</v>
-      </c>
-      <c r="N35" t="s">
-        <v>239</v>
       </c>
     </row>
   </sheetData>

--- a/config/uat/ccp/nclccp.xlsx
+++ b/config/uat/ccp/nclccp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finalgithub\ccpautomationFinal\ccpautomationFinal\config\uat\ccp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB3994B-43C1-4CD6-8498-3E309628852A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E714940-8B69-4037-BC34-1C11F887110C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="8" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="3" r:id="rId1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1242" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="401">
   <si>
     <t>DATA_ID</t>
   </si>
@@ -1255,6 +1255,12 @@
   </si>
   <si>
     <t>E7T-1087176-7</t>
+  </si>
+  <si>
+    <t>offloadforms</t>
+  </si>
+  <si>
+    <t>ValuationTypeEditValnonus</t>
   </si>
 </sst>
 </file>
@@ -3290,11 +3296,11 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BQ48"/>
+  <dimension ref="A1:BR48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
+    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BR2" sqref="BR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -3319,7 +3325,7 @@
     <col min="57" max="57" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="2" customFormat="1">
+    <row r="1" spans="1:70" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3351,7 +3357,7 @@
         <v>26</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>71</v>
+        <v>399</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>90</v>
@@ -3527,8 +3533,11 @@
       <c r="BQ1" s="2" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="2" spans="1:69">
+      <c r="BR1" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="2" spans="1:70">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3536,7 +3545,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:70">
       <c r="A3" t="s">
         <v>219</v>
       </c>
@@ -3544,7 +3553,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:70">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3557,7 +3566,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:69">
+    <row r="5" spans="1:70">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3570,7 +3579,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:70">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3581,7 +3590,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:70">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3598,7 +3607,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:69">
+    <row r="8" spans="1:70">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3606,7 +3615,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:69">
+    <row r="9" spans="1:70">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3617,7 +3626,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:70">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3625,7 +3634,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:70">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3633,7 +3642,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:69">
+    <row r="12" spans="1:70">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -3641,7 +3650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:69">
+    <row r="13" spans="1:70">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -3649,7 +3658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:69">
+    <row r="14" spans="1:70">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -3657,7 +3666,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:69">
+    <row r="15" spans="1:70">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -3668,7 +3677,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:69">
+    <row r="16" spans="1:70">
       <c r="A16" t="s">
         <v>241</v>
       </c>
@@ -4024,7 +4033,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F6F92B-CE4D-4CE1-BDAA-9B5D90BAB133}">
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
@@ -6797,8 +6806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1347EB-A013-4CA5-905D-90025F7B92A2}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7012,7 +7021,7 @@
         <v>61</v>
       </c>
       <c r="R18" t="s">
-        <v>2</v>
+        <v>244</v>
       </c>
     </row>
     <row r="19" spans="1:18">
@@ -7037,7 +7046,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7047,7 +7056,7 @@
     <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
   </cols>

--- a/config/uat/ccp/nclccp.xlsx
+++ b/config/uat/ccp/nclccp.xlsx
@@ -8,34 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finalgithub\ccpautomationFinal\ccpautomationFinal\config\uat\ccp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E714940-8B69-4037-BC34-1C11F887110C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8795121-887C-43F0-AD02-D042A2AEA19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="13" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="3" r:id="rId1"/>
     <sheet name="DashboardPage" sheetId="1" r:id="rId2"/>
-    <sheet name="1" sheetId="23" r:id="rId3"/>
-    <sheet name="StatusBrokerSubmittedToCustomsP" sheetId="18" r:id="rId4"/>
-    <sheet name="customsrejectPage" sheetId="19" r:id="rId5"/>
-    <sheet name="OffloadstatuscustomsapprovePage" sheetId="20" r:id="rId6"/>
-    <sheet name="itineraryForUsPortPage" sheetId="9" r:id="rId7"/>
-    <sheet name="AdministrationPage" sheetId="16" r:id="rId8"/>
-    <sheet name="SettingsPortPage" sheetId="15" r:id="rId9"/>
-    <sheet name="OffloadeventsPage" sheetId="2" r:id="rId10"/>
-    <sheet name="OffloadExportFormXlPage" sheetId="13" r:id="rId11"/>
-    <sheet name="CustomsExportFormPdfPage" sheetId="14" r:id="rId12"/>
-    <sheet name="CCPUsportPage" sheetId="17" r:id="rId13"/>
-    <sheet name="UsportPage" sheetId="4" r:id="rId14"/>
-    <sheet name="EditOffloadFormPage" sheetId="7" r:id="rId15"/>
-    <sheet name="EmailOffloadFormPage" sheetId="11" r:id="rId16"/>
-    <sheet name="ExportCustomsFormXl" sheetId="10" r:id="rId17"/>
-    <sheet name="OffloadformsPage" sheetId="5" r:id="rId18"/>
-    <sheet name="AmendEditOffloadFormPage" sheetId="8" r:id="rId19"/>
-    <sheet name="UsportPage2" sheetId="6" r:id="rId20"/>
-    <sheet name="ExportDraftPage" sheetId="21" r:id="rId21"/>
-    <sheet name="ExcelExportOffloadPage" sheetId="22" r:id="rId22"/>
-    <sheet name="RecallIntitiated" sheetId="12" r:id="rId23"/>
+    <sheet name="StatusBrokerSubmittedToCustomsP" sheetId="18" r:id="rId3"/>
+    <sheet name="customsrejectPage" sheetId="19" r:id="rId4"/>
+    <sheet name="OffloadstatuscustomsapprovePage" sheetId="20" r:id="rId5"/>
+    <sheet name="itineraryForUsPortPage" sheetId="9" r:id="rId6"/>
+    <sheet name="AdministrationPage" sheetId="16" r:id="rId7"/>
+    <sheet name="SettingsPortPage" sheetId="15" r:id="rId8"/>
+    <sheet name="OffloadeventsPage" sheetId="2" r:id="rId9"/>
+    <sheet name="OffloadExportFormXlPage" sheetId="13" r:id="rId10"/>
+    <sheet name="CustomsExportFormPdfPage" sheetId="14" r:id="rId11"/>
+    <sheet name="CCPUsportPage" sheetId="17" r:id="rId12"/>
+    <sheet name="UsportPage" sheetId="4" r:id="rId13"/>
+    <sheet name="EditOffloadFormPage" sheetId="7" r:id="rId14"/>
+    <sheet name="EmailOffloadFormPage" sheetId="11" r:id="rId15"/>
+    <sheet name="ExportCustomsFormXl" sheetId="10" r:id="rId16"/>
+    <sheet name="OffloadformsPage" sheetId="5" r:id="rId17"/>
+    <sheet name="AmendEditOffloadFormPage" sheetId="8" r:id="rId18"/>
+    <sheet name="UsportPage2" sheetId="6" r:id="rId19"/>
+    <sheet name="ExportDraftPage" sheetId="21" r:id="rId20"/>
+    <sheet name="ExcelExportOffloadPage" sheetId="22" r:id="rId21"/>
+    <sheet name="RecallIntitiated" sheetId="12" r:id="rId22"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1243" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="408">
   <si>
     <t>DATA_ID</t>
   </si>
@@ -807,9 +806,6 @@
     <t>existingreleasedoffloadform</t>
   </si>
   <si>
-    <t>NOCLGEM122222011</t>
-  </si>
-  <si>
     <t>AdminLogin</t>
   </si>
   <si>
@@ -936,9 +932,6 @@
     <t>purser|CLICK</t>
   </si>
   <si>
-    <t>FILE_UPLOAD|D:\CCPAutomationtemp\File3.pdf</t>
-  </si>
-  <si>
     <t>StorageFrom</t>
   </si>
   <si>
@@ -1248,12 +1241,6 @@
     <t>offloadformpdf5</t>
   </si>
   <si>
-    <t>FILE_UPLOAD|D:\File\Filename.txt</t>
-  </si>
-  <si>
-    <t>FILE_UPLOAD|D:\Folderfile\Filefolder.txt</t>
-  </si>
-  <si>
     <t>E7T-1087176-7</t>
   </si>
   <si>
@@ -1261,6 +1248,40 @@
   </si>
   <si>
     <t>ValuationTypeEditValnonus</t>
+  </si>
+  <si>
+    <t>411-104-000000057</t>
+  </si>
+  <si>
+    <t>Amendsearchvalue</t>
+  </si>
+  <si>
+    <t>NCL_Gem_MIA_Oct 17 2021</t>
+  </si>
+  <si>
+    <t>FILE_UPLOAD|D:\Finalgithub\ccpautomationFinal\ccpautomationFinal\files\File1.pdf</t>
+  </si>
+  <si>
+    <t>sendtocustoms</t>
+  </si>
+  <si>
+    <t>Test note</t>
+  </si>
+  <si>
+    <t>NCL_Bliss_JUN_Jun 21 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCL_Bliss_JUN_Jun 28 2022
+</t>
+  </si>
+  <si>
+    <t>searchvalue</t>
+  </si>
+  <si>
+    <t>searchdata</t>
+  </si>
+  <si>
+    <t>FILE_UPLOAD|D:\CCPAutomationtemp\File4.pdf</t>
   </si>
 </sst>
 </file>
@@ -1932,13 +1953,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>249</v>
+      </c>
+      <c r="B8" t="s">
         <v>250</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>251</v>
-      </c>
-      <c r="C8" t="s">
-        <v>252</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -1946,10 +1967,10 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C9" t="s">
         <v>218</v>
@@ -1965,276 +1986,10 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:T20"/>
-  <sheetViews>
-    <sheetView topLeftCell="O7" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.26953125" customWidth="1"/>
-    <col min="13" max="13" width="67.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.7265625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20">
-      <c r="A2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" t="s">
-        <v>2</v>
-      </c>
-      <c r="J9" t="str">
-        <f>C3</f>
-        <v>NCL_Gem_AUA_Apr 22 2021</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-      <c r="L11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" t="s">
-        <v>232</v>
-      </c>
-      <c r="N12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>52</v>
-      </c>
-      <c r="O13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>53</v>
-      </c>
-      <c r="P14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="S17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
-      <c r="A18" t="s">
-        <v>228</v>
-      </c>
-      <c r="T18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="P19" r:id="rId1" xr:uid="{E2A6E463-C708-4E5E-87E2-030A6CC33522}"/>
-    <hyperlink ref="P14" r:id="rId2" xr:uid="{99131489-385D-4C4A-8A03-08728EFF4F74}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A922B6E-DBE4-4912-A6F2-ED308F973CCD}">
   <dimension ref="A1:G7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -2323,7 +2078,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C9A2D9C-2784-470B-B91D-ACE450BAC5B2}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -2428,12 +2183,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B447BFF-DFD0-420A-9B95-A22889489E98}">
   <dimension ref="A1:BU56"/>
   <sheetViews>
-    <sheetView topLeftCell="AR22" workbookViewId="0">
-      <selection activeCell="AT48" sqref="AT48"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -2481,13 +2236,13 @@
         <v>94</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>293</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>295</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>95</v>
@@ -2610,40 +2365,40 @@
         <v>172</v>
       </c>
       <c r="BA1" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="BC1" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="BM1" s="2" t="s">
         <v>234</v>
@@ -2652,22 +2407,22 @@
         <v>235</v>
       </c>
       <c r="BO1" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>311</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="BU1" s="2" t="s">
         <v>21</v>
@@ -2721,15 +2476,15 @@
         <v>74</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="8" spans="1:73">
       <c r="A8" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:73">
@@ -2750,16 +2505,16 @@
     </row>
     <row r="11" spans="1:73">
       <c r="A11" t="s">
+        <v>315</v>
+      </c>
+      <c r="I11" t="s">
+        <v>316</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>320</v>
       </c>
       <c r="L11" t="s">
         <v>136</v>
@@ -2775,7 +2530,7 @@
     </row>
     <row r="13" spans="1:73">
       <c r="A13" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:73">
@@ -2820,7 +2575,7 @@
     </row>
     <row r="16" spans="1:73">
       <c r="A16" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="O16" t="s">
         <v>136</v>
@@ -2838,13 +2593,13 @@
         <v>2</v>
       </c>
       <c r="T16" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="U16" t="s">
         <v>28</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="W16" t="s">
         <v>2</v>
@@ -2922,7 +2677,7 @@
     </row>
     <row r="22" spans="1:65">
       <c r="A22" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AJ22" t="s">
         <v>2</v>
@@ -2956,7 +2711,7 @@
     </row>
     <row r="24" spans="1:65">
       <c r="A24" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AL24" t="s">
         <v>2</v>
@@ -3010,7 +2765,7 @@
         <v>2</v>
       </c>
       <c r="AX28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -3026,39 +2781,39 @@
         <v>172</v>
       </c>
       <c r="AZ30" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:65">
       <c r="A31" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="BA31" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="32" spans="1:65">
       <c r="A32" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="BA32" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
     </row>
     <row r="33" spans="1:66">
       <c r="A33" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AZ33" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="BA33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:66">
       <c r="A34" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="BB34" t="s">
         <v>2</v>
@@ -3066,7 +2821,7 @@
     </row>
     <row r="35" spans="1:66">
       <c r="A35" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="BC35" t="s">
         <v>2</v>
@@ -3074,24 +2829,24 @@
     </row>
     <row r="36" spans="1:66">
       <c r="A36" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BE36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
     </row>
     <row r="37" spans="1:66">
       <c r="A37" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="BF37" t="s">
         <v>2</v>
       </c>
       <c r="BG37" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="BH37" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BI37" t="s">
         <v>2</v>
@@ -3099,78 +2854,78 @@
     </row>
     <row r="38" spans="1:66">
       <c r="A38" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BD38" t="s">
         <v>2</v>
       </c>
       <c r="BE38" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="39" spans="1:66">
       <c r="A39" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="BD39" t="s">
         <v>2</v>
       </c>
       <c r="BE39" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40" spans="1:66">
       <c r="A40" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="BD40" t="s">
         <v>2</v>
       </c>
       <c r="BE40" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
     </row>
     <row r="41" spans="1:66">
       <c r="A41" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="BD41" t="s">
         <v>244</v>
       </c>
       <c r="BE41" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:66">
       <c r="A42" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="BE42" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="43" spans="1:66">
       <c r="A43" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="BD43" t="s">
         <v>244</v>
       </c>
       <c r="BE43" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="44" spans="1:66">
       <c r="A44" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AZ44" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="45" spans="1:66">
       <c r="A45" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="BJ45" t="s">
         <v>244</v>
@@ -3181,7 +2936,7 @@
     </row>
     <row r="46" spans="1:66">
       <c r="A46" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="BL46" t="s">
         <v>244</v>
@@ -3205,7 +2960,7 @@
     </row>
     <row r="49" spans="1:73">
       <c r="A49" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="BO49" t="s">
         <v>2</v>
@@ -3213,10 +2968,10 @@
     </row>
     <row r="50" spans="1:73">
       <c r="A50" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="BA50" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="BD50" t="s">
         <v>244</v>
@@ -3224,10 +2979,10 @@
     </row>
     <row r="51" spans="1:73">
       <c r="A51" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="BA51" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="BD51" t="s">
         <v>244</v>
@@ -3235,7 +2990,7 @@
     </row>
     <row r="52" spans="1:73">
       <c r="A52" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BP52" t="s">
         <v>244</v>
@@ -3243,7 +2998,7 @@
     </row>
     <row r="53" spans="1:73">
       <c r="A53" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="BQ53" t="s">
         <v>244</v>
@@ -3251,7 +3006,7 @@
     </row>
     <row r="54" spans="1:73">
       <c r="A54" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="Y54" t="s">
         <v>2</v>
@@ -3262,13 +3017,13 @@
     </row>
     <row r="55" spans="1:73">
       <c r="A55" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BS55" t="s">
         <v>2</v>
       </c>
       <c r="BT55" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="BU55" t="s">
         <v>244</v>
@@ -3276,13 +3031,13 @@
     </row>
     <row r="56" spans="1:73">
       <c r="A56" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="BG56" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="BH56" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BI56" t="s">
         <v>2</v>
@@ -3294,13 +3049,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BR48"/>
+  <dimension ref="A1:BR49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BP1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BR2" sqref="BR2"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BE31" sqref="BE31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -3325,7 +3080,7 @@
     <col min="57" max="57" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" s="2" customFormat="1">
+    <row r="1" spans="1:69" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3357,7 +3112,7 @@
         <v>26</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>90</v>
@@ -3501,16 +3256,16 @@
         <v>241</v>
       </c>
       <c r="BG1" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="BH1" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="BI1" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="BI1" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="BJ1" s="9" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="BK1" s="2" t="s">
         <v>183</v>
@@ -3519,25 +3274,22 @@
         <v>184</v>
       </c>
       <c r="BM1" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="BN1" s="2" t="s">
         <v>188</v>
       </c>
       <c r="BO1" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="BP1" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="BQ1" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="BP1" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>391</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="2" spans="1:70">
+    </row>
+    <row r="2" spans="1:69">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3545,7 +3297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:70">
+    <row r="3" spans="1:69">
       <c r="A3" t="s">
         <v>219</v>
       </c>
@@ -3553,7 +3305,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:70">
+    <row r="4" spans="1:69">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3566,7 +3318,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:70">
+    <row r="5" spans="1:69">
       <c r="A5" t="s">
         <v>23</v>
       </c>
@@ -3579,7 +3331,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:70">
+    <row r="6" spans="1:69">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3590,7 +3342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:70">
+    <row r="7" spans="1:69">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -3607,7 +3359,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="8" spans="1:70">
+    <row r="8" spans="1:69">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3615,7 +3367,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:70">
+    <row r="9" spans="1:69">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3626,7 +3378,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="10" spans="1:70">
+    <row r="10" spans="1:69">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3634,7 +3386,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:70">
+    <row r="11" spans="1:69">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3642,7 +3394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:70">
+    <row r="12" spans="1:69">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -3650,7 +3402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:70">
+    <row r="13" spans="1:69">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -3658,7 +3410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:70">
+    <row r="14" spans="1:69">
       <c r="A14" t="s">
         <v>73</v>
       </c>
@@ -3666,7 +3418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:70">
+    <row r="15" spans="1:69">
       <c r="A15" t="s">
         <v>74</v>
       </c>
@@ -3677,7 +3429,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="16" spans="1:70">
+    <row r="16" spans="1:69">
       <c r="A16" t="s">
         <v>241</v>
       </c>
@@ -3869,7 +3621,7 @@
         <v>2</v>
       </c>
       <c r="BA30" t="s">
-        <v>292</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:55">
@@ -3914,7 +3666,7 @@
     </row>
     <row r="36" spans="1:69">
       <c r="A36" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="AM36" s="5"/>
       <c r="AO36" t="s">
@@ -3932,7 +3684,7 @@
     </row>
     <row r="37" spans="1:69">
       <c r="A37" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AM37" s="5"/>
       <c r="AO37" s="6"/>
@@ -3950,7 +3702,7 @@
     </row>
     <row r="39" spans="1:69">
       <c r="A39" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="BI39" t="s">
         <v>2</v>
@@ -3958,7 +3710,7 @@
     </row>
     <row r="40" spans="1:69">
       <c r="A40" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="BJ40" t="s">
         <v>2</v>
@@ -3980,7 +3732,7 @@
     </row>
     <row r="43" spans="1:69">
       <c r="A43" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="BM43" t="s">
         <v>2</v>
@@ -3988,7 +3740,7 @@
     </row>
     <row r="44" spans="1:69">
       <c r="A44" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="45" spans="1:69">
@@ -4001,7 +3753,7 @@
     </row>
     <row r="46" spans="1:69">
       <c r="A46" s="15" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="BO46" t="s">
         <v>2</v>
@@ -4009,7 +3761,7 @@
     </row>
     <row r="47" spans="1:69">
       <c r="A47" s="15" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="BP47" t="s">
         <v>2</v>
@@ -4017,10 +3769,18 @@
     </row>
     <row r="48" spans="1:69">
       <c r="A48" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="BQ48" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:70">
+      <c r="A49" t="s">
+        <v>396</v>
+      </c>
+      <c r="BR49" t="s">
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -4029,12 +3789,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F6F92B-CE4D-4CE1-BDAA-9B5D90BAB133}">
-  <dimension ref="A1:AD30"/>
+  <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="A13:XFD13"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -4042,7 +3802,7 @@
     <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" s="2" customFormat="1">
+    <row r="1" spans="1:31" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4086,43 +3846,43 @@
         <v>188</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="R1" s="29" t="s">
         <v>21</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="T1" s="29" t="s">
         <v>184</v>
       </c>
       <c r="U1" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="V1" s="8" t="s">
+      <c r="X1" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="W1" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>373</v>
-      </c>
       <c r="Y1" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Z1" s="2" t="s">
         <v>188</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AB1" s="2" t="s">
         <v>192</v>
@@ -4133,8 +3893,11 @@
       <c r="AD1" s="2" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="2" spans="1:30" ht="13.5" customHeight="1">
+      <c r="AE1" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="2" spans="1:31" ht="13.5" customHeight="1">
       <c r="A2" t="s">
         <v>153</v>
       </c>
@@ -4142,7 +3905,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:30" ht="13.5" customHeight="1">
+    <row r="3" spans="1:31" ht="13.5" customHeight="1">
       <c r="A3" t="s">
         <v>154</v>
       </c>
@@ -4150,7 +3913,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:30" ht="13.5" customHeight="1">
+    <row r="4" spans="1:31" ht="13.5" customHeight="1">
       <c r="A4" t="s">
         <v>155</v>
       </c>
@@ -4161,7 +3924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:30">
+    <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>165</v>
       </c>
@@ -4169,12 +3932,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="6" spans="1:30">
+    <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="7" spans="1:30">
+    <row r="7" spans="1:31">
       <c r="A7" t="s">
         <v>168</v>
       </c>
@@ -4183,7 +3946,7 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:30">
+    <row r="8" spans="1:31">
       <c r="A8" t="s">
         <v>159</v>
       </c>
@@ -4193,7 +3956,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:30">
+    <row r="9" spans="1:31">
       <c r="A9" t="s">
         <v>160</v>
       </c>
@@ -4203,7 +3966,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:30">
+    <row r="10" spans="1:31">
       <c r="A10" t="s">
         <v>161</v>
       </c>
@@ -4211,7 +3974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:30">
+    <row r="11" spans="1:31">
       <c r="A11" t="s">
         <v>162</v>
       </c>
@@ -4219,7 +3982,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:30">
+    <row r="12" spans="1:31">
       <c r="A12" t="s">
         <v>163</v>
       </c>
@@ -4227,7 +3990,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:30">
+    <row r="13" spans="1:31">
       <c r="A13" s="10" t="s">
         <v>164</v>
       </c>
@@ -4235,7 +3998,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:30">
+    <row r="14" spans="1:31">
       <c r="A14" t="s">
         <v>188</v>
       </c>
@@ -4243,31 +4006,31 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:30">
+    <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:30">
+    <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" ht="29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="72.5">
       <c r="A17" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -4275,15 +4038,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:30">
+    <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="S19" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:31">
       <c r="A20" t="s">
         <v>184</v>
       </c>
@@ -4291,47 +4054,47 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:30">
+    <row r="21" spans="1:31">
       <c r="A21" t="s">
+        <v>360</v>
+      </c>
+      <c r="U21" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" t="s">
+        <v>369</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31">
+      <c r="A23" t="s">
         <v>362</v>
       </c>
-      <c r="U21" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30">
-      <c r="A22" t="s">
+      <c r="W23" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31">
+      <c r="A24" s="28" t="s">
         <v>371</v>
       </c>
-      <c r="V22" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30">
-      <c r="A23" t="s">
-        <v>364</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30">
-      <c r="A24" s="28" t="s">
-        <v>373</v>
-      </c>
       <c r="X24" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="Y25" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:31">
       <c r="A26" t="s">
         <v>188</v>
       </c>
@@ -4339,23 +4102,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:30">
+    <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="AA27" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:30">
+    <row r="28" spans="1:31">
       <c r="A28" t="s">
         <v>192</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
       <c r="A29" t="s">
         <v>193</v>
       </c>
@@ -4363,12 +4126,20 @@
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:30">
+    <row r="30" spans="1:31">
       <c r="A30" t="s">
         <v>194</v>
       </c>
       <c r="AD30" s="3" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="21" t="s">
+        <v>401</v>
+      </c>
+      <c r="AE31" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -4376,15 +4147,16 @@
     <hyperlink ref="AB28" r:id="rId1" xr:uid="{3BE392AA-5A82-409E-B024-C0EE93862C4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76DED914-F6D4-4CE2-A8BA-68207D44A0C9}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4501,7 +4273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F322F26-4FB8-40DF-B1E3-0F1986B4EFA1}">
   <dimension ref="A1:I9"/>
   <sheetViews>
@@ -4618,12 +4390,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246945EE-2FD4-4748-ABAD-B8C4C50658FF}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:O18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4643,7 +4415,7 @@
     <col min="14" max="14" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1">
+    <row r="1" spans="1:15" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4686,8 +4458,11 @@
       <c r="N1" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>45</v>
       </c>
@@ -4695,7 +4470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>47</v>
       </c>
@@ -4706,7 +4481,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -4714,7 +4489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -4722,7 +4497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -4736,7 +4511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>64</v>
       </c>
@@ -4750,7 +4525,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:14">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>68</v>
       </c>
@@ -4758,7 +4533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -4766,19 +4541,93 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:14">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>248</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>397</v>
       </c>
       <c r="D11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" t="s">
+        <v>398</v>
+      </c>
+      <c r="C12" t="s">
+        <v>399</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" t="s">
+        <v>366</v>
+      </c>
+      <c r="C13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" t="s">
+        <v>360</v>
+      </c>
+      <c r="O14">
+        <v>12341234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" t="s">
+        <v>367</v>
+      </c>
+      <c r="C15" t="s">
+        <v>382</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" t="s">
+        <v>370</v>
+      </c>
+      <c r="C16" t="s">
+        <v>382</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" t="s">
+        <v>403</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>364</v>
+      </c>
+      <c r="C18" t="s">
+        <v>404</v>
+      </c>
+      <c r="D18" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4791,12 +4640,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD52EC0-EC45-494E-8D1E-2CD04920CEE5}">
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="AF5" sqref="AF5"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4840,7 +4689,7 @@
         <v>222</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>173</v>
@@ -4850,58 +4699,58 @@
         <v>188</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>366</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>368</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>154</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="W1" s="29" t="s">
         <v>370</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="W1" s="29" t="s">
-        <v>372</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="Z1" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>377</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>378</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="2" spans="1:32">
@@ -4925,7 +4774,7 @@
         <v>157</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="15" thickBot="1">
@@ -4986,7 +4835,7 @@
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="10" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>29</v>
@@ -5015,26 +4864,26 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="10" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="O16" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="10" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="P17" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="10" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="Q18" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="15" thickBot="1">
@@ -5047,24 +4896,24 @@
     </row>
     <row r="20" spans="1:30" ht="15" thickBot="1">
       <c r="A20" s="10" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="S20" s="30" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="T20" s="31"/>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="10" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="T21" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="10" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="U22" t="s">
         <v>2</v>
@@ -5072,7 +4921,7 @@
     </row>
     <row r="23" spans="1:30" ht="15" thickBot="1">
       <c r="A23" s="10" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="V23" t="s">
         <v>2</v>
@@ -5080,10 +4929,10 @@
     </row>
     <row r="24" spans="1:30" ht="15" thickBot="1">
       <c r="A24" s="28" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="W24" s="32" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -5096,7 +4945,7 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="10" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="Y26" t="s">
         <v>2</v>
@@ -5104,7 +4953,7 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="10" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="Z27" t="s">
         <v>2</v>
@@ -5112,7 +4961,7 @@
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="10" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="AA28" t="s">
         <v>2</v>
@@ -5120,7 +4969,7 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="10" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AB29" t="s">
         <v>2</v>
@@ -5128,7 +4977,7 @@
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="10" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="AC30" t="s">
         <v>2</v>
@@ -5136,7 +4985,7 @@
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="10" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="AD31" t="s">
         <v>2</v>
@@ -5144,18 +4993,24 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="10" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="15">
       <c r="A33" s="10" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AE33" s="33" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="34" spans="1:32">
+      <c r="A34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
+      </c>
       <c r="AF34" t="s">
         <v>2</v>
       </c>
@@ -5169,307 +5024,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y25"/>
-  <sheetViews>
-    <sheetView topLeftCell="AE6" workbookViewId="0">
-      <selection activeCell="U21" sqref="U21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:25" s="2" customFormat="1">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>182</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" t="s">
-        <v>176</v>
-      </c>
-      <c r="D4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25">
-      <c r="A5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E5" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25">
-      <c r="A6" t="s">
-        <v>178</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25">
-      <c r="A7" t="s">
-        <v>179</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25">
-      <c r="A8" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="I9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" t="s">
-        <v>182</v>
-      </c>
-      <c r="J10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25">
-      <c r="A11" t="s">
-        <v>185</v>
-      </c>
-      <c r="K11" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25">
-      <c r="A12" t="s">
-        <v>186</v>
-      </c>
-      <c r="L12" s="13"/>
-    </row>
-    <row r="13" spans="1:25">
-      <c r="A13" t="s">
-        <v>210</v>
-      </c>
-      <c r="M13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25">
-      <c r="A14" t="s">
-        <v>234</v>
-      </c>
-      <c r="N14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25">
-      <c r="A15" t="s">
-        <v>235</v>
-      </c>
-      <c r="O15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25">
-      <c r="A16" t="s">
-        <v>261</v>
-      </c>
-      <c r="P16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25">
-      <c r="A17" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25">
-      <c r="A18" t="s">
-        <v>286</v>
-      </c>
-      <c r="R18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25">
-      <c r="A19" t="s">
-        <v>359</v>
-      </c>
-      <c r="S19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25">
-      <c r="A20" t="s">
-        <v>360</v>
-      </c>
-      <c r="T20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25">
-      <c r="A21" t="s">
-        <v>188</v>
-      </c>
-      <c r="U21" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25">
-      <c r="A22" t="s">
-        <v>191</v>
-      </c>
-      <c r="V22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25">
-      <c r="A23" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="W23" s="4" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25">
-      <c r="A24" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="X24" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25">
-      <c r="A25" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="W23" r:id="rId1" xr:uid="{1ED398C6-7EAB-4A7C-8D76-5AB2D6C1BF0E}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{812A3DFD-C9A0-4AD6-905C-A582CC503DE6}">
   <dimension ref="A1:AV24"/>
   <sheetViews>
@@ -5897,7 +5452,7 @@
         <v>2</v>
       </c>
       <c r="AU23" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="24" spans="1:48">
@@ -5913,7 +5468,307 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:Y25"/>
+  <sheetViews>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" t="s">
+        <v>178</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="H8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="I9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" t="s">
+        <v>182</v>
+      </c>
+      <c r="J10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" t="s">
+        <v>185</v>
+      </c>
+      <c r="K11" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" t="s">
+        <v>186</v>
+      </c>
+      <c r="L12" s="13"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" t="s">
+        <v>210</v>
+      </c>
+      <c r="M13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" t="s">
+        <v>234</v>
+      </c>
+      <c r="N14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" t="s">
+        <v>235</v>
+      </c>
+      <c r="O15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" t="s">
+        <v>260</v>
+      </c>
+      <c r="P16" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" t="s">
+        <v>284</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" t="s">
+        <v>285</v>
+      </c>
+      <c r="R18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" t="s">
+        <v>357</v>
+      </c>
+      <c r="S19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" t="s">
+        <v>358</v>
+      </c>
+      <c r="T20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" t="s">
+        <v>188</v>
+      </c>
+      <c r="U21" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" t="s">
+        <v>191</v>
+      </c>
+      <c r="V22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="W23" s="4" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="X24" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="W23" r:id="rId1" xr:uid="{1ED398C6-7EAB-4A7C-8D76-5AB2D6C1BF0E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FCD1AC-6F9D-4ECD-AC33-8DDF768AD088}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -5932,13 +5787,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -5949,7 +5804,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A9BBE6-5910-4633-8446-BC269CDBDF70}">
   <dimension ref="A1:C9"/>
   <sheetViews>
@@ -5991,7 +5846,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195D053A-3061-42FF-AB43-9180C3C35D16}">
   <dimension ref="A1:T27"/>
   <sheetViews>
@@ -6215,23 +6070,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FED738C1-FBEE-446C-B9CD-30BE7182638B}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB78A0DA-C388-4896-8C5F-98998A0AED85}">
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6245,13 +6088,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>2</v>
@@ -6262,7 +6105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{889710D8-6560-450C-96FF-10C1B1284DDB}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -6281,13 +6124,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="26" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -6314,12 +6157,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0792EDB4-ABB3-4C25-A347-5CCBCC6AAF85}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6333,16 +6176,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -6350,7 +6193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAFA6AD-6022-40EA-988B-6F5370EE5D4C}">
   <dimension ref="A1:AP41"/>
   <sheetViews>
@@ -6802,11 +6645,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1347EB-A013-4CA5-905D-90025F7B92A2}">
   <dimension ref="A1:R19"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
@@ -6837,52 +6680,52 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C1" t="s">
         <v>267</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>268</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>269</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>270</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>271</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>272</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>273</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>286</v>
+      </c>
+      <c r="K1" t="s">
         <v>274</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>275</v>
+      </c>
+      <c r="M1" t="s">
+        <v>276</v>
+      </c>
+      <c r="N1" t="s">
+        <v>277</v>
+      </c>
+      <c r="O1" t="s">
+        <v>278</v>
+      </c>
+      <c r="P1" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q1" t="s">
         <v>287</v>
-      </c>
-      <c r="K1" t="s">
-        <v>275</v>
-      </c>
-      <c r="L1" t="s">
-        <v>276</v>
-      </c>
-      <c r="M1" t="s">
-        <v>277</v>
-      </c>
-      <c r="N1" t="s">
-        <v>278</v>
-      </c>
-      <c r="O1" t="s">
-        <v>279</v>
-      </c>
-      <c r="P1" t="s">
-        <v>280</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>288</v>
       </c>
       <c r="R1" t="s">
         <v>61</v>
@@ -6890,7 +6733,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -6898,7 +6741,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -6906,7 +6749,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -6914,15 +6757,15 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -6930,15 +6773,15 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -6946,15 +6789,15 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="I9" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -6962,23 +6805,23 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="K11" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L12" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>55</v>
@@ -6986,23 +6829,23 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="N14" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O15" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="P16" t="s">
         <v>2</v>
@@ -7010,10 +6853,10 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q17" t="s">
         <v>288</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -7026,10 +6869,10 @@
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q19" t="s">
         <v>290</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -7041,7 +6884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957BD7CD-A76D-4E2D-819C-0B731482386B}">
   <dimension ref="A1:J10"/>
   <sheetViews>
@@ -7066,60 +6909,60 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>259</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -7127,15 +6970,15 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="10" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -7143,7 +6986,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H8" t="s">
         <v>1</v>
@@ -7151,7 +6994,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I9" t="s">
         <v>1</v>
@@ -7159,7 +7002,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -7169,4 +7012,282 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:U21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="P5" workbookViewId="0">
+      <selection activeCell="U22" sqref="U22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.26953125" customWidth="1"/>
+    <col min="13" max="13" width="67.453125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.7265625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.90625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="2" customFormat="1">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
+      <c r="A4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
+      <c r="A5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
+      <c r="A8" t="s">
+        <v>43</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="J9" t="str">
+        <f>C3</f>
+        <v>NCL_Gem_AUA_Apr 22 2021</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
+      <c r="A12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M12" t="s">
+        <v>232</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
+      <c r="A13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="A14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" t="s">
+        <v>61</v>
+      </c>
+      <c r="R16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="S17" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" t="s">
+        <v>228</v>
+      </c>
+      <c r="T18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" t="s">
+        <v>406</v>
+      </c>
+      <c r="U21" t="s">
+        <v>232</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="P19" r:id="rId1" xr:uid="{E2A6E463-C708-4E5E-87E2-030A6CC33522}"/>
+    <hyperlink ref="P14" r:id="rId2" xr:uid="{99131489-385D-4C4A-8A03-08728EFF4F74}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
 </file>
--- a/config/uat/ccp/nclccp.xlsx
+++ b/config/uat/ccp/nclccp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finalgithub\ccpautomationFinal\ccpautomationFinal\config\uat\ccp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8795121-887C-43F0-AD02-D042A2AEA19F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7C90C1-05A9-4044-A451-35C0B23991A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1272" uniqueCount="408">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="422">
   <si>
     <t>DATA_ID</t>
   </si>
@@ -137,9 +137,6 @@
     <t>Searchdatavalues</t>
   </si>
   <si>
-    <t>Qty</t>
-  </si>
-  <si>
     <t>Yes (2)</t>
   </si>
   <si>
@@ -836,9 +833,6 @@
     <t>newportpg</t>
   </si>
   <si>
-    <t>test001</t>
-  </si>
-  <si>
     <t>portlink</t>
   </si>
   <si>
@@ -851,12 +845,6 @@
     <t>Anguilla (AI)|CLICK</t>
   </si>
   <si>
-    <t>test002</t>
-  </si>
-  <si>
-    <t>test003</t>
-  </si>
-  <si>
     <t>userspage</t>
   </si>
   <si>
@@ -1254,9 +1242,6 @@
   </si>
   <si>
     <t>Amendsearchvalue</t>
-  </si>
-  <si>
-    <t>NCL_Gem_MIA_Oct 17 2021</t>
   </si>
   <si>
     <t>FILE_UPLOAD|D:\Finalgithub\ccpautomationFinal\ccpautomationFinal\files\File1.pdf</t>
@@ -1282,6 +1267,63 @@
   </si>
   <si>
     <t>FILE_UPLOAD|D:\CCPAutomationtemp\File4.pdf</t>
+  </si>
+  <si>
+    <t>t01</t>
+  </si>
+  <si>
+    <t>SearchPortCodeValue</t>
+  </si>
+  <si>
+    <t>searchportcode</t>
+  </si>
+  <si>
+    <t>verifydata</t>
+  </si>
+  <si>
+    <t>searchnewpurser</t>
+  </si>
+  <si>
+    <t>searchnewcreator</t>
+  </si>
+  <si>
+    <t>SearchUserCreated</t>
+  </si>
+  <si>
+    <t>vesselitinerarydrpdwntxtusportsingle</t>
+  </si>
+  <si>
+    <t>Ship:Gem on:Jan 25, 2023 at: (5DD-Seattle, WA - drydock) {US-United States}</t>
+  </si>
+  <si>
+    <t>vesselitinerarydrpdwntxtnonusportsingle</t>
+  </si>
+  <si>
+    <t>vesselitinerarydrpdwntxtsingle</t>
+  </si>
+  <si>
+    <t>Ship:Gem on:Dec 28, 2022 at: (PHI-Philipsburg) {CW-Curaçao}</t>
+  </si>
+  <si>
+    <t>offloadresponsepg</t>
+  </si>
+  <si>
+    <t>updatedeptresponse</t>
+  </si>
+  <si>
+    <t>offloadsvalue</t>
+  </si>
+  <si>
+    <t>000-151-000000002</t>
+  </si>
+  <si>
+    <t>404-114-000000021</t>
+  </si>
+  <si>
+    <t>418-107-000000115</t>
+  </si>
+  <si>
+    <t>12/25/2023</t>
   </si>
 </sst>
 </file>
@@ -1872,7 +1914,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1900,13 +1942,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -1914,7 +1956,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -1922,13 +1964,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" t="s">
         <v>217</v>
-      </c>
-      <c r="C6" t="s">
-        <v>218</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -1936,13 +1978,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
@@ -1953,13 +1995,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>248</v>
+      </c>
+      <c r="B8" t="s">
         <v>249</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>250</v>
-      </c>
-      <c r="C8" t="s">
-        <v>251</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -1967,13 +2009,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="C9" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -2009,27 +2051,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2038,7 +2080,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2046,15 +2088,15 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -2062,7 +2104,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -2070,7 +2112,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2103,30 +2145,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2135,7 +2177,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2143,15 +2185,15 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -2159,7 +2201,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -2167,7 +2209,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="10" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -2175,7 +2217,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2187,8 +2229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B447BFF-DFD0-420A-9B95-A22889489E98}">
   <dimension ref="A1:BU56"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A57" sqref="A57"/>
+    <sheetView tabSelected="1" topLeftCell="AS16" workbookViewId="0">
+      <selection activeCell="AX1" sqref="AX1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -2218,211 +2260,211 @@
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="BB1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="BO1" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="BM1" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>307</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>311</v>
       </c>
       <c r="BU1" s="2" t="s">
         <v>21</v>
@@ -2436,7 +2478,7 @@
         <v>2</v>
       </c>
       <c r="BM2" s="21" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:73">
@@ -2449,7 +2491,7 @@
     </row>
     <row r="4" spans="1:73">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -2457,7 +2499,7 @@
     </row>
     <row r="5" spans="1:73">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -2465,7 +2507,7 @@
     </row>
     <row r="6" spans="1:73">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -2473,69 +2515,69 @@
     </row>
     <row r="7" spans="1:73">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="8" spans="1:73">
       <c r="A8" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:73">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:73">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I10" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11" spans="1:73">
       <c r="A11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="L11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="12" spans="1:73">
       <c r="A12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M12" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="13" spans="1:73">
       <c r="A13" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:73">
       <c r="A14" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="N14" t="s">
         <v>2</v>
@@ -2543,31 +2585,31 @@
     </row>
     <row r="15" spans="1:73">
       <c r="A15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="O15" t="s">
+        <v>135</v>
+      </c>
+      <c r="P15" t="s">
         <v>136</v>
-      </c>
-      <c r="P15" t="s">
-        <v>137</v>
       </c>
       <c r="Q15">
         <v>54543</v>
       </c>
       <c r="R15" t="s">
+        <v>148</v>
+      </c>
+      <c r="S15" t="s">
+        <v>2</v>
+      </c>
+      <c r="T15" t="s">
         <v>149</v>
       </c>
-      <c r="S15" t="s">
-        <v>2</v>
-      </c>
-      <c r="T15" t="s">
+      <c r="U15" t="s">
+        <v>27</v>
+      </c>
+      <c r="V15" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="U15" t="s">
-        <v>28</v>
-      </c>
-      <c r="V15" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="W15" t="s">
         <v>2</v>
@@ -2575,31 +2617,31 @@
     </row>
     <row r="16" spans="1:73">
       <c r="A16" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="O16" t="s">
+        <v>135</v>
+      </c>
+      <c r="P16" t="s">
         <v>136</v>
-      </c>
-      <c r="P16" t="s">
-        <v>137</v>
       </c>
       <c r="Q16">
         <v>45653</v>
       </c>
       <c r="R16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="S16" t="s">
         <v>2</v>
       </c>
       <c r="T16" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="U16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="W16" t="s">
         <v>2</v>
@@ -2607,7 +2649,7 @@
     </row>
     <row r="17" spans="1:65">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s">
         <v>1</v>
@@ -2616,7 +2658,7 @@
     </row>
     <row r="18" spans="1:65">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="Y18" t="s">
         <v>2</v>
@@ -2625,31 +2667,31 @@
     </row>
     <row r="19" spans="1:65">
       <c r="A19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B19" s="5"/>
       <c r="Z19" t="s">
         <v>2</v>
       </c>
       <c r="AA19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AB19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC19" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:65">
       <c r="A20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AD20" t="s">
         <v>2</v>
       </c>
       <c r="AE20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -2661,46 +2703,46 @@
         <v>2</v>
       </c>
       <c r="AI20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:65">
       <c r="A21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AJ21" t="s">
         <v>2</v>
       </c>
       <c r="AK21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:65">
       <c r="A22" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AJ22" t="s">
         <v>2</v>
       </c>
       <c r="AK22" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="23" spans="1:65">
       <c r="A23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AL23" t="s">
         <v>2</v>
       </c>
       <c r="AM23" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AN23">
         <v>12343212</v>
       </c>
       <c r="AO23" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AP23">
         <v>1</v>
@@ -2711,13 +2753,13 @@
     </row>
     <row r="24" spans="1:65">
       <c r="A24" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AL24" t="s">
         <v>2</v>
       </c>
       <c r="AM24" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AO24" s="6"/>
       <c r="AP24">
@@ -2729,21 +2771,21 @@
     </row>
     <row r="25" spans="1:65">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AR25" t="s">
         <v>2</v>
       </c>
       <c r="AS25" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:65">
       <c r="A26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AT26" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AU26" t="s">
         <v>2</v>
@@ -2751,7 +2793,7 @@
     </row>
     <row r="27" spans="1:65">
       <c r="A27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AV27" t="s">
         <v>1</v>
@@ -2759,61 +2801,61 @@
     </row>
     <row r="28" spans="1:65">
       <c r="A28" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AW28" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="AX28" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:65">
       <c r="A29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AY29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="30" spans="1:65">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AZ30" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="31" spans="1:65">
       <c r="A31" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="BA31" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="32" spans="1:65">
       <c r="A32" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="BA32" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
     </row>
     <row r="33" spans="1:66">
       <c r="A33" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="AZ33" t="s">
+        <v>322</v>
+      </c>
+      <c r="BA33" t="s">
         <v>326</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="34" spans="1:66">
       <c r="A34" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="BB34" t="s">
         <v>2</v>
@@ -2821,7 +2863,7 @@
     </row>
     <row r="35" spans="1:66">
       <c r="A35" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="BC35" t="s">
         <v>2</v>
@@ -2829,24 +2871,24 @@
     </row>
     <row r="36" spans="1:66">
       <c r="A36" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="BE36" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="37" spans="1:66">
       <c r="A37" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="BF37" t="s">
         <v>2</v>
       </c>
       <c r="BG37" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="BH37" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="BI37" t="s">
         <v>2</v>
@@ -2854,97 +2896,97 @@
     </row>
     <row r="38" spans="1:66">
       <c r="A38" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="BD38" t="s">
         <v>2</v>
       </c>
       <c r="BE38" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39" spans="1:66">
       <c r="A39" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="BD39" t="s">
         <v>2</v>
       </c>
       <c r="BE39" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="40" spans="1:66">
       <c r="A40" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="BD40" t="s">
         <v>2</v>
       </c>
       <c r="BE40" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="41" spans="1:66">
       <c r="A41" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="BD41" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BE41" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="42" spans="1:66">
       <c r="A42" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="BE42" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="43" spans="1:66">
       <c r="A43" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="BD43" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BE43" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:66">
       <c r="A44" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="AZ44" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
     </row>
     <row r="45" spans="1:66">
       <c r="A45" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="BJ45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="BK45" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46" spans="1:66">
       <c r="A46" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="BL46" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47" spans="1:66">
       <c r="A47" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BM47" t="s">
         <v>2</v>
@@ -2952,7 +2994,7 @@
     </row>
     <row r="48" spans="1:66">
       <c r="A48" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="BN48" t="s">
         <v>2</v>
@@ -2960,7 +3002,7 @@
     </row>
     <row r="49" spans="1:73">
       <c r="A49" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="BO49" t="s">
         <v>2</v>
@@ -2968,76 +3010,76 @@
     </row>
     <row r="50" spans="1:73">
       <c r="A50" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="BA50" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="BD50" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51" spans="1:73">
       <c r="A51" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="BA51" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="BD51" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52" spans="1:73">
       <c r="A52" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="BP52" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53" spans="1:73">
       <c r="A53" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="BQ53" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54" spans="1:73">
       <c r="A54" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="Y54" t="s">
         <v>2</v>
       </c>
       <c r="BR54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="55" spans="1:73">
       <c r="A55" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="BS55" t="s">
         <v>2</v>
       </c>
       <c r="BT55" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="BU55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="56" spans="1:73">
       <c r="A56" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="BG56" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="BH56" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="BI56" t="s">
         <v>2</v>
@@ -3051,11 +3093,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BR49"/>
+  <dimension ref="A1:BR50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BE31" sqref="BE31"/>
+    <sheetView topLeftCell="AX1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BA27" sqref="BA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -3088,7 +3130,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -3109,184 +3151,184 @@
         <v>14</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>91</v>
-      </c>
       <c r="N1" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BA1" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="BB1" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="BC1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="BD1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="BE1" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="BF1" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="BC1" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="BD1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="BE1" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="BF1" s="2" t="s">
-        <v>241</v>
-      </c>
       <c r="BG1" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="BJ1" s="9" t="s">
+        <v>381</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BO1" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="BP1" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="BH1" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>385</v>
-      </c>
-      <c r="BK1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="BM1" s="2" t="s">
-        <v>386</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:69">
@@ -3299,7 +3341,7 @@
     </row>
     <row r="3" spans="1:69">
       <c r="A3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -3324,7 +3366,7 @@
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>45</v>
       </c>
       <c r="F5" s="3"/>
       <c r="L5" t="s">
@@ -3336,7 +3378,7 @@
         <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
         <v>2</v>
@@ -3346,17 +3388,11 @@
       <c r="A7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H7" t="s">
-        <v>27</v>
-      </c>
       <c r="N7" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="BE7" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:69">
@@ -3364,7 +3400,7 @@
         <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:69">
@@ -3374,16 +3410,13 @@
       <c r="J9" t="s">
         <v>1</v>
       </c>
-      <c r="O9" t="s">
-        <v>243</v>
-      </c>
     </row>
     <row r="10" spans="1:69">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="P10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:69">
@@ -3396,7 +3429,7 @@
     </row>
     <row r="12" spans="1:69">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K12" t="s">
         <v>2</v>
@@ -3404,7 +3437,7 @@
     </row>
     <row r="13" spans="1:69">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L13" t="s">
         <v>2</v>
@@ -3412,7 +3445,7 @@
     </row>
     <row r="14" spans="1:69">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M14" t="s">
         <v>2</v>
@@ -3420,74 +3453,74 @@
     </row>
     <row r="15" spans="1:69">
       <c r="A15" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="BE15" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="16" spans="1:69">
       <c r="A16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="BF16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:55">
       <c r="A17" t="s">
+        <v>241</v>
+      </c>
+      <c r="O17" t="s">
         <v>242</v>
-      </c>
-      <c r="O17" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="18" spans="1:55">
       <c r="A18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="P18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:55">
       <c r="A19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="Q19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:55">
       <c r="A20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="R20" t="s">
+        <v>135</v>
+      </c>
+      <c r="S20" t="s">
         <v>136</v>
-      </c>
-      <c r="S20" t="s">
-        <v>137</v>
       </c>
       <c r="T20">
         <v>54543</v>
       </c>
       <c r="U20" t="s">
+        <v>148</v>
+      </c>
+      <c r="V20" t="s">
+        <v>2</v>
+      </c>
+      <c r="W20" t="s">
         <v>149</v>
       </c>
-      <c r="V20" t="s">
-        <v>2</v>
-      </c>
-      <c r="W20" t="s">
+      <c r="X20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y20" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="X20" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y20" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="Z20" t="s">
         <v>2</v>
@@ -3495,7 +3528,7 @@
     </row>
     <row r="21" spans="1:55">
       <c r="A21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s">
         <v>1</v>
@@ -3503,7 +3536,7 @@
     </row>
     <row r="22" spans="1:55">
       <c r="A22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s">
         <v>2</v>
@@ -3511,30 +3544,30 @@
     </row>
     <row r="23" spans="1:55">
       <c r="A23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AC23" t="s">
         <v>2</v>
       </c>
       <c r="AD23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AE23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AF23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:55">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AG24" t="s">
         <v>2</v>
       </c>
       <c r="AH24" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AI24">
         <v>1</v>
@@ -3546,35 +3579,35 @@
         <v>2</v>
       </c>
       <c r="AL24" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:55">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AM25" t="s">
         <v>2</v>
       </c>
       <c r="AN25" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" spans="1:55">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AO26" t="s">
         <v>2</v>
       </c>
       <c r="AP26" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AQ26">
         <v>12343212</v>
       </c>
       <c r="AR26" s="6" t="s">
-        <v>152</v>
+        <v>421</v>
       </c>
       <c r="AS26">
         <v>1</v>
@@ -3585,7 +3618,7 @@
     </row>
     <row r="27" spans="1:55">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AU27" t="s">
         <v>2</v>
@@ -3596,10 +3629,10 @@
     </row>
     <row r="28" spans="1:55">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AW28" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AX28" t="s">
         <v>2</v>
@@ -3607,7 +3640,7 @@
     </row>
     <row r="29" spans="1:55">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AY29" t="s">
         <v>1</v>
@@ -3615,26 +3648,26 @@
     </row>
     <row r="30" spans="1:55">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AZ30" t="s">
-        <v>2</v>
+        <v>243</v>
       </c>
       <c r="BA30" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
     </row>
     <row r="31" spans="1:55">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="BB31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:55">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="BC32" t="s">
         <v>2</v>
@@ -3642,7 +3675,7 @@
     </row>
     <row r="33" spans="1:69">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BD33" t="s">
         <v>2</v>
@@ -3650,30 +3683,30 @@
     </row>
     <row r="34" spans="1:69">
       <c r="A34" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="BE34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:69">
       <c r="A35" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="N35" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:69">
       <c r="A36" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AM36" s="5"/>
       <c r="AO36" t="s">
         <v>2</v>
       </c>
       <c r="AP36" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AS36">
         <v>1</v>
@@ -3684,7 +3717,7 @@
     </row>
     <row r="37" spans="1:69">
       <c r="A37" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="AM37" s="5"/>
       <c r="AO37" s="6"/>
@@ -3694,7 +3727,7 @@
     </row>
     <row r="38" spans="1:69">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="BH38" t="s">
         <v>2</v>
@@ -3702,7 +3735,7 @@
     </row>
     <row r="39" spans="1:69">
       <c r="A39" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="BI39" t="s">
         <v>2</v>
@@ -3710,7 +3743,7 @@
     </row>
     <row r="40" spans="1:69">
       <c r="A40" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="BJ40" t="s">
         <v>2</v>
@@ -3724,7 +3757,7 @@
     </row>
     <row r="42" spans="1:69">
       <c r="A42" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BL42" t="s">
         <v>2</v>
@@ -3732,7 +3765,7 @@
     </row>
     <row r="43" spans="1:69">
       <c r="A43" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="BM43" t="s">
         <v>2</v>
@@ -3740,12 +3773,12 @@
     </row>
     <row r="44" spans="1:69">
       <c r="A44" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="45" spans="1:69">
       <c r="A45" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="BN45" t="s">
         <v>2</v>
@@ -3753,7 +3786,7 @@
     </row>
     <row r="46" spans="1:69">
       <c r="A46" s="15" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="BO46" t="s">
         <v>2</v>
@@ -3761,7 +3794,7 @@
     </row>
     <row r="47" spans="1:69">
       <c r="A47" s="15" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="BP47" t="s">
         <v>2</v>
@@ -3769,7 +3802,7 @@
     </row>
     <row r="48" spans="1:69">
       <c r="A48" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="BQ48" t="s">
         <v>2</v>
@@ -3777,10 +3810,21 @@
     </row>
     <row r="49" spans="1:70">
       <c r="A49" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="BR49" t="s">
-        <v>146</v>
+        <v>145</v>
+      </c>
+    </row>
+    <row r="50" spans="1:70">
+      <c r="A50" t="s">
+        <v>417</v>
+      </c>
+      <c r="G50" t="s">
+        <v>27</v>
+      </c>
+      <c r="H50" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3793,13 +3837,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F6F92B-CE4D-4CE1-BDAA-9B5D90BAB133}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P17" sqref="P17"/>
+    <sheetView topLeftCell="N7" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="41.90625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" s="2" customFormat="1">
@@ -3807,99 +3852,99 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="M1" s="8" t="s">
-        <v>164</v>
-      </c>
       <c r="N1" s="9" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="R1" s="29" t="s">
         <v>21</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="T1" s="29" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="X1" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="Y1" s="2" t="s">
-        <v>375</v>
-      </c>
       <c r="Z1" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AB1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>194</v>
-      </c>
       <c r="AE1" s="2" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="13.5" customHeight="1">
       <c r="A2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -3907,7 +3952,7 @@
     </row>
     <row r="3" spans="1:31" ht="13.5" customHeight="1">
       <c r="A3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -3915,7 +3960,7 @@
     </row>
     <row r="4" spans="1:31" ht="13.5" customHeight="1">
       <c r="A4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -3926,20 +3971,20 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F5" t="s">
         <v>165</v>
-      </c>
-      <c r="F5" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -3948,7 +3993,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -3958,17 +4003,17 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>2</v>
@@ -3976,7 +4021,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>2</v>
@@ -3984,7 +4029,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>2</v>
@@ -3992,7 +4037,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>2</v>
@@ -4000,7 +4045,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>2</v>
@@ -4008,7 +4053,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>2</v>
@@ -4016,18 +4061,18 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="P16" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:31" ht="72.5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31" ht="29">
       <c r="A17" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -4040,15 +4085,15 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="S19" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>2</v>
@@ -4056,15 +4101,15 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="U21" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>2</v>
@@ -4072,7 +4117,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>2</v>
@@ -4080,7 +4125,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="28" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>2</v>
@@ -4088,7 +4133,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="Y25" s="3" t="s">
         <v>2</v>
@@ -4096,7 +4141,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>2</v>
@@ -4104,7 +4149,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="AA27" s="3" t="s">
         <v>2</v>
@@ -4112,23 +4157,23 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AC29" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AD30" s="3" t="s">
         <v>2</v>
@@ -4136,10 +4181,10 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="21" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AE31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4176,37 +4221,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>203</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>204</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>206</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>192</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>193</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>207</v>
       </c>
       <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -4215,7 +4260,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -4223,15 +4268,15 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -4239,7 +4284,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -4247,7 +4292,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="10" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -4255,17 +4300,17 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -4299,33 +4344,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -4334,7 +4379,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -4342,15 +4387,15 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -4358,7 +4403,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -4366,7 +4411,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -4374,7 +4419,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -4382,7 +4427,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4392,10 +4437,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246945EE-2FD4-4748-ABAD-B8C4C50658FF}">
-  <dimension ref="A1:O18"/>
+  <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4420,51 +4465,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>59</v>
-      </c>
       <c r="J1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -4472,10 +4517,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -4483,7 +4528,7 @@
     </row>
     <row r="4" spans="1:15">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
@@ -4491,7 +4536,7 @@
     </row>
     <row r="5" spans="1:15">
       <c r="A5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
@@ -4499,7 +4544,7 @@
     </row>
     <row r="6" spans="1:15">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G6" t="s">
         <v>1</v>
@@ -4513,13 +4558,13 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="M7" t="s">
         <v>2</v>
@@ -4527,7 +4572,7 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
         <v>2</v>
@@ -4535,7 +4580,7 @@
     </row>
     <row r="9" spans="1:15">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N9" t="s">
         <v>2</v>
@@ -4543,15 +4588,15 @@
     </row>
     <row r="10" spans="1:15">
       <c r="A10" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C11" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -4559,10 +4604,10 @@
     </row>
     <row r="12" spans="1:15">
       <c r="A12" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="C12" t="s">
-        <v>399</v>
+        <v>418</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
@@ -4570,10 +4615,10 @@
     </row>
     <row r="13" spans="1:15">
       <c r="A13" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="C13" t="s">
-        <v>379</v>
+        <v>419</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
@@ -4581,7 +4626,7 @@
     </row>
     <row r="14" spans="1:15">
       <c r="A14" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="O14">
         <v>12341234</v>
@@ -4589,10 +4634,10 @@
     </row>
     <row r="15" spans="1:15">
       <c r="A15" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="C15" t="s">
-        <v>382</v>
+        <v>420</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
@@ -4600,10 +4645,10 @@
     </row>
     <row r="16" spans="1:15">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="C16" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
@@ -4611,10 +4656,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="C17" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
@@ -4622,12 +4667,23 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="C18" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="D18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>416</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4644,8 +4700,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD52EC0-EC45-494E-8D1E-2CD04920CEE5}">
   <dimension ref="A1:AF34"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4664,98 +4720,98 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>173</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>362</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="W1" s="29" t="s">
         <v>366</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>368</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>362</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="W1" s="29" t="s">
-        <v>370</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="AD1" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="Z1" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>373</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>374</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>375</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="2" spans="1:32">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -4763,23 +4819,23 @@
     </row>
     <row r="3" spans="1:32">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:32">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:32" ht="15" thickBot="1">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -4787,63 +4843,63 @@
     </row>
     <row r="6" spans="1:32" ht="15" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:32">
       <c r="A8" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:32">
       <c r="A9" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:32">
       <c r="A10" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F10" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="11" spans="1:32">
       <c r="A11" s="10" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:32">
       <c r="A12" s="10" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:32">
       <c r="A13" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="L13" t="s">
         <v>2</v>
@@ -4851,12 +4907,12 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" s="10" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:32">
       <c r="A15" s="10" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="N15" t="s">
         <v>2</v>
@@ -4864,31 +4920,31 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" s="10" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="O16" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="10" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="P17" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="10" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="Q18" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="15" thickBot="1">
       <c r="A19" s="10" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R19" t="s">
         <v>2</v>
@@ -4896,24 +4952,24 @@
     </row>
     <row r="20" spans="1:30" ht="15" thickBot="1">
       <c r="A20" s="10" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="S20" s="30" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="T20" s="31"/>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="10" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="T21" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="10" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="U22" t="s">
         <v>2</v>
@@ -4921,7 +4977,7 @@
     </row>
     <row r="23" spans="1:30" ht="15" thickBot="1">
       <c r="A23" s="10" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="V23" t="s">
         <v>2</v>
@@ -4929,10 +4985,10 @@
     </row>
     <row r="24" spans="1:30" ht="15" thickBot="1">
       <c r="A24" s="28" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="W24" s="32" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -4945,7 +5001,7 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="10" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="Y26" t="s">
         <v>2</v>
@@ -4953,7 +5009,7 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="10" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="Z27" t="s">
         <v>2</v>
@@ -4961,7 +5017,7 @@
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="10" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="AA28" t="s">
         <v>2</v>
@@ -4969,7 +5025,7 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="10" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="AB29" t="s">
         <v>2</v>
@@ -4977,7 +5033,7 @@
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="10" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="AC30" t="s">
         <v>2</v>
@@ -4985,7 +5041,7 @@
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="10" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="AD31" t="s">
         <v>2</v>
@@ -4993,23 +5049,23 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="10" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="15">
       <c r="A33" s="10" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="AE33" s="33" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
     </row>
     <row r="34" spans="1:32">
       <c r="A34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AF34" t="s">
         <v>2</v>
@@ -5058,139 +5114,139 @@
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:48">
@@ -5211,7 +5267,7 @@
     </row>
     <row r="4" spans="1:48">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -5219,7 +5275,7 @@
     </row>
     <row r="5" spans="1:48">
       <c r="A5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -5227,7 +5283,7 @@
     </row>
     <row r="6" spans="1:48">
       <c r="A6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -5235,15 +5291,15 @@
     </row>
     <row r="7" spans="1:48">
       <c r="A7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:48">
       <c r="A8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -5251,15 +5307,15 @@
     </row>
     <row r="9" spans="1:48">
       <c r="A9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:48">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -5267,7 +5323,7 @@
     </row>
     <row r="11" spans="1:48">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K11" t="s">
         <v>2</v>
@@ -5275,31 +5331,31 @@
     </row>
     <row r="12" spans="1:48">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L12" t="s">
+        <v>135</v>
+      </c>
+      <c r="M12" t="s">
         <v>136</v>
-      </c>
-      <c r="M12" t="s">
-        <v>137</v>
       </c>
       <c r="N12">
         <v>45653</v>
       </c>
       <c r="O12" t="s">
+        <v>137</v>
+      </c>
+      <c r="P12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="s">
         <v>138</v>
       </c>
-      <c r="P12" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
+        <v>27</v>
+      </c>
+      <c r="S12" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="R12" t="s">
-        <v>28</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="T12" t="s">
         <v>2</v>
@@ -5307,7 +5363,7 @@
     </row>
     <row r="13" spans="1:48">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s">
         <v>1</v>
@@ -5315,7 +5371,7 @@
     </row>
     <row r="14" spans="1:48">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s">
         <v>2</v>
@@ -5323,31 +5379,31 @@
     </row>
     <row r="15" spans="1:48">
       <c r="A15" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B15" s="5"/>
       <c r="W15" t="s">
         <v>2</v>
       </c>
       <c r="X15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z15" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:48">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AA16" t="s">
         <v>2</v>
       </c>
       <c r="AB16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC16">
         <v>1</v>
@@ -5359,35 +5415,35 @@
         <v>2</v>
       </c>
       <c r="AF16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:48">
       <c r="A17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="AG17" t="s">
         <v>2</v>
       </c>
       <c r="AH17" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="1:48">
       <c r="A18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AI18" t="s">
         <v>2</v>
       </c>
       <c r="AJ18" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AK18">
         <v>123534312</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -5398,13 +5454,13 @@
     </row>
     <row r="19" spans="1:48">
       <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>2</v>
+      </c>
+      <c r="AJ19" s="5" t="s">
         <v>145</v>
-      </c>
-      <c r="AI19" t="s">
-        <v>2</v>
-      </c>
-      <c r="AJ19" s="5" t="s">
-        <v>146</v>
       </c>
       <c r="AL19" s="6"/>
       <c r="AM19">
@@ -5416,7 +5472,7 @@
     </row>
     <row r="20" spans="1:48">
       <c r="A20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AO20" t="s">
         <v>2</v>
@@ -5427,10 +5483,10 @@
     </row>
     <row r="21" spans="1:48">
       <c r="A21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="AQ21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AR21" t="s">
         <v>2</v>
@@ -5438,7 +5494,7 @@
     </row>
     <row r="22" spans="1:48">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="AS22" t="s">
         <v>1</v>
@@ -5446,18 +5502,18 @@
     </row>
     <row r="23" spans="1:48">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="AT23" t="s">
         <v>2</v>
       </c>
       <c r="AU23" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="24" spans="1:48">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AV24" t="s">
         <v>2</v>
@@ -5497,81 +5553,81 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>182</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -5579,7 +5635,7 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -5587,7 +5643,7 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -5595,7 +5651,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -5603,7 +5659,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -5611,7 +5667,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -5619,7 +5675,7 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -5627,7 +5683,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I9" t="s">
         <v>2</v>
@@ -5635,29 +5691,29 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M13" t="s">
         <v>2</v>
@@ -5665,15 +5721,15 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="N14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="O15" t="s">
         <v>2</v>
@@ -5681,7 +5737,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="P16" t="s">
         <v>2</v>
@@ -5689,7 +5745,7 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="Q17" t="s">
         <v>2</v>
@@ -5697,7 +5753,7 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="R18" t="s">
         <v>2</v>
@@ -5705,7 +5761,7 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="S19" t="s">
         <v>2</v>
@@ -5713,23 +5769,23 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="T20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="U21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="V22" t="s">
         <v>2</v>
@@ -5737,23 +5793,23 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="X24" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Y25" t="s">
         <v>2</v>
@@ -5772,7 +5828,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2FCD1AC-6F9D-4ECD-AC33-8DDF768AD088}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="U1" workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -5787,13 +5843,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -5823,13 +5879,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -5893,30 +5949,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>172</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -5924,23 +5980,23 @@
     </row>
     <row r="3" spans="1:14" ht="26.25" customHeight="1">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="26.25" customHeight="1">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -5948,25 +6004,25 @@
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="10" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -6088,13 +6144,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>2</v>
@@ -6124,13 +6180,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="26" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -6176,16 +6232,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -6233,97 +6289,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>187</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="P1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="AB1" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AD1" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="AG1" s="20"/>
       <c r="AH1" s="2"/>
@@ -6338,7 +6394,7 @@
     </row>
     <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -6346,7 +6402,7 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -6354,7 +6410,7 @@
     </row>
     <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -6362,7 +6418,7 @@
     </row>
     <row r="5" spans="1:42">
       <c r="A5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -6370,7 +6426,7 @@
     </row>
     <row r="6" spans="1:42">
       <c r="A6" s="10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -6378,7 +6434,7 @@
     </row>
     <row r="7" spans="1:42">
       <c r="A7" s="10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -6386,15 +6442,15 @@
     </row>
     <row r="8" spans="1:42">
       <c r="A8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="I9" t="s">
         <v>2</v>
@@ -6402,7 +6458,7 @@
     </row>
     <row r="10" spans="1:42">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -6410,7 +6466,7 @@
     </row>
     <row r="11" spans="1:42">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K11" t="s">
         <v>2</v>
@@ -6418,23 +6474,23 @@
     </row>
     <row r="12" spans="1:42">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="L12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13" spans="1:42">
       <c r="A13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:42">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="N14" t="s">
         <v>2</v>
@@ -6442,7 +6498,7 @@
     </row>
     <row r="15" spans="1:42">
       <c r="A15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="O15" t="s">
         <v>2</v>
@@ -6450,7 +6506,7 @@
     </row>
     <row r="16" spans="1:42">
       <c r="A16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -6458,15 +6514,15 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Q17" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="R18" t="s">
         <v>2</v>
@@ -6474,15 +6530,15 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="S19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="T20" t="s">
         <v>2</v>
@@ -6490,7 +6546,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="U21" t="s">
         <v>2</v>
@@ -6498,23 +6554,23 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="W23" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="X24" t="s">
         <v>2</v>
@@ -6522,23 +6578,23 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Y25" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Z26" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AA27" t="s">
         <v>2</v>
@@ -6546,23 +6602,23 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AB28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="29" spans="1:31">
       <c r="A29" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y29" t="s">
         <v>215</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="AC30" s="13" t="str">
         <f>M13</f>
@@ -6571,23 +6627,23 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AD31" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AE32" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:42">
       <c r="A33" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AF33" t="s">
         <v>1</v>
@@ -6600,16 +6656,16 @@
     </row>
     <row r="35" spans="1:42">
       <c r="AH35" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AI35" t="s">
         <v>2</v>
       </c>
       <c r="AK35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="AL35" t="s">
         <v>55</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:42">
@@ -6619,12 +6675,12 @@
     </row>
     <row r="39" spans="1:42">
       <c r="AM39" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="40" spans="1:42">
       <c r="AN40" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AO40" t="s">
         <v>2</v>
@@ -6680,60 +6736,60 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F1" t="s">
         <v>266</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>267</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>268</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>269</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
+        <v>282</v>
+      </c>
+      <c r="K1" t="s">
         <v>270</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>271</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
         <v>272</v>
       </c>
-      <c r="I1" t="s">
+      <c r="N1" t="s">
         <v>273</v>
       </c>
-      <c r="J1" t="s">
-        <v>286</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>274</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>275</v>
       </c>
-      <c r="M1" t="s">
-        <v>276</v>
-      </c>
-      <c r="N1" t="s">
-        <v>277</v>
-      </c>
-      <c r="O1" t="s">
-        <v>278</v>
-      </c>
-      <c r="P1" t="s">
-        <v>279</v>
-      </c>
       <c r="Q1" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="R1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -6741,7 +6797,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -6749,7 +6805,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -6757,15 +6813,15 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -6773,15 +6829,15 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="G7" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -6789,15 +6845,15 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="I9" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -6805,47 +6861,47 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="K11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L12" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="N14" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="O15" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="P16" t="s">
         <v>2</v>
@@ -6853,26 +6909,26 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="Q17" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R18" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q19" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -6886,10 +6942,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{957BD7CD-A76D-4E2D-819C-0B731482386B}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6902,110 +6958,149 @@
     <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>252</v>
+      </c>
+      <c r="C3" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D4" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>254</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" t="s">
         <v>261</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>252</v>
-      </c>
-      <c r="B2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C3" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
-        <v>254</v>
-      </c>
-      <c r="D4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" t="s">
-        <v>255</v>
-      </c>
-      <c r="E5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="10" t="s">
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="10" t="s">
         <v>256</v>
       </c>
-      <c r="F6" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="10" t="s">
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
         <v>257</v>
-      </c>
-      <c r="G7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" t="s">
-        <v>258</v>
       </c>
       <c r="H8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="I9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>405</v>
+      </c>
+      <c r="K11" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>406</v>
+      </c>
+      <c r="L12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>408</v>
+      </c>
+      <c r="K13" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>407</v>
+      </c>
+      <c r="K14" t="s">
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -7016,10 +7111,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:U21"/>
+  <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P5" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView topLeftCell="N12" workbookViewId="0">
+      <selection activeCell="T7" sqref="T7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7044,136 +7139,144 @@
     <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="27.7265625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.54296875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="2" customFormat="1">
+    <row r="1" spans="1:23" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="R1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="T1" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>400</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:21">
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:21">
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
+      <c r="A5" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
-      <c r="A5" t="s">
+      <c r="F5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
+      <c r="A6" t="s">
         <v>34</v>
       </c>
-      <c r="F5" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
-      <c r="A6" t="s">
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
+      <c r="A7" t="s">
         <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
-      <c r="A7" t="s">
-        <v>36</v>
       </c>
       <c r="H7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:21">
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
+      <c r="A9" t="s">
         <v>43</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
-      <c r="A9" t="s">
-        <v>44</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -7183,103 +7286,127 @@
         <v>NCL_Gem_AUA_Apr 22 2021</v>
       </c>
     </row>
-    <row r="10" spans="1:21">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
+        <v>50</v>
+      </c>
+      <c r="L11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="A12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M12" t="s">
+        <v>231</v>
+      </c>
+      <c r="N12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
+      <c r="A13" t="s">
         <v>51</v>
       </c>
-      <c r="L11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
-      <c r="A12" t="s">
-        <v>63</v>
-      </c>
-      <c r="M12" t="s">
-        <v>232</v>
-      </c>
-      <c r="N12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
-      <c r="A13" t="s">
+      <c r="O13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="A14" t="s">
         <v>52</v>
       </c>
-      <c r="O13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
-      <c r="A14" t="s">
+      <c r="P14" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="A15" t="s">
         <v>53</v>
       </c>
-      <c r="P14" s="4" t="s">
+    </row>
+    <row r="16" spans="1:23">
+      <c r="A16" t="s">
+        <v>60</v>
+      </c>
+      <c r="R16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
+      <c r="A17" t="s">
+        <v>61</v>
+      </c>
+      <c r="S17" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
+      <c r="A18" t="s">
+        <v>227</v>
+      </c>
+      <c r="T18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
+      <c r="A19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
+      <c r="A20" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q20" t="s">
         <v>55</v>
       </c>
-      <c r="Q14" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
-      <c r="A15" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
-      <c r="A16" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
-      <c r="A17" t="s">
-        <v>62</v>
-      </c>
-      <c r="S17" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
-      <c r="A18" t="s">
-        <v>228</v>
-      </c>
-      <c r="T18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
-      <c r="A19" t="s">
-        <v>53</v>
-      </c>
-      <c r="P19" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
-      <c r="A20" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="U21" t="s">
-        <v>232</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
+      <c r="A22" t="s">
+        <v>410</v>
+      </c>
+      <c r="V22" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
+      <c r="A23" t="s">
+        <v>412</v>
+      </c>
+      <c r="V23" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23">
+      <c r="A24" t="s">
+        <v>415</v>
+      </c>
+      <c r="W24" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/config/uat/ccp/nclccp.xlsx
+++ b/config/uat/ccp/nclccp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finalgithub\ccpautomationFinal\ccpautomationFinal\config\uat\ccp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7C90C1-05A9-4044-A451-35C0B23991A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7A1446-1B76-4FDE-8617-6370A5C74C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="7" activeTab="11" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1293" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="428">
   <si>
     <t>DATA_ID</t>
   </si>
@@ -1324,6 +1324,24 @@
   </si>
   <si>
     <t>12/25/2023</t>
+  </si>
+  <si>
+    <t>searchrecallinit</t>
+  </si>
+  <si>
+    <t>TestReason</t>
+  </si>
+  <si>
+    <t>Testnotes</t>
+  </si>
+  <si>
+    <t>Text R</t>
+  </si>
+  <si>
+    <t>Text R Notes</t>
+  </si>
+  <si>
+    <t>411-107-000000282</t>
   </si>
 </sst>
 </file>
@@ -2229,8 +2247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B447BFF-DFD0-420A-9B95-A22889489E98}">
   <dimension ref="A1:BU56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AS16" workbookViewId="0">
-      <selection activeCell="AX1" sqref="AX1"/>
+    <sheetView topLeftCell="AS16" workbookViewId="0">
+      <selection activeCell="AX28" sqref="AX28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -3095,9 +3113,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:BR50"/>
   <sheetViews>
-    <sheetView topLeftCell="AX1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BA27" sqref="BA27"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -3837,8 +3855,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F6F92B-CE4D-4CE1-BDAA-9B5D90BAB133}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView topLeftCell="N7" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -3965,21 +3983,21 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="5" spans="1:31">
       <c r="A5" t="s">
         <v>164</v>
       </c>
-      <c r="F5" t="s">
-        <v>165</v>
+      <c r="E5" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" t="s">
         <v>166</v>
+      </c>
+      <c r="F6" t="s">
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:31">
@@ -4322,7 +4340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F322F26-4FB8-40DF-B1E3-0F1986B4EFA1}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
@@ -4437,10 +4455,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246945EE-2FD4-4748-ABAD-B8C4C50658FF}">
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4687,6 +4705,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>422</v>
+      </c>
+      <c r="C20" t="s">
+        <v>427</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" location="Proforma-ProformaHeader/184467440737096715" display="http://10.65.47.213/LandedGoods/Proforma/ProformaHeader - Proforma-ProformaHeader/184467440737096715" xr:uid="{01BB1E2B-E925-4C0B-8068-58448A8B2078}"/>
@@ -4698,10 +4727,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD52EC0-EC45-494E-8D1E-2CD04920CEE5}">
-  <dimension ref="A1:AF34"/>
+  <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="Z36" sqref="A36:XFD36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4715,7 +4744,7 @@
     <col min="9" max="9" width="24.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32">
+    <row r="1" spans="1:36">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -4808,8 +4837,20 @@
       <c r="AF1" s="2" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="2" spans="1:32">
+      <c r="AG1" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AH1" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36">
       <c r="A2" t="s">
         <v>168</v>
       </c>
@@ -4817,7 +4858,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:36">
       <c r="A3" t="s">
         <v>169</v>
       </c>
@@ -4825,7 +4866,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="4" spans="1:32">
+    <row r="4" spans="1:36">
       <c r="A4" t="s">
         <v>156</v>
       </c>
@@ -4833,7 +4874,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="15" thickBot="1">
+    <row r="5" spans="1:36" ht="15" thickBot="1">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -4841,7 +4882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="15" thickBot="1">
+    <row r="6" spans="1:36" ht="15" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>159</v>
       </c>
@@ -4850,14 +4891,14 @@
       </c>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:32">
+    <row r="7" spans="1:36">
       <c r="A7" s="10" t="s">
         <v>171</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:32">
+    <row r="8" spans="1:36">
       <c r="A8" s="10" t="s">
         <v>172</v>
       </c>
@@ -4865,7 +4906,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:32">
+    <row r="9" spans="1:36">
       <c r="A9" s="10" t="s">
         <v>174</v>
       </c>
@@ -4873,7 +4914,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:32">
+    <row r="10" spans="1:36">
       <c r="A10" t="s">
         <v>220</v>
       </c>
@@ -4881,7 +4922,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="11" spans="1:32">
+    <row r="11" spans="1:36">
       <c r="A11" s="10" t="s">
         <v>221</v>
       </c>
@@ -4889,7 +4930,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:36">
       <c r="A12" s="10" t="s">
         <v>359</v>
       </c>
@@ -4897,7 +4938,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:36">
       <c r="A13" s="10" t="s">
         <v>172</v>
       </c>
@@ -4905,12 +4946,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:32">
+    <row r="14" spans="1:36">
       <c r="A14" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="15" spans="1:32">
+    <row r="15" spans="1:36">
       <c r="A15" s="10" t="s">
         <v>187</v>
       </c>
@@ -4918,7 +4959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:32">
+    <row r="16" spans="1:36">
       <c r="A16" s="10" t="s">
         <v>360</v>
       </c>
@@ -5051,8 +5092,10 @@
       <c r="A32" s="10" t="s">
         <v>372</v>
       </c>
-    </row>
-    <row r="33" spans="1:32" ht="15">
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+    </row>
+    <row r="33" spans="1:36" ht="15">
       <c r="A33" s="10" t="s">
         <v>373</v>
       </c>
@@ -5060,7 +5103,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="34" spans="1:32">
+    <row r="34" spans="1:36">
       <c r="A34" t="s">
         <v>64</v>
       </c>
@@ -5068,6 +5111,38 @@
         <v>66</v>
       </c>
       <c r="AF34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:36">
+      <c r="A35" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:36">
+      <c r="A36" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36">
+      <c r="A37" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="38" spans="1:36">
+      <c r="A38" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ38" t="s">
         <v>2</v>
       </c>
     </row>
@@ -7113,8 +7188,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView topLeftCell="N12" workbookViewId="0">
-      <selection activeCell="T7" sqref="T7"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/config/uat/ccp/nclccp.xlsx
+++ b/config/uat/ccp/nclccp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finalgithub\ccpautomationFinal\ccpautomationFinal\config\uat\ccp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D7A1446-1B76-4FDE-8617-6370A5C74C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD606DB-95AF-4188-A08F-AE08AE0BC0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="13" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="430">
   <si>
     <t>DATA_ID</t>
   </si>
@@ -167,9 +167,6 @@
     <t>deletedoffloadevent</t>
   </si>
   <si>
-    <t>NCL_Gem_AUA_Apr 22 2021</t>
-  </si>
-  <si>
     <t>editbutton</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>purserrejectedstatus</t>
   </si>
   <si>
-    <t>purserupdatedstatus</t>
-  </si>
-  <si>
     <t>savebutton</t>
   </si>
   <si>
@@ -266,9 +260,6 @@
     <t>onholdbutton</t>
   </si>
   <si>
-    <t>411-102-000000067</t>
-  </si>
-  <si>
     <t>Offloadforms</t>
   </si>
   <si>
@@ -1236,9 +1227,6 @@
   </si>
   <si>
     <t>ValuationTypeEditValnonus</t>
-  </si>
-  <si>
-    <t>411-104-000000057</t>
   </si>
   <si>
     <t>Amendsearchvalue</t>
@@ -1341,14 +1329,32 @@
     <t>Text R Notes</t>
   </si>
   <si>
-    <t>411-107-000000282</t>
+    <t>411-107-000000297</t>
+  </si>
+  <si>
+    <t>403-126-000000060</t>
+  </si>
+  <si>
+    <t>NCL_Gem_AUA_Jun 17 2021</t>
+  </si>
+  <si>
+    <t>purserupdatedstatus1</t>
+  </si>
+  <si>
+    <t>411-104-000000063</t>
+  </si>
+  <si>
+    <t>411-104-000000064</t>
+  </si>
+  <si>
+    <t>411-104-000000065</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1452,6 +1458,12 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9.8000000000000007"/>
+      <color theme="3"/>
+      <name val="JetBrains Mono"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -1515,7 +1527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1584,6 +1596,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1932,7 +1947,7 @@
         <v>8</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1960,13 +1975,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -1974,7 +1989,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
         <v>1</v>
@@ -1982,13 +1997,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -1996,13 +2011,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
@@ -2013,13 +2028,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C8" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -2027,13 +2042,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B9" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -2069,27 +2084,27 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2098,7 +2113,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2106,15 +2121,15 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -2122,7 +2137,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -2130,7 +2145,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2163,30 +2178,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2195,7 +2210,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2203,15 +2218,15 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -2219,7 +2234,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -2227,7 +2242,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -2235,7 +2250,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2247,8 +2262,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B447BFF-DFD0-420A-9B95-A22889489E98}">
   <dimension ref="A1:BU56"/>
   <sheetViews>
-    <sheetView topLeftCell="AS16" workbookViewId="0">
-      <selection activeCell="AX28" sqref="AX28"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="AT30" sqref="A30:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -2278,211 +2293,211 @@
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="M1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="AC1" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="AD1" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE1" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF1" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG1" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="AH1" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="AJ1" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AK1" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="AL1" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AN1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="AO1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP1" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="AT1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="AU1" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="AV1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AW1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AX1" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AY1" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="AZ1" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="BA1" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="AD1" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG1" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="AH1" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="AI1" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="AJ1" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AK1" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="AL1" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="AP1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="AW1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AX1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AY1" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="AZ1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="BA1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BO1" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="BM1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="BR1" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="BS1" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="BU1" s="2" t="s">
         <v>21</v>
@@ -2496,7 +2511,7 @@
         <v>2</v>
       </c>
       <c r="BM2" s="21" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:73">
@@ -2509,7 +2524,7 @@
     </row>
     <row r="4" spans="1:73">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -2517,7 +2532,7 @@
     </row>
     <row r="5" spans="1:73">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -2525,7 +2540,7 @@
     </row>
     <row r="6" spans="1:73">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -2533,23 +2548,23 @@
     </row>
     <row r="7" spans="1:73">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:73">
       <c r="A8" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:73">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
         <v>27</v>
@@ -2557,45 +2572,45 @@
     </row>
     <row r="10" spans="1:73">
       <c r="A10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I10" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:73">
       <c r="A11" t="s">
+        <v>308</v>
+      </c>
+      <c r="I11" t="s">
+        <v>309</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="K11" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="I11" t="s">
-        <v>312</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="L11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:73">
       <c r="A12" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="M12" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:73">
       <c r="A13" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="14" spans="1:73">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="N14" t="s">
         <v>2</v>
@@ -2603,31 +2618,31 @@
     </row>
     <row r="15" spans="1:73">
       <c r="A15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="O15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q15">
         <v>54543</v>
       </c>
       <c r="R15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="S15" t="s">
         <v>2</v>
       </c>
       <c r="T15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="U15" t="s">
         <v>27</v>
       </c>
       <c r="V15" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="W15" t="s">
         <v>2</v>
@@ -2635,31 +2650,31 @@
     </row>
     <row r="16" spans="1:73">
       <c r="A16" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="O16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="P16" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>45653</v>
       </c>
       <c r="R16" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="S16" t="s">
         <v>2</v>
       </c>
       <c r="T16" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="U16" t="s">
         <v>27</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="W16" t="s">
         <v>2</v>
@@ -2667,7 +2682,7 @@
     </row>
     <row r="17" spans="1:65">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="X17" t="s">
         <v>1</v>
@@ -2676,7 +2691,7 @@
     </row>
     <row r="18" spans="1:65">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s">
         <v>2</v>
@@ -2685,31 +2700,31 @@
     </row>
     <row r="19" spans="1:65">
       <c r="A19" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B19" s="5"/>
       <c r="Z19" t="s">
         <v>2</v>
       </c>
       <c r="AA19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AB19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AC19" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:65">
       <c r="A20" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s">
         <v>2</v>
       </c>
       <c r="AE20" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AF20">
         <v>1</v>
@@ -2721,46 +2736,46 @@
         <v>2</v>
       </c>
       <c r="AI20" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="21" spans="1:65">
       <c r="A21" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AJ21" t="s">
         <v>2</v>
       </c>
       <c r="AK21" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:65">
       <c r="A22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AJ22" t="s">
         <v>2</v>
       </c>
       <c r="AK22" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:65">
       <c r="A23" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AL23" t="s">
         <v>2</v>
       </c>
       <c r="AM23" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AN23">
         <v>12343212</v>
       </c>
       <c r="AO23" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="AP23">
         <v>1</v>
@@ -2771,13 +2786,13 @@
     </row>
     <row r="24" spans="1:65">
       <c r="A24" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AL24" t="s">
         <v>2</v>
       </c>
       <c r="AM24" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AO24" s="6"/>
       <c r="AP24">
@@ -2789,21 +2804,21 @@
     </row>
     <row r="25" spans="1:65">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AR25" t="s">
         <v>2</v>
       </c>
       <c r="AS25" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:65">
       <c r="A26" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AT26" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AU26" t="s">
         <v>2</v>
@@ -2811,7 +2826,7 @@
     </row>
     <row r="27" spans="1:65">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AV27" t="s">
         <v>1</v>
@@ -2819,61 +2834,61 @@
     </row>
     <row r="28" spans="1:65">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AW28" t="s">
         <v>27</v>
       </c>
       <c r="AX28" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29" spans="1:65">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AY29" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="30" spans="1:65">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AZ30" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="31" spans="1:65">
       <c r="A31" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="BA31" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="32" spans="1:65">
       <c r="A32" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="BA32" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="33" spans="1:66">
       <c r="A33" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="AZ33" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="BA33" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:66">
       <c r="A34" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="BB34" t="s">
         <v>2</v>
@@ -2881,7 +2896,7 @@
     </row>
     <row r="35" spans="1:66">
       <c r="A35" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="BC35" t="s">
         <v>2</v>
@@ -2889,24 +2904,24 @@
     </row>
     <row r="36" spans="1:66">
       <c r="A36" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="BE36" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="37" spans="1:66">
       <c r="A37" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="BF37" t="s">
         <v>2</v>
       </c>
       <c r="BG37" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="BH37" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="BI37" t="s">
         <v>2</v>
@@ -2914,97 +2929,97 @@
     </row>
     <row r="38" spans="1:66">
       <c r="A38" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="BD38" t="s">
         <v>2</v>
       </c>
       <c r="BE38" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:66">
       <c r="A39" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="BD39" t="s">
         <v>2</v>
       </c>
       <c r="BE39" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:66">
       <c r="A40" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="BD40" t="s">
         <v>2</v>
       </c>
       <c r="BE40" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:66">
       <c r="A41" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="BD41" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="BE41" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:66">
       <c r="A42" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="BE42" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:66">
       <c r="A43" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="BD43" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="BE43" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:66">
       <c r="A44" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AZ44" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" spans="1:66">
       <c r="A45" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="BJ45" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="BK45" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:66">
       <c r="A46" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="BL46" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="47" spans="1:66">
       <c r="A47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="BM47" t="s">
         <v>2</v>
@@ -3012,7 +3027,7 @@
     </row>
     <row r="48" spans="1:66">
       <c r="A48" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="BN48" t="s">
         <v>2</v>
@@ -3020,7 +3035,7 @@
     </row>
     <row r="49" spans="1:73">
       <c r="A49" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="BO49" t="s">
         <v>2</v>
@@ -3028,76 +3043,76 @@
     </row>
     <row r="50" spans="1:73">
       <c r="A50" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="BA50" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="BD50" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="51" spans="1:73">
       <c r="A51" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="BA51" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="BD51" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="52" spans="1:73">
       <c r="A52" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="BP52" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="53" spans="1:73">
       <c r="A53" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="BQ53" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:73">
       <c r="A54" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="Y54" t="s">
         <v>2</v>
       </c>
       <c r="BR54" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:73">
       <c r="A55" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="BS55" t="s">
         <v>2</v>
       </c>
       <c r="BT55" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="BU55" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="56" spans="1:73">
       <c r="A56" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="BG56" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="BH56" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="BI56" t="s">
         <v>2</v>
@@ -3111,11 +3126,11 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:BR50"/>
+  <dimension ref="A1:BS51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="BK1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="BR2" sqref="BR2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -3132,7 +3147,7 @@
     <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="23.26953125" customWidth="1"/>
+    <col min="14" max="14" width="29.7265625" customWidth="1"/>
     <col min="15" max="15" width="20.453125" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="25.81640625" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="20.7265625" bestFit="1" customWidth="1"/>
@@ -3140,7 +3155,7 @@
     <col min="57" max="57" width="23.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" s="2" customFormat="1">
+    <row r="1" spans="1:71" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3148,7 +3163,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -3172,184 +3187,190 @@
         <v>22</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AT1" s="2" t="s">
+      <c r="AW1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AU1" s="2" t="s">
+      <c r="AX1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AV1" s="2" t="s">
+      <c r="AY1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AW1" s="2" t="s">
+      <c r="AZ1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AX1" s="2" t="s">
+      <c r="BA1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AY1" s="2" t="s">
+      <c r="BB1" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="AZ1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="BA1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="BB1" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="BC1" s="2" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="BD1" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="BF1" s="2" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="BG1" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="BJ1" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="BK1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="BM1" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BO1" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="BH1" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>369</v>
-      </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BP1" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="BK1" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="BN1" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="BO1" s="2" t="s">
-        <v>383</v>
-      </c>
-      <c r="BP1" s="2" t="s">
-        <v>384</v>
-      </c>
-      <c r="BQ1" s="2" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="2" spans="1:69">
+      <c r="BR1" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="BS1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:71">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -3357,15 +3378,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:69">
+    <row r="3" spans="1:71">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:69">
+    <row r="4" spans="1:71">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3378,20 +3399,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:69">
+    <row r="5" spans="1:71">
       <c r="A5" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="3"/>
       <c r="L5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:69">
+    <row r="6" spans="1:71">
       <c r="A6" t="s">
         <v>19</v>
       </c>
@@ -3402,18 +3423,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:69">
+    <row r="7" spans="1:71">
       <c r="A7" t="s">
         <v>24</v>
       </c>
       <c r="N7" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="BE7" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="8" spans="1:69">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:71">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -3421,7 +3442,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:69">
+    <row r="9" spans="1:71">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -3429,7 +3450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:69">
+    <row r="10" spans="1:71">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -3437,7 +3458,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:69">
+    <row r="11" spans="1:71">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -3445,44 +3466,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:69">
+    <row r="12" spans="1:71">
       <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="K12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:71">
+      <c r="A13" t="s">
+        <v>68</v>
+      </c>
+      <c r="L13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:71">
+      <c r="A14" t="s">
+        <v>69</v>
+      </c>
+      <c r="M14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:71">
+      <c r="A15" t="s">
         <v>70</v>
       </c>
-      <c r="K12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:69">
-      <c r="A13" t="s">
-        <v>71</v>
-      </c>
-      <c r="L13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:69">
-      <c r="A14" t="s">
-        <v>72</v>
-      </c>
-      <c r="M14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:69">
-      <c r="A15" t="s">
-        <v>73</v>
-      </c>
       <c r="N15" t="s">
+        <v>234</v>
+      </c>
+      <c r="BE15" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:71">
+      <c r="A16" t="s">
         <v>237</v>
-      </c>
-      <c r="BE15" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="16" spans="1:69">
-      <c r="A16" t="s">
-        <v>240</v>
       </c>
       <c r="BF16" t="s">
         <v>27</v>
@@ -3490,15 +3511,15 @@
     </row>
     <row r="17" spans="1:55">
       <c r="A17" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="O17" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:55">
       <c r="A18" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="P18" t="s">
         <v>27</v>
@@ -3506,7 +3527,7 @@
     </row>
     <row r="19" spans="1:55">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="Q19" t="s">
         <v>27</v>
@@ -3514,31 +3535,31 @@
     </row>
     <row r="20" spans="1:55">
       <c r="A20" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="R20" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="S20" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="T20">
         <v>54543</v>
       </c>
       <c r="U20" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="V20" t="s">
         <v>2</v>
       </c>
       <c r="W20" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="X20" t="s">
         <v>27</v>
       </c>
       <c r="Y20" s="5" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="Z20" t="s">
         <v>2</v>
@@ -3546,7 +3567,7 @@
     </row>
     <row r="21" spans="1:55">
       <c r="A21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AA21" t="s">
         <v>1</v>
@@ -3554,7 +3575,7 @@
     </row>
     <row r="22" spans="1:55">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s">
         <v>2</v>
@@ -3562,30 +3583,30 @@
     </row>
     <row r="23" spans="1:55">
       <c r="A23" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AC23" t="s">
         <v>2</v>
       </c>
       <c r="AD23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AE23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="AF23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:55">
       <c r="A24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AG24" t="s">
         <v>2</v>
       </c>
       <c r="AH24" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AI24">
         <v>1</v>
@@ -3597,35 +3618,35 @@
         <v>2</v>
       </c>
       <c r="AL24" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:55">
       <c r="A25" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AM25" t="s">
         <v>2</v>
       </c>
       <c r="AN25" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:55">
       <c r="A26" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AO26" t="s">
         <v>2</v>
       </c>
       <c r="AP26" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AQ26">
         <v>12343212</v>
       </c>
       <c r="AR26" s="6" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="AS26">
         <v>1</v>
@@ -3636,7 +3657,7 @@
     </row>
     <row r="27" spans="1:55">
       <c r="A27" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AU27" t="s">
         <v>2</v>
@@ -3647,10 +3668,10 @@
     </row>
     <row r="28" spans="1:55">
       <c r="A28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AW28" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AX28" t="s">
         <v>2</v>
@@ -3658,7 +3679,7 @@
     </row>
     <row r="29" spans="1:55">
       <c r="A29" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AY29" t="s">
         <v>1</v>
@@ -3666,18 +3687,18 @@
     </row>
     <row r="30" spans="1:55">
       <c r="A30" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AZ30" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="BA30" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="31" spans="1:55">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="BB31" t="s">
         <v>27</v>
@@ -3685,7 +3706,7 @@
     </row>
     <row r="32" spans="1:55">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="BC32" t="s">
         <v>2</v>
@@ -3693,7 +3714,7 @@
     </row>
     <row r="33" spans="1:69">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BD33" t="s">
         <v>2</v>
@@ -3701,30 +3722,30 @@
     </row>
     <row r="34" spans="1:69">
       <c r="A34" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="BE34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="1:69">
       <c r="A35" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="N35" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="36" spans="1:69">
       <c r="A36" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="AM36" s="5"/>
       <c r="AO36" t="s">
         <v>2</v>
       </c>
       <c r="AP36" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AS36">
         <v>1</v>
@@ -3735,7 +3756,7 @@
     </row>
     <row r="37" spans="1:69">
       <c r="A37" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="AM37" s="5"/>
       <c r="AO37" s="6"/>
@@ -3745,7 +3766,7 @@
     </row>
     <row r="38" spans="1:69">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="BH38" t="s">
         <v>2</v>
@@ -3753,7 +3774,7 @@
     </row>
     <row r="39" spans="1:69">
       <c r="A39" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="BI39" t="s">
         <v>2</v>
@@ -3761,7 +3782,7 @@
     </row>
     <row r="40" spans="1:69">
       <c r="A40" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="BJ40" t="s">
         <v>2</v>
@@ -3775,7 +3796,7 @@
     </row>
     <row r="42" spans="1:69">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="BL42" t="s">
         <v>2</v>
@@ -3783,7 +3804,7 @@
     </row>
     <row r="43" spans="1:69">
       <c r="A43" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="BM43" t="s">
         <v>2</v>
@@ -3791,12 +3812,12 @@
     </row>
     <row r="44" spans="1:69">
       <c r="A44" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="45" spans="1:69">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="BN45" t="s">
         <v>2</v>
@@ -3804,7 +3825,7 @@
     </row>
     <row r="46" spans="1:69">
       <c r="A46" s="15" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="BO46" t="s">
         <v>2</v>
@@ -3812,7 +3833,7 @@
     </row>
     <row r="47" spans="1:69">
       <c r="A47" s="15" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="BP47" t="s">
         <v>2</v>
@@ -3820,29 +3841,37 @@
     </row>
     <row r="48" spans="1:69">
       <c r="A48" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="BQ48" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:70">
+    <row r="49" spans="1:71">
       <c r="A49" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="BR49" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="50" spans="1:70">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="50" spans="1:71">
       <c r="A50" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="G50" t="s">
         <v>27</v>
       </c>
       <c r="H50" t="s">
         <v>26</v>
+      </c>
+      <c r="BS50" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:71">
+      <c r="A51" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -3855,7 +3884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F6F92B-CE4D-4CE1-BDAA-9B5D90BAB133}">
   <dimension ref="A1:AE31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A20" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
@@ -3870,99 +3899,99 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="8" t="s">
         <v>160</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>163</v>
-      </c>
       <c r="N1" s="9" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O1" s="9" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="R1" s="29" t="s">
         <v>21</v>
       </c>
       <c r="S1" s="8" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="T1" s="29" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="X1" s="8" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2" spans="1:31" ht="13.5" customHeight="1">
       <c r="A2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -3970,7 +3999,7 @@
     </row>
     <row r="3" spans="1:31" ht="13.5" customHeight="1">
       <c r="A3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -3978,7 +4007,7 @@
     </row>
     <row r="4" spans="1:31" ht="13.5" customHeight="1">
       <c r="A4" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -3986,23 +4015,23 @@
     </row>
     <row r="5" spans="1:31">
       <c r="A5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="6" spans="1:31">
       <c r="A6" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:31">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -4011,7 +4040,7 @@
     </row>
     <row r="8" spans="1:31">
       <c r="A8" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -4021,17 +4050,17 @@
     </row>
     <row r="9" spans="1:31">
       <c r="A9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
     <row r="10" spans="1:31">
       <c r="A10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="J10" s="3" t="s">
         <v>2</v>
@@ -4039,7 +4068,7 @@
     </row>
     <row r="11" spans="1:31">
       <c r="A11" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="K11" s="3" t="s">
         <v>2</v>
@@ -4047,7 +4076,7 @@
     </row>
     <row r="12" spans="1:31">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>2</v>
@@ -4055,7 +4084,7 @@
     </row>
     <row r="13" spans="1:31">
       <c r="A13" s="10" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>2</v>
@@ -4063,7 +4092,7 @@
     </row>
     <row r="14" spans="1:31">
       <c r="A14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>2</v>
@@ -4071,7 +4100,7 @@
     </row>
     <row r="15" spans="1:31">
       <c r="A15" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>2</v>
@@ -4079,7 +4108,7 @@
     </row>
     <row r="16" spans="1:31">
       <c r="A16" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>27</v>
@@ -4087,10 +4116,10 @@
     </row>
     <row r="17" spans="1:31" ht="29">
       <c r="A17" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:31">
@@ -4103,15 +4132,15 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="S19" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>2</v>
@@ -4119,15 +4148,15 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="U21" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>2</v>
@@ -4135,7 +4164,7 @@
     </row>
     <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>2</v>
@@ -4143,7 +4172,7 @@
     </row>
     <row r="24" spans="1:31">
       <c r="A24" s="28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>2</v>
@@ -4151,7 +4180,7 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="Y25" s="3" t="s">
         <v>2</v>
@@ -4159,7 +4188,7 @@
     </row>
     <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>2</v>
@@ -4167,7 +4196,7 @@
     </row>
     <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="AA27" s="3" t="s">
         <v>2</v>
@@ -4175,23 +4204,23 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="AC29" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="AD30" s="3" t="s">
         <v>2</v>
@@ -4199,7 +4228,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" s="21" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="AE31" t="s">
         <v>27</v>
@@ -4239,37 +4268,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="H1" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>203</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>204</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>192</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>206</v>
       </c>
       <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -4278,7 +4307,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -4286,15 +4315,15 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -4302,7 +4331,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="10" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -4310,7 +4339,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="10" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -4318,17 +4347,17 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>
@@ -4362,33 +4391,33 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="I1" s="15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -4397,7 +4426,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -4405,15 +4434,15 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D4" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -4421,7 +4450,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -4429,7 +4458,7 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -4437,7 +4466,7 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -4445,7 +4474,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -4455,10 +4484,10 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246945EE-2FD4-4748-ABAD-B8C4C50658FF}">
-  <dimension ref="A1:O20"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4478,242 +4507,293 @@
     <col min="14" max="14" width="12.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="2" customFormat="1">
+    <row r="1" spans="1:16" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>58</v>
-      </c>
       <c r="J1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+        <v>353</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:16">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>429</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:16">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:16">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" t="s">
-        <v>1</v>
-      </c>
-      <c r="H6" t="s">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="K7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" t="s">
+        <v>65</v>
+      </c>
+      <c r="J8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" t="s">
         <v>66</v>
       </c>
-      <c r="L7" t="s">
-        <v>66</v>
-      </c>
-      <c r="M7" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
-      <c r="A8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
       <c r="N9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>243</v>
+      </c>
+      <c r="C10" t="s">
+        <v>428</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C11" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="C12" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C13" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="O14">
         <v>12341234</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:16">
       <c r="A15" t="s">
+        <v>360</v>
+      </c>
+      <c r="C15" t="s">
+        <v>416</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" t="s">
         <v>363</v>
       </c>
-      <c r="C15" t="s">
-        <v>420</v>
-      </c>
-      <c r="D15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
-      <c r="A16" t="s">
-        <v>366</v>
-      </c>
       <c r="C16" t="s">
-        <v>378</v>
+        <v>424</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C17" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C18" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D19" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="C20" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="P22" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>425</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="I26" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4749,110 +4829,110 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>172</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="T1" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="S1" s="2" t="s">
+      <c r="W1" s="29" t="s">
         <v>363</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>358</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="W1" s="29" t="s">
-        <v>366</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB1" s="2" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="Z1" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>371</v>
-      </c>
-      <c r="AE1" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>373</v>
-      </c>
       <c r="AG1" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AH1" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="AI1" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ1" s="10" t="s">
         <v>164</v>
-      </c>
-      <c r="AI1" s="10" t="s">
-        <v>156</v>
-      </c>
-      <c r="AJ1" s="10" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:36">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -4860,23 +4940,23 @@
     </row>
     <row r="3" spans="1:36">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:36">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="15" thickBot="1">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -4884,23 +4964,23 @@
     </row>
     <row r="6" spans="1:36" ht="15" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:36">
       <c r="A7" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
     <row r="8" spans="1:36">
       <c r="A8" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
@@ -4908,23 +4988,23 @@
     </row>
     <row r="9" spans="1:36">
       <c r="A9" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:36">
       <c r="A10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:36">
       <c r="A11" s="10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="J11" t="s">
         <v>27</v>
@@ -4932,7 +5012,7 @@
     </row>
     <row r="12" spans="1:36">
       <c r="A12" s="10" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>28</v>
@@ -4940,7 +5020,7 @@
     </row>
     <row r="13" spans="1:36">
       <c r="A13" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="L13" t="s">
         <v>2</v>
@@ -4948,12 +5028,12 @@
     </row>
     <row r="14" spans="1:36">
       <c r="A14" s="10" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:36">
       <c r="A15" s="10" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N15" t="s">
         <v>2</v>
@@ -4961,31 +5041,31 @@
     </row>
     <row r="16" spans="1:36">
       <c r="A16" s="10" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="O16" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="17" spans="1:30">
       <c r="A17" s="10" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="P17" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:30">
       <c r="A18" s="10" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="Q18" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19" spans="1:30" ht="15" thickBot="1">
       <c r="A19" s="10" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="R19" t="s">
         <v>2</v>
@@ -4993,24 +5073,24 @@
     </row>
     <row r="20" spans="1:30" ht="15" thickBot="1">
       <c r="A20" s="10" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="S20" s="30" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="T20" s="31"/>
     </row>
     <row r="21" spans="1:30">
       <c r="A21" s="10" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="T21" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22" spans="1:30">
       <c r="A22" s="10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="U22" t="s">
         <v>2</v>
@@ -5018,7 +5098,7 @@
     </row>
     <row r="23" spans="1:30" ht="15" thickBot="1">
       <c r="A23" s="10" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="V23" t="s">
         <v>2</v>
@@ -5026,10 +5106,10 @@
     </row>
     <row r="24" spans="1:30" ht="15" thickBot="1">
       <c r="A24" s="28" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="W24" s="32" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="25" spans="1:30">
@@ -5042,7 +5122,7 @@
     </row>
     <row r="26" spans="1:30">
       <c r="A26" s="10" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="Y26" t="s">
         <v>2</v>
@@ -5050,7 +5130,7 @@
     </row>
     <row r="27" spans="1:30">
       <c r="A27" s="10" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="Z27" t="s">
         <v>2</v>
@@ -5058,7 +5138,7 @@
     </row>
     <row r="28" spans="1:30">
       <c r="A28" s="10" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="AA28" t="s">
         <v>2</v>
@@ -5066,7 +5146,7 @@
     </row>
     <row r="29" spans="1:30">
       <c r="A29" s="10" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="AB29" t="s">
         <v>2</v>
@@ -5074,7 +5154,7 @@
     </row>
     <row r="30" spans="1:30">
       <c r="A30" s="10" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="AC30" t="s">
         <v>2</v>
@@ -5082,7 +5162,7 @@
     </row>
     <row r="31" spans="1:30">
       <c r="A31" s="10" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="AD31" t="s">
         <v>2</v>
@@ -5090,25 +5170,25 @@
     </row>
     <row r="32" spans="1:30">
       <c r="A32" s="10" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
     </row>
     <row r="33" spans="1:36" ht="15">
       <c r="A33" s="10" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="AE33" s="33" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="34" spans="1:36">
       <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="C34" t="s">
         <v>64</v>
-      </c>
-      <c r="C34" t="s">
-        <v>66</v>
       </c>
       <c r="AF34" t="s">
         <v>2</v>
@@ -5116,7 +5196,7 @@
     </row>
     <row r="35" spans="1:36">
       <c r="A35" s="10" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="AG35" t="s">
         <v>27</v>
@@ -5124,23 +5204,23 @@
     </row>
     <row r="36" spans="1:36">
       <c r="A36" s="10" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="AH36" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:36">
       <c r="A37" s="10" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="AI37" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:36">
       <c r="A38" s="10" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="AJ38" t="s">
         <v>2</v>
@@ -5189,139 +5269,139 @@
         <v>15</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AT1" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AR1" s="2" t="s">
+      <c r="AU1" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="AS1" s="2" t="s">
+      <c r="AV1" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="AT1" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="AU1" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="AV1" s="2" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:48">
@@ -5342,7 +5422,7 @@
     </row>
     <row r="4" spans="1:48">
       <c r="A4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -5350,7 +5430,7 @@
     </row>
     <row r="5" spans="1:48">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -5358,7 +5438,7 @@
     </row>
     <row r="6" spans="1:48">
       <c r="A6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -5366,15 +5446,15 @@
     </row>
     <row r="7" spans="1:48">
       <c r="A7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:48">
       <c r="A8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -5382,15 +5462,15 @@
     </row>
     <row r="9" spans="1:48">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:48">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -5398,7 +5478,7 @@
     </row>
     <row r="11" spans="1:48">
       <c r="A11" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="K11" t="s">
         <v>2</v>
@@ -5406,31 +5486,31 @@
     </row>
     <row r="12" spans="1:48">
       <c r="A12" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="M12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="N12">
         <v>45653</v>
       </c>
       <c r="O12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="P12" t="s">
         <v>2</v>
       </c>
       <c r="Q12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="R12" t="s">
         <v>27</v>
       </c>
       <c r="S12" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="T12" t="s">
         <v>2</v>
@@ -5438,7 +5518,7 @@
     </row>
     <row r="13" spans="1:48">
       <c r="A13" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="U13" t="s">
         <v>1</v>
@@ -5446,7 +5526,7 @@
     </row>
     <row r="14" spans="1:48">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s">
         <v>2</v>
@@ -5454,31 +5534,31 @@
     </row>
     <row r="15" spans="1:48">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B15" s="5"/>
       <c r="W15" t="s">
         <v>2</v>
       </c>
       <c r="X15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Y15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="Z15" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:48">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AA16" t="s">
         <v>2</v>
       </c>
       <c r="AB16" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="AC16">
         <v>1</v>
@@ -5490,35 +5570,35 @@
         <v>2</v>
       </c>
       <c r="AF16" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:48">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AG17" t="s">
         <v>2</v>
       </c>
       <c r="AH17" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:48">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AI18" t="s">
         <v>2</v>
       </c>
       <c r="AJ18" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="AK18">
         <v>123534312</v>
       </c>
       <c r="AL18" s="6" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="AM18">
         <v>1</v>
@@ -5529,13 +5609,13 @@
     </row>
     <row r="19" spans="1:48">
       <c r="A19" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AI19" t="s">
         <v>2</v>
       </c>
       <c r="AJ19" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AL19" s="6"/>
       <c r="AM19">
@@ -5547,7 +5627,7 @@
     </row>
     <row r="20" spans="1:48">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="AO20" t="s">
         <v>2</v>
@@ -5558,10 +5638,10 @@
     </row>
     <row r="21" spans="1:48">
       <c r="A21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="AQ21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AR21" t="s">
         <v>2</v>
@@ -5569,7 +5649,7 @@
     </row>
     <row r="22" spans="1:48">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="AS22" t="s">
         <v>1</v>
@@ -5577,18 +5657,18 @@
     </row>
     <row r="23" spans="1:48">
       <c r="A23" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="AT23" t="s">
         <v>2</v>
       </c>
       <c r="AU23" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:48">
       <c r="A24" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AV24" t="s">
         <v>2</v>
@@ -5631,73 +5711,73 @@
         <v>29</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="J1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>180</v>
-      </c>
-      <c r="J1" s="8" t="s">
+      <c r="K1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="U1" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>354</v>
-      </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y1" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -5710,7 +5790,7 @@
     </row>
     <row r="3" spans="1:25">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -5718,7 +5798,7 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -5726,7 +5806,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -5734,7 +5814,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -5742,7 +5822,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -5750,7 +5830,7 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -5758,7 +5838,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="I9" t="s">
         <v>2</v>
@@ -5766,29 +5846,29 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="J10" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="K11" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M13" t="s">
         <v>2</v>
@@ -5796,7 +5876,7 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="N14" t="s">
         <v>27</v>
@@ -5804,7 +5884,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="O15" t="s">
         <v>2</v>
@@ -5812,7 +5892,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="P16" t="s">
         <v>2</v>
@@ -5820,7 +5900,7 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q17" t="s">
         <v>2</v>
@@ -5828,7 +5908,7 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="R18" t="s">
         <v>2</v>
@@ -5836,7 +5916,7 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="S19" t="s">
         <v>2</v>
@@ -5844,7 +5924,7 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="T20" t="s">
         <v>27</v>
@@ -5852,7 +5932,7 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="U21" t="s">
         <v>27</v>
@@ -5860,7 +5940,7 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="V22" t="s">
         <v>2</v>
@@ -5868,23 +5948,23 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="X24" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="Y25" t="s">
         <v>2</v>
@@ -5918,13 +5998,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -5954,13 +6034,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -6024,30 +6104,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>169</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -6055,23 +6135,23 @@
     </row>
     <row r="3" spans="1:14" ht="26.25" customHeight="1">
       <c r="A3" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:14" ht="26.25" customHeight="1">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="15" thickBot="1">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -6079,25 +6159,25 @@
     </row>
     <row r="6" spans="1:14" ht="15" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="10" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="10" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -6219,13 +6299,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>2</v>
@@ -6255,13 +6335,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="26" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -6307,13 +6387,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -6364,97 +6444,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="J1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="K1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="O1" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="S1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="U1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="R1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="S1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="T1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="V1" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="X1" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="Y1" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="AA1" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="AB1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="AB1" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="AC1" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AG1" s="20"/>
       <c r="AH1" s="2"/>
@@ -6469,7 +6549,7 @@
     </row>
     <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -6477,7 +6557,7 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -6485,7 +6565,7 @@
     </row>
     <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -6493,7 +6573,7 @@
     </row>
     <row r="5" spans="1:42">
       <c r="A5" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -6501,7 +6581,7 @@
     </row>
     <row r="6" spans="1:42">
       <c r="A6" s="10" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -6509,7 +6589,7 @@
     </row>
     <row r="7" spans="1:42">
       <c r="A7" s="10" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -6517,15 +6597,15 @@
     </row>
     <row r="8" spans="1:42">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="H8" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="I9" t="s">
         <v>2</v>
@@ -6533,7 +6613,7 @@
     </row>
     <row r="10" spans="1:42">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -6541,7 +6621,7 @@
     </row>
     <row r="11" spans="1:42">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="K11" t="s">
         <v>2</v>
@@ -6549,23 +6629,23 @@
     </row>
     <row r="12" spans="1:42">
       <c r="A12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="L12" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="13" spans="1:42">
       <c r="A13" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:42">
       <c r="A14" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="N14" t="s">
         <v>2</v>
@@ -6573,7 +6653,7 @@
     </row>
     <row r="15" spans="1:42">
       <c r="A15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O15" t="s">
         <v>2</v>
@@ -6581,7 +6661,7 @@
     </row>
     <row r="16" spans="1:42">
       <c r="A16" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -6589,15 +6669,15 @@
     </row>
     <row r="17" spans="1:31">
       <c r="A17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q17" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="R18" t="s">
         <v>2</v>
@@ -6605,7 +6685,7 @@
     </row>
     <row r="19" spans="1:31">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S19" t="s">
         <v>27</v>
@@ -6613,7 +6693,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="T20" t="s">
         <v>2</v>
@@ -6621,7 +6701,7 @@
     </row>
     <row r="21" spans="1:31">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="U21" t="s">
         <v>2</v>
@@ -6629,23 +6709,23 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="W23" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="X24" t="s">
         <v>2</v>
@@ -6653,23 +6733,23 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="Y25" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="Z26" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="AA27" t="s">
         <v>2</v>
@@ -6677,23 +6757,23 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="AB28" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="29" spans="1:31">
       <c r="A29" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="Y29" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="AC30" s="13" t="str">
         <f>M13</f>
@@ -6702,7 +6782,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="AD31" t="s">
         <v>27</v>
@@ -6710,7 +6790,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="AE32" t="s">
         <v>27</v>
@@ -6718,7 +6798,7 @@
     </row>
     <row r="33" spans="1:42">
       <c r="A33" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="AF33" t="s">
         <v>1</v>
@@ -6731,16 +6811,16 @@
     </row>
     <row r="35" spans="1:42">
       <c r="AH35" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AI35" t="s">
         <v>2</v>
       </c>
       <c r="AK35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="AL35" t="s">
         <v>54</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:42">
@@ -6755,7 +6835,7 @@
     </row>
     <row r="40" spans="1:42">
       <c r="AN40" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="AO40" t="s">
         <v>2</v>
@@ -6811,60 +6891,60 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>259</v>
+      </c>
+      <c r="C1" t="s">
+        <v>260</v>
+      </c>
+      <c r="D1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E1" t="s">
         <v>262</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>263</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>264</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>265</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>266</v>
       </c>
-      <c r="G1" t="s">
+      <c r="J1" t="s">
+        <v>279</v>
+      </c>
+      <c r="K1" t="s">
         <v>267</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>268</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>269</v>
       </c>
-      <c r="J1" t="s">
-        <v>282</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="N1" t="s">
         <v>270</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>271</v>
       </c>
-      <c r="M1" t="s">
+      <c r="P1" t="s">
         <v>272</v>
       </c>
-      <c r="N1" t="s">
-        <v>273</v>
-      </c>
-      <c r="O1" t="s">
-        <v>274</v>
-      </c>
-      <c r="P1" t="s">
-        <v>275</v>
-      </c>
       <c r="Q1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="R1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -6872,7 +6952,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -6880,7 +6960,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -6888,15 +6968,15 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -6904,15 +6984,15 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -6920,15 +7000,15 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="I9" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -6936,47 +7016,47 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="K11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="L12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="M13" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="N14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="O15" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P16" t="s">
         <v>2</v>
@@ -6984,26 +7064,26 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q17" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:18">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7041,66 +7121,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>260</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C3" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D4" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -7108,15 +7188,15 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="10" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -7124,7 +7204,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="H8" t="s">
         <v>1</v>
@@ -7132,7 +7212,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="I9" t="s">
         <v>1</v>
@@ -7140,7 +7220,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -7148,15 +7228,15 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="K11" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="L12" t="s">
         <v>1</v>
@@ -7164,18 +7244,18 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K13" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="K14" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -7188,8 +7268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:W24"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7229,7 +7309,7 @@
         <v>31</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>32</v>
@@ -7244,49 +7324,49 @@
         <v>35</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="M1" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="R1" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -7303,10 +7383,10 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
-        <v>36</v>
+        <v>425</v>
       </c>
       <c r="D3" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -7314,7 +7394,7 @@
         <v>32</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -7322,7 +7402,7 @@
         <v>33</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -7330,7 +7410,7 @@
         <v>34</v>
       </c>
       <c r="G6" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -7343,35 +7423,35 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I8" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
       </c>
       <c r="J9" t="str">
         <f>C3</f>
-        <v>NCL_Gem_AUA_Apr 22 2021</v>
+        <v>NCL_Gem_AUA_Jun 17 2021</v>
       </c>
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L11" t="s">
         <v>2</v>
@@ -7379,18 +7459,15 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>62</v>
-      </c>
-      <c r="M12" t="s">
-        <v>231</v>
-      </c>
-      <c r="N12" t="s">
-        <v>2</v>
+        <v>60</v>
+      </c>
+      <c r="S12" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O13" t="s">
         <v>2</v>
@@ -7398,23 +7475,23 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P14" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="Q14" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="R16" t="s">
         <v>27</v>
@@ -7422,63 +7499,63 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="S17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="T18" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P19" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="U21" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="V22" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="V23" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="W24" t="s">
         <v>1</v>

--- a/config/uat/ccp/nclccp.xlsx
+++ b/config/uat/ccp/nclccp.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finalgithub\ccpautomationFinal\ccpautomationFinal\config\uat\ccp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD606DB-95AF-4188-A08F-AE08AE0BC0F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89BF0A4-5C7F-4AE3-80C3-BEC28F7E3D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="15" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="3" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1324" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="431">
   <si>
     <t>DATA_ID</t>
   </si>
@@ -1348,6 +1348,9 @@
   </si>
   <si>
     <t>411-104-000000065</t>
+  </si>
+  <si>
+    <t>Finalrejection</t>
   </si>
 </sst>
 </file>
@@ -3882,10 +3885,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F6F92B-CE4D-4CE1-BDAA-9B5D90BAB133}">
-  <dimension ref="A1:AE31"/>
+  <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
@@ -3894,7 +3897,7 @@
     <col min="17" max="17" width="41.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="2" customFormat="1">
+    <row r="1" spans="1:32" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3988,8 +3991,11 @@
       <c r="AE1" s="2" t="s">
         <v>392</v>
       </c>
-    </row>
-    <row r="2" spans="1:31" ht="13.5" customHeight="1">
+      <c r="AF1" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" ht="13.5" customHeight="1">
       <c r="A2" t="s">
         <v>149</v>
       </c>
@@ -3997,7 +4003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="13.5" customHeight="1">
+    <row r="3" spans="1:32" ht="13.5" customHeight="1">
       <c r="A3" t="s">
         <v>150</v>
       </c>
@@ -4005,7 +4011,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:31" ht="13.5" customHeight="1">
+    <row r="4" spans="1:32" ht="13.5" customHeight="1">
       <c r="A4" t="s">
         <v>151</v>
       </c>
@@ -4013,7 +4019,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:31">
+    <row r="5" spans="1:32">
       <c r="A5" t="s">
         <v>161</v>
       </c>
@@ -4021,7 +4027,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="6" spans="1:31">
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
         <v>163</v>
       </c>
@@ -4029,7 +4035,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="7" spans="1:31">
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
         <v>164</v>
       </c>
@@ -4038,7 +4044,7 @@
       </c>
       <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:31">
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
         <v>155</v>
       </c>
@@ -4048,7 +4054,7 @@
       <c r="J8" s="3"/>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:31">
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
         <v>156</v>
       </c>
@@ -4058,7 +4064,7 @@
       <c r="J9" s="3"/>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:31">
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
         <v>157</v>
       </c>
@@ -4066,7 +4072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:31">
+    <row r="11" spans="1:32">
       <c r="A11" t="s">
         <v>158</v>
       </c>
@@ -4074,7 +4080,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:31">
+    <row r="12" spans="1:32">
       <c r="A12" t="s">
         <v>159</v>
       </c>
@@ -4082,7 +4088,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:31">
+    <row r="13" spans="1:32">
       <c r="A13" s="10" t="s">
         <v>160</v>
       </c>
@@ -4090,7 +4096,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:31">
+    <row r="14" spans="1:32">
       <c r="A14" t="s">
         <v>184</v>
       </c>
@@ -4098,7 +4104,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:31">
+    <row r="15" spans="1:32">
       <c r="A15" t="s">
         <v>383</v>
       </c>
@@ -4106,7 +4112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:31">
+    <row r="16" spans="1:32">
       <c r="A16" t="s">
         <v>376</v>
       </c>
@@ -4114,7 +4120,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="29">
+    <row r="17" spans="1:32" ht="29">
       <c r="A17" t="s">
         <v>384</v>
       </c>
@@ -4122,7 +4128,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:31">
+    <row r="18" spans="1:32">
       <c r="A18" t="s">
         <v>21</v>
       </c>
@@ -4130,7 +4136,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:31">
+    <row r="19" spans="1:32">
       <c r="A19" t="s">
         <v>385</v>
       </c>
@@ -4138,7 +4144,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="20" spans="1:31">
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
         <v>180</v>
       </c>
@@ -4146,7 +4152,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:31">
+    <row r="21" spans="1:32">
       <c r="A21" t="s">
         <v>353</v>
       </c>
@@ -4154,7 +4160,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="22" spans="1:31">
+    <row r="22" spans="1:32">
       <c r="A22" t="s">
         <v>362</v>
       </c>
@@ -4162,7 +4168,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:31">
+    <row r="23" spans="1:32">
       <c r="A23" t="s">
         <v>355</v>
       </c>
@@ -4170,7 +4176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:31">
+    <row r="24" spans="1:32">
       <c r="A24" s="28" t="s">
         <v>364</v>
       </c>
@@ -4178,7 +4184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:31">
+    <row r="25" spans="1:32">
       <c r="A25" t="s">
         <v>368</v>
       </c>
@@ -4186,7 +4192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:31">
+    <row r="26" spans="1:32">
       <c r="A26" t="s">
         <v>184</v>
       </c>
@@ -4194,7 +4200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:31">
+    <row r="27" spans="1:32">
       <c r="A27" t="s">
         <v>386</v>
       </c>
@@ -4202,7 +4208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:31">
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
         <v>188</v>
       </c>
@@ -4210,7 +4216,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="29" spans="1:31">
+    <row r="29" spans="1:32">
       <c r="A29" t="s">
         <v>189</v>
       </c>
@@ -4218,7 +4224,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="30" spans="1:31">
+    <row r="30" spans="1:32">
       <c r="A30" t="s">
         <v>190</v>
       </c>
@@ -4226,12 +4232,20 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:31">
+    <row r="31" spans="1:32">
       <c r="A31" s="21" t="s">
         <v>392</v>
       </c>
       <c r="AE31" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
+      <c r="A32" t="s">
+        <v>430</v>
+      </c>
+      <c r="AF32" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -4486,7 +4500,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246945EE-2FD4-4748-ABAD-B8C4C50658FF}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -4809,8 +4823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD52EC0-EC45-494E-8D1E-2CD04920CEE5}">
   <dimension ref="A1:AJ38"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="Z36" sqref="A36:XFD36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6408,8 +6422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAFA6AD-6022-40EA-988B-6F5370EE5D4C}">
   <dimension ref="A1:AP41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>

--- a/config/uat/ccp/nclccp.xlsx
+++ b/config/uat/ccp/nclccp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Finalgithub\ccpautomationFinal\ccpautomationFinal\config\uat\ccp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olrodriguez\Downloads\ccpautomationsignoff\config\uat\ccp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E89BF0A4-5C7F-4AE3-80C3-BEC28F7E3D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D31858-1384-486E-BA47-A9994E87457F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="918" firstSheet="11" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="918" firstSheet="11" activeTab="16" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomePage" sheetId="3" r:id="rId1"/>
@@ -48,8 +48,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -57,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="432">
   <si>
     <t>DATA_ID</t>
   </si>
@@ -548,9 +546,6 @@
     <t>Enterdata</t>
   </si>
   <si>
-    <t>Notesfields</t>
-  </si>
-  <si>
     <t>DesiredNextStatus</t>
   </si>
   <si>
@@ -1230,9 +1225,6 @@
   </si>
   <si>
     <t>Amendsearchvalue</t>
-  </si>
-  <si>
-    <t>FILE_UPLOAD|D:\Finalgithub\ccpautomationFinal\ccpautomationFinal\files\File1.pdf</t>
   </si>
   <si>
     <t>sendtocustoms</t>
@@ -1302,9 +1294,6 @@
     <t>offloadsvalue</t>
   </si>
   <si>
-    <t>000-151-000000002</t>
-  </si>
-  <si>
     <t>404-114-000000021</t>
   </si>
   <si>
@@ -1329,12 +1318,6 @@
     <t>Text R Notes</t>
   </si>
   <si>
-    <t>411-107-000000297</t>
-  </si>
-  <si>
-    <t>403-126-000000060</t>
-  </si>
-  <si>
     <t>NCL_Gem_AUA_Jun 17 2021</t>
   </si>
   <si>
@@ -1350,7 +1333,25 @@
     <t>411-104-000000065</t>
   </si>
   <si>
+    <t>FILE_UPLOAD|C:\Users\olrodriguez\OneDrive - NCLH\Documents\Test\Test.pdf</t>
+  </si>
+  <si>
+    <t>FILE_UPLOAD|C:\Users\olrodriguez\OneDrive - NCLH\Documents\Test\Test.txt</t>
+  </si>
+  <si>
+    <t>411-104-000000050</t>
+  </si>
+  <si>
+    <t>411-107-000000257</t>
+  </si>
+  <si>
+    <t>TestRR</t>
+  </si>
+  <si>
     <t>Finalrejection</t>
+  </si>
+  <si>
+    <t>418-107-000000117</t>
   </si>
 </sst>
 </file>
@@ -1923,14 +1924,14 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1">
@@ -2003,10 +2004,10 @@
         <v>40</v>
       </c>
       <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6" t="s">
         <v>213</v>
-      </c>
-      <c r="C6" t="s">
-        <v>214</v>
       </c>
       <c r="D6" t="s">
         <v>2</v>
@@ -2014,13 +2015,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C7" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D7" t="s">
         <v>2</v>
@@ -2031,13 +2032,13 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" t="s">
         <v>245</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>246</v>
-      </c>
-      <c r="C8" t="s">
-        <v>247</v>
       </c>
       <c r="D8" t="s">
         <v>2</v>
@@ -2045,13 +2046,13 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D9" t="s">
         <v>2</v>
@@ -2071,15 +2072,15 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="2" max="2" width="36.81640625" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" customWidth="1"/>
-    <col min="4" max="4" width="22.453125" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" customWidth="1"/>
-    <col min="7" max="7" width="24.81640625" customWidth="1"/>
+    <col min="1" max="1" width="26.140625" customWidth="1"/>
+    <col min="2" max="2" width="36.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="22.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="7" max="7" width="24.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2087,19 +2088,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>150</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>101</v>
@@ -2107,7 +2108,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2116,7 +2117,7 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2124,10 +2125,10 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -2140,7 +2141,7 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -2164,16 +2165,16 @@
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.81640625" customWidth="1"/>
-    <col min="2" max="2" width="21.7265625" customWidth="1"/>
-    <col min="3" max="3" width="20.54296875" customWidth="1"/>
-    <col min="4" max="4" width="17.54296875" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" customWidth="1"/>
-    <col min="6" max="6" width="19.81640625" customWidth="1"/>
-    <col min="7" max="7" width="25.26953125" customWidth="1"/>
-    <col min="8" max="8" width="14.1796875" customWidth="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="17.5703125" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="25.28515625" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2181,22 +2182,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>150</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H1" s="9" t="s">
         <v>101</v>
@@ -2204,7 +2205,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -2213,7 +2214,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -2221,10 +2222,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2237,7 +2238,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -2245,7 +2246,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="10" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -2265,24 +2266,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B447BFF-DFD0-420A-9B95-A22889489E98}">
   <dimension ref="A1:BU56"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="AT30" sqref="A30:XFD30"/>
+    <sheetView topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BG1" sqref="BG1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="23.26953125" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="20.453125" customWidth="1"/>
-    <col min="35" max="35" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="20.42578125" customWidth="1"/>
+    <col min="35" max="35" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:73" s="2" customFormat="1">
@@ -2314,13 +2315,13 @@
         <v>90</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="M1" s="2" t="s">
         <v>91</v>
@@ -2440,67 +2441,67 @@
         <v>129</v>
       </c>
       <c r="AZ1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="BA1" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="BB1" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="BB1" s="2" t="s">
+      <c r="BC1" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="BC1" s="2" t="s">
+      <c r="BD1" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="BD1" s="2" t="s">
+      <c r="BE1" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="BE1" s="2" t="s">
+      <c r="BF1" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="BF1" s="2" t="s">
+      <c r="BG1" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="BG1" s="2" t="s">
+      <c r="BH1" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="BH1" s="2" t="s">
+      <c r="BI1" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="BI1" s="2" t="s">
+      <c r="BJ1" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="BJ1" s="2" t="s">
+      <c r="BK1" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="BK1" s="2" t="s">
+      <c r="BL1" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="BL1" s="2" t="s">
+      <c r="BM1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="BN1" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="BO1" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="BM1" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="BN1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="BQ1" s="2" t="s">
+      <c r="BR1" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="BR1" s="2" t="s">
+      <c r="BS1" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="BS1" s="2" t="s">
+      <c r="BT1" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="BT1" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="BU1" s="2" t="s">
         <v>21</v>
@@ -2514,7 +2515,7 @@
         <v>2</v>
       </c>
       <c r="BM2" s="21" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:73">
@@ -2554,15 +2555,15 @@
         <v>70</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:73">
       <c r="A8" t="s">
+        <v>305</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:73">
@@ -2583,16 +2584,16 @@
     </row>
     <row r="11" spans="1:73">
       <c r="A11" t="s">
+        <v>307</v>
+      </c>
+      <c r="I11" t="s">
         <v>308</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>311</v>
       </c>
       <c r="L11" t="s">
         <v>132</v>
@@ -2603,12 +2604,12 @@
         <v>73</v>
       </c>
       <c r="M12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="13" spans="1:73">
       <c r="A13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="14" spans="1:73">
@@ -2653,7 +2654,7 @@
     </row>
     <row r="16" spans="1:73">
       <c r="A16" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="O16" t="s">
         <v>132</v>
@@ -2671,13 +2672,13 @@
         <v>2</v>
       </c>
       <c r="T16" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="U16" t="s">
         <v>27</v>
       </c>
       <c r="V16" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="W16" t="s">
         <v>2</v>
@@ -2755,7 +2756,7 @@
     </row>
     <row r="22" spans="1:65">
       <c r="A22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AJ22" t="s">
         <v>2</v>
@@ -2789,7 +2790,7 @@
     </row>
     <row r="24" spans="1:65">
       <c r="A24" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AL24" t="s">
         <v>2</v>
@@ -2813,7 +2814,7 @@
         <v>2</v>
       </c>
       <c r="AS25" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:65">
@@ -2843,7 +2844,7 @@
         <v>27</v>
       </c>
       <c r="AX28" t="s">
-        <v>318</v>
+        <v>425</v>
       </c>
     </row>
     <row r="29" spans="1:65">
@@ -2851,47 +2852,47 @@
         <v>85</v>
       </c>
       <c r="AY29" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:65">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AZ30" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="31" spans="1:65">
       <c r="A31" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BA31" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="32" spans="1:65">
       <c r="A32" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BA32" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="33" spans="1:66">
       <c r="A33" t="s">
+        <v>321</v>
+      </c>
+      <c r="AZ33" t="s">
+        <v>318</v>
+      </c>
+      <c r="BA33" t="s">
         <v>322</v>
-      </c>
-      <c r="AZ33" t="s">
-        <v>319</v>
-      </c>
-      <c r="BA33" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="34" spans="1:66">
       <c r="A34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="BB34" t="s">
         <v>2</v>
@@ -2899,7 +2900,7 @@
     </row>
     <row r="35" spans="1:66">
       <c r="A35" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="BC35" t="s">
         <v>2</v>
@@ -2907,24 +2908,24 @@
     </row>
     <row r="36" spans="1:66">
       <c r="A36" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="BE36" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="37" spans="1:66">
       <c r="A37" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="BF37" t="s">
         <v>2</v>
       </c>
       <c r="BG37" t="s">
+        <v>324</v>
+      </c>
+      <c r="BH37" t="s">
         <v>325</v>
-      </c>
-      <c r="BH37" t="s">
-        <v>326</v>
       </c>
       <c r="BI37" t="s">
         <v>2</v>
@@ -2932,97 +2933,97 @@
     </row>
     <row r="38" spans="1:66">
       <c r="A38" t="s">
+        <v>326</v>
+      </c>
+      <c r="BD38" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE38" t="s">
         <v>327</v>
-      </c>
-      <c r="BD38" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE38" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="39" spans="1:66">
       <c r="A39" t="s">
+        <v>328</v>
+      </c>
+      <c r="BD39" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE39" t="s">
         <v>329</v>
-      </c>
-      <c r="BD39" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE39" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="40" spans="1:66">
       <c r="A40" t="s">
+        <v>330</v>
+      </c>
+      <c r="BD40" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE40" t="s">
         <v>331</v>
-      </c>
-      <c r="BD40" t="s">
-        <v>2</v>
-      </c>
-      <c r="BE40" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="41" spans="1:66">
       <c r="A41" t="s">
+        <v>332</v>
+      </c>
+      <c r="BD41" t="s">
+        <v>239</v>
+      </c>
+      <c r="BE41" t="s">
         <v>333</v>
-      </c>
-      <c r="BD41" t="s">
-        <v>240</v>
-      </c>
-      <c r="BE41" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="42" spans="1:66">
       <c r="A42" t="s">
+        <v>334</v>
+      </c>
+      <c r="BE42" t="s">
         <v>335</v>
-      </c>
-      <c r="BE42" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="43" spans="1:66">
       <c r="A43" t="s">
+        <v>336</v>
+      </c>
+      <c r="BD43" t="s">
+        <v>239</v>
+      </c>
+      <c r="BE43" t="s">
         <v>337</v>
-      </c>
-      <c r="BD43" t="s">
-        <v>240</v>
-      </c>
-      <c r="BE43" t="s">
-        <v>338</v>
       </c>
     </row>
     <row r="44" spans="1:66">
       <c r="A44" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AZ44" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="1:66">
       <c r="A45" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="BJ45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BK45" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46" spans="1:66">
       <c r="A46" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BL46" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:66">
       <c r="A47" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BM47" t="s">
         <v>2</v>
@@ -3030,7 +3031,7 @@
     </row>
     <row r="48" spans="1:66">
       <c r="A48" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BN48" t="s">
         <v>2</v>
@@ -3038,7 +3039,7 @@
     </row>
     <row r="49" spans="1:73">
       <c r="A49" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="BO49" t="s">
         <v>2</v>
@@ -3046,76 +3047,76 @@
     </row>
     <row r="50" spans="1:73">
       <c r="A50" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="BA50" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="BD50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:73">
       <c r="A51" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="BA51" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="BD51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:73">
       <c r="A52" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="BP52" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:73">
       <c r="A53" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BQ53" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="54" spans="1:73">
       <c r="A54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="Y54" t="s">
         <v>2</v>
       </c>
       <c r="BR54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="1:73">
       <c r="A55" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BS55" t="s">
         <v>2</v>
       </c>
       <c r="BT55" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="BU55" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:73">
       <c r="A56" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="BG56" t="s">
+        <v>324</v>
+      </c>
+      <c r="BH56" t="s">
         <v>325</v>
-      </c>
-      <c r="BH56" t="s">
-        <v>326</v>
       </c>
       <c r="BI56" t="s">
         <v>2</v>
@@ -3136,26 +3137,26 @@
       <selection pane="bottomLeft" activeCell="BR2" sqref="BR2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="29.7265625" customWidth="1"/>
-    <col min="15" max="15" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="45.1796875" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="29.7109375" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="45.140625" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" s="2" customFormat="1">
@@ -3166,7 +3167,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>20</v>
@@ -3190,7 +3191,7 @@
         <v>22</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>86</v>
@@ -3199,10 +3200,10 @@
         <v>87</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>73</v>
@@ -3322,52 +3323,52 @@
         <v>129</v>
       </c>
       <c r="BC1" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="BD1" s="2" t="s">
         <v>67</v>
       </c>
       <c r="BE1" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="BF1" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BG1" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="BH1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="BI1" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="BJ1" s="9" t="s">
         <v>377</v>
       </c>
-      <c r="BH1" s="2" t="s">
-        <v>364</v>
-      </c>
-      <c r="BI1" s="2" t="s">
-        <v>366</v>
-      </c>
-      <c r="BJ1" s="9" t="s">
+      <c r="BK1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="BL1" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="BM1" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="BK1" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="BL1" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="BM1" s="2" t="s">
+      <c r="BN1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="BO1" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="BN1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="BO1" s="2" t="s">
+      <c r="BP1" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="BP1" s="2" t="s">
+      <c r="BQ1" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="BQ1" s="2" t="s">
-        <v>382</v>
-      </c>
       <c r="BR1" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BS1" s="2" t="s">
         <v>29</v>
@@ -3383,13 +3384,13 @@
     </row>
     <row r="3" spans="1:71">
       <c r="A3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:71">
+    <row r="4" spans="1:71" ht="30">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>70</v>
       </c>
       <c r="N15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="BE15" s="5" t="s">
         <v>144</v>
@@ -3506,7 +3507,7 @@
     </row>
     <row r="16" spans="1:71">
       <c r="A16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="BF16" t="s">
         <v>27</v>
@@ -3514,10 +3515,10 @@
     </row>
     <row r="17" spans="1:55">
       <c r="A17" t="s">
+        <v>237</v>
+      </c>
+      <c r="O17" t="s">
         <v>238</v>
-      </c>
-      <c r="O17" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:55">
@@ -3649,7 +3650,7 @@
         <v>12343212</v>
       </c>
       <c r="AR26" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="AS26">
         <v>1</v>
@@ -3693,10 +3694,10 @@
         <v>84</v>
       </c>
       <c r="AZ30" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="BA30" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:55">
@@ -3725,7 +3726,7 @@
     </row>
     <row r="34" spans="1:69">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="BE34" t="s">
         <v>144</v>
@@ -3733,15 +3734,15 @@
     </row>
     <row r="35" spans="1:69">
       <c r="A35" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="N35" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:69">
       <c r="A36" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AM36" s="5"/>
       <c r="AO36" t="s">
@@ -3759,7 +3760,7 @@
     </row>
     <row r="37" spans="1:69">
       <c r="A37" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="AM37" s="5"/>
       <c r="AO37" s="6"/>
@@ -3777,7 +3778,7 @@
     </row>
     <row r="39" spans="1:69">
       <c r="A39" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="BI39" t="s">
         <v>2</v>
@@ -3785,7 +3786,7 @@
     </row>
     <row r="40" spans="1:69">
       <c r="A40" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="BJ40" t="s">
         <v>2</v>
@@ -3799,7 +3800,7 @@
     </row>
     <row r="42" spans="1:69">
       <c r="A42" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BL42" t="s">
         <v>2</v>
@@ -3807,7 +3808,7 @@
     </row>
     <row r="43" spans="1:69">
       <c r="A43" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="BM43" t="s">
         <v>2</v>
@@ -3815,12 +3816,12 @@
     </row>
     <row r="44" spans="1:69">
       <c r="A44" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45" spans="1:69">
       <c r="A45" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BN45" t="s">
         <v>2</v>
@@ -3828,7 +3829,7 @@
     </row>
     <row r="46" spans="1:69">
       <c r="A46" s="15" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="BO46" t="s">
         <v>2</v>
@@ -3836,7 +3837,7 @@
     </row>
     <row r="47" spans="1:69">
       <c r="A47" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="BP47" t="s">
         <v>2</v>
@@ -3844,7 +3845,7 @@
     </row>
     <row r="48" spans="1:69">
       <c r="A48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="BQ48" t="s">
         <v>2</v>
@@ -3852,7 +3853,7 @@
     </row>
     <row r="49" spans="1:71">
       <c r="A49" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="BR49" t="s">
         <v>142</v>
@@ -3860,7 +3861,7 @@
     </row>
     <row r="50" spans="1:71">
       <c r="A50" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="G50" t="s">
         <v>27</v>
@@ -3887,14 +3888,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70F6F92B-CE4D-4CE1-BDAA-9B5D90BAB133}">
   <dimension ref="A1:AF32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="Q17" sqref="Q17"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="41.90625" customWidth="1"/>
+    <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="2" customFormat="1">
@@ -3938,58 +3939,58 @@
         <v>160</v>
       </c>
       <c r="N1" s="9" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O1" s="9" t="s">
+        <v>382</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>383</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>376</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>384</v>
       </c>
       <c r="R1" s="29" t="s">
         <v>21</v>
       </c>
       <c r="S1" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="T1" s="29" t="s">
+        <v>179</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>361</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="X1" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="T1" s="29" t="s">
-        <v>180</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>353</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>362</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="X1" s="8" t="s">
-        <v>364</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>368</v>
-      </c>
-      <c r="Z1" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>386</v>
-      </c>
       <c r="AB1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="AC1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="AD1" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="AE1" s="2" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AF1" s="2" t="s">
         <v>430</v>
@@ -4024,23 +4025,23 @@
         <v>161</v>
       </c>
       <c r="E5" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="F6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7" spans="1:32">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G7" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="K7" s="3"/>
     </row>
@@ -4069,7 +4070,7 @@
         <v>157</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:32">
@@ -4098,7 +4099,7 @@
     </row>
     <row r="14" spans="1:32">
       <c r="A14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>2</v>
@@ -4106,7 +4107,7 @@
     </row>
     <row r="15" spans="1:32">
       <c r="A15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="O15" s="3" t="s">
         <v>2</v>
@@ -4114,18 +4115,18 @@
     </row>
     <row r="16" spans="1:32">
       <c r="A16" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="P16" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="29">
+    <row r="17" spans="1:32" ht="30">
       <c r="A17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18" spans="1:32">
@@ -4138,15 +4139,15 @@
     </row>
     <row r="19" spans="1:32">
       <c r="A19" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="S19" t="s">
-        <v>391</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:32">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="T20" s="3" t="s">
         <v>2</v>
@@ -4154,15 +4155,15 @@
     </row>
     <row r="21" spans="1:32">
       <c r="A21" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="U21" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:32">
       <c r="A22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>2</v>
@@ -4170,7 +4171,7 @@
     </row>
     <row r="23" spans="1:32">
       <c r="A23" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="W23" s="3" t="s">
         <v>2</v>
@@ -4178,7 +4179,7 @@
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="X24" s="3" t="s">
         <v>2</v>
@@ -4186,7 +4187,7 @@
     </row>
     <row r="25" spans="1:32">
       <c r="A25" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="Y25" s="3" t="s">
         <v>2</v>
@@ -4194,7 +4195,7 @@
     </row>
     <row r="26" spans="1:32">
       <c r="A26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Z26" s="3" t="s">
         <v>2</v>
@@ -4202,7 +4203,7 @@
     </row>
     <row r="27" spans="1:32">
       <c r="A27" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="AA27" s="3" t="s">
         <v>2</v>
@@ -4210,23 +4211,23 @@
     </row>
     <row r="28" spans="1:32">
       <c r="A28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="AB28" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="29" spans="1:32">
       <c r="A29" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AC29" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="30" spans="1:32">
       <c r="A30" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD30" s="3" t="s">
         <v>2</v>
@@ -4234,7 +4235,7 @@
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="21" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="AE31" t="s">
         <v>27</v>
@@ -4245,7 +4246,7 @@
         <v>430</v>
       </c>
       <c r="AF32" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4265,16 +4266,16 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.1796875" customWidth="1"/>
-    <col min="2" max="2" width="35.81640625" customWidth="1"/>
-    <col min="3" max="3" width="39.54296875" customWidth="1"/>
-    <col min="4" max="4" width="31.26953125" customWidth="1"/>
-    <col min="5" max="5" width="37.453125" customWidth="1"/>
-    <col min="6" max="6" width="46.453125" customWidth="1"/>
-    <col min="7" max="7" width="53.54296875" customWidth="1"/>
-    <col min="8" max="8" width="41.81640625" customWidth="1"/>
+    <col min="1" max="1" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="35.85546875" customWidth="1"/>
+    <col min="3" max="3" width="39.5703125" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="37.42578125" customWidth="1"/>
+    <col min="6" max="6" width="46.42578125" customWidth="1"/>
+    <col min="7" max="7" width="53.5703125" customWidth="1"/>
+    <col min="8" max="8" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -4282,37 +4283,37 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="14" t="s">
         <v>199</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="F1" s="14" t="s">
         <v>200</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="H1" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>188</v>
+      </c>
+      <c r="J1" s="17" t="s">
         <v>202</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="I1" s="17" t="s">
-        <v>189</v>
-      </c>
-      <c r="J1" s="17" t="s">
-        <v>203</v>
       </c>
       <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -4321,7 +4322,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -4329,15 +4330,15 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
@@ -4345,7 +4346,7 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="10" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -4353,7 +4354,7 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="10" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -4361,17 +4362,17 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -4387,17 +4388,17 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.54296875" customWidth="1"/>
+    <col min="1" max="1" width="25.5703125" customWidth="1"/>
     <col min="2" max="2" width="36" customWidth="1"/>
-    <col min="3" max="3" width="27.453125" customWidth="1"/>
-    <col min="4" max="4" width="20.54296875" customWidth="1"/>
-    <col min="5" max="5" width="28.453125" customWidth="1"/>
-    <col min="6" max="6" width="27.26953125" customWidth="1"/>
-    <col min="7" max="7" width="25.81640625" customWidth="1"/>
-    <col min="8" max="8" width="30.1796875" customWidth="1"/>
-    <col min="9" max="9" width="30.453125" customWidth="1"/>
+    <col min="3" max="3" width="27.42578125" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1"/>
+    <col min="7" max="7" width="25.85546875" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="30.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -4405,25 +4406,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>180</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E1" s="14" t="s">
         <v>150</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>157</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="I1" s="15" t="s">
         <v>101</v>
@@ -4431,7 +4432,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -4440,7 +4441,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -4448,10 +4449,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4464,7 +4465,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>2</v>
@@ -4500,25 +4501,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{246945EE-2FD4-4748-ABAD-B8C4C50658FF}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.54296875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="2" customFormat="1">
@@ -4565,7 +4566,7 @@
         <v>66</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>35</v>
@@ -4584,7 +4585,7 @@
         <v>45</v>
       </c>
       <c r="C3" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D3" t="s">
         <v>2</v>
@@ -4608,7 +4609,7 @@
     </row>
     <row r="6" spans="1:16">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -4643,10 +4644,10 @@
     </row>
     <row r="10" spans="1:16">
       <c r="A10" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C10" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D10" t="s">
         <v>2</v>
@@ -4654,10 +4655,10 @@
     </row>
     <row r="11" spans="1:16">
       <c r="A11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C11" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -4665,10 +4666,10 @@
     </row>
     <row r="12" spans="1:16">
       <c r="A12" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C12" t="s">
-        <v>414</v>
+        <v>427</v>
       </c>
       <c r="D12" t="s">
         <v>2</v>
@@ -4676,10 +4677,10 @@
     </row>
     <row r="13" spans="1:16">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C13" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D13" t="s">
         <v>2</v>
@@ -4687,7 +4688,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="A14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="O14">
         <v>12341234</v>
@@ -4695,10 +4696,10 @@
     </row>
     <row r="15" spans="1:16">
       <c r="A15" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C15" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="D15" t="s">
         <v>2</v>
@@ -4706,10 +4707,10 @@
     </row>
     <row r="16" spans="1:16">
       <c r="A16" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C16" t="s">
-        <v>424</v>
+        <v>431</v>
       </c>
       <c r="D16" t="s">
         <v>2</v>
@@ -4717,10 +4718,10 @@
     </row>
     <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C17" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D17" t="s">
         <v>2</v>
@@ -4728,10 +4729,10 @@
     </row>
     <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C18" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D18" t="s">
         <v>2</v>
@@ -4739,7 +4740,7 @@
     </row>
     <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="C19" t="s">
         <v>44</v>
@@ -4750,10 +4751,10 @@
     </row>
     <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C20" t="s">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="D20" t="s">
         <v>2</v>
@@ -4780,7 +4781,7 @@
         <v>31</v>
       </c>
       <c r="C23" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D23" t="s">
         <v>2</v>
@@ -4821,115 +4822,115 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AD52EC0-EC45-494E-8D1E-2CD04920CEE5}">
-  <dimension ref="A1:AJ38"/>
+  <dimension ref="A1:AK38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A38" sqref="A38"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="AD30" sqref="AD30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.1796875" customWidth="1"/>
-    <col min="2" max="2" width="22.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.81640625" customWidth="1"/>
-    <col min="4" max="4" width="22.1796875" customWidth="1"/>
-    <col min="5" max="5" width="21.54296875" customWidth="1"/>
-    <col min="6" max="7" width="22.1796875" customWidth="1"/>
-    <col min="9" max="9" width="24.26953125" customWidth="1"/>
+    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" customWidth="1"/>
+    <col min="5" max="5" width="21.5703125" customWidth="1"/>
+    <col min="6" max="7" width="22.140625" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:37">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>156</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>169</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="L1" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M1" s="2"/>
       <c r="N1" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O1" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>358</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>359</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>150</v>
       </c>
       <c r="S1" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="T1" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="T1" s="8" t="s">
+      <c r="U1" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="V1" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="U1" s="2" t="s">
-        <v>355</v>
-      </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="29" t="s">
         <v>362</v>
-      </c>
-      <c r="W1" s="29" t="s">
-        <v>363</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>10</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="Z1" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="Z1" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>370</v>
       </c>
       <c r="AG1" s="10" t="s">
         <v>151</v>
@@ -4941,42 +4942,45 @@
         <v>153</v>
       </c>
       <c r="AJ1" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:37">
+      <c r="A2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="2" spans="1:36">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
+      <c r="A3" t="s">
         <v>165</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
-      <c r="A3" t="s">
-        <v>166</v>
       </c>
       <c r="C3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:36">
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
         <v>153</v>
       </c>
       <c r="D4" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" ht="15" thickBot="1">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37" ht="15.75" thickBot="1">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="15" thickBot="1">
+    <row r="6" spans="1:37" ht="15.75" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>156</v>
       </c>
@@ -4985,99 +4989,99 @@
       </c>
       <c r="G6" s="12"/>
     </row>
-    <row r="7" spans="1:36">
+    <row r="7" spans="1:37">
       <c r="A7" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
     </row>
-    <row r="8" spans="1:36">
+    <row r="8" spans="1:37">
       <c r="A8" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:36">
+    <row r="9" spans="1:37">
       <c r="A9" s="10" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="I9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:36">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:37">
       <c r="A10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F10" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:37">
+      <c r="A11" s="10" t="s">
         <v>217</v>
-      </c>
-      <c r="F10" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36">
-      <c r="A11" s="10" t="s">
-        <v>218</v>
       </c>
       <c r="J11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:36">
+    <row r="12" spans="1:37">
       <c r="A12" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K12" s="12" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:36">
+    <row r="13" spans="1:37">
       <c r="A13" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="L13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:36">
+    <row r="14" spans="1:37">
       <c r="A14" s="10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37">
       <c r="A15" s="10" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="N15" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
+    <row r="16" spans="1:37">
       <c r="A16" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="O16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="17" spans="1:31">
+      <c r="A17" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="O16" t="s">
+      <c r="P17" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="18" spans="1:31">
+      <c r="A18" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q18" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="1:30">
-      <c r="A17" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="P17" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="18" spans="1:30">
-      <c r="A18" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" ht="15" thickBot="1">
+    <row r="19" spans="1:31" ht="15.75" thickBot="1">
       <c r="A19" s="10" t="s">
         <v>150</v>
       </c>
@@ -5085,48 +5089,48 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:30" ht="15" thickBot="1">
+    <row r="20" spans="1:31" ht="15.75" thickBot="1">
       <c r="A20" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="S20" s="30" t="s">
+        <v>372</v>
+      </c>
+      <c r="T20" s="31"/>
+    </row>
+    <row r="21" spans="1:31">
+      <c r="A21" s="10" t="s">
         <v>360</v>
       </c>
-      <c r="S20" s="30" t="s">
+      <c r="T21" t="s">
         <v>373</v>
       </c>
-      <c r="T20" s="31"/>
-    </row>
-    <row r="21" spans="1:30">
-      <c r="A21" s="10" t="s">
+    </row>
+    <row r="22" spans="1:31">
+      <c r="A22" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="U22" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:31" ht="15.75" thickBot="1">
+      <c r="A23" s="10" t="s">
         <v>361</v>
       </c>
-      <c r="T21" t="s">
+      <c r="V23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:31" ht="15.75" thickBot="1">
+      <c r="A24" s="28" t="s">
+        <v>362</v>
+      </c>
+      <c r="W24" s="32" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="22" spans="1:30">
-      <c r="A22" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="U22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" ht="15" thickBot="1">
-      <c r="A23" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="V23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:30" ht="15" thickBot="1">
-      <c r="A24" s="28" t="s">
-        <v>363</v>
-      </c>
-      <c r="W24" s="32" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30">
+    <row r="25" spans="1:31">
       <c r="A25" s="28" t="s">
         <v>10</v>
       </c>
@@ -5134,81 +5138,81 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:30">
+    <row r="26" spans="1:31">
       <c r="A26" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:31">
+      <c r="A27" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:31">
+      <c r="A28" s="10" t="s">
         <v>364</v>
       </c>
-      <c r="Y26" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30">
-      <c r="A27" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="Z27" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:30">
-      <c r="A28" s="10" t="s">
+      <c r="AA28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31">
+      <c r="A29" s="10" t="s">
         <v>365</v>
       </c>
-      <c r="AA28" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30">
-      <c r="A29" s="10" t="s">
+      <c r="AB29" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:31">
+      <c r="A30" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="AB29" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:30">
-      <c r="A30" s="10" t="s">
+      <c r="AC30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:31">
+      <c r="A31" s="10" t="s">
         <v>367</v>
       </c>
-      <c r="AC30" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30">
-      <c r="A31" s="10" t="s">
+      <c r="AD31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:31" ht="15.75">
+      <c r="A32" s="10" t="s">
         <v>368</v>
-      </c>
-      <c r="AD31" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30">
-      <c r="A32" s="10" t="s">
-        <v>369</v>
       </c>
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
-    </row>
-    <row r="33" spans="1:36" ht="15">
+      <c r="AE32" s="33" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:37">
       <c r="A33" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="AE33" s="33" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36">
+        <v>369</v>
+      </c>
+      <c r="AF33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:37">
       <c r="A34" t="s">
         <v>62</v>
       </c>
-      <c r="C34" t="s">
-        <v>64</v>
-      </c>
-      <c r="AF34" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:36">
+      <c r="AK34" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="35" spans="1:37">
       <c r="A35" s="10" t="s">
         <v>151</v>
       </c>
@@ -5216,25 +5220,25 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:37">
       <c r="A36" s="10" t="s">
         <v>161</v>
       </c>
       <c r="AH36" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="37" spans="1:36">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37">
       <c r="A37" s="10" t="s">
         <v>153</v>
       </c>
       <c r="AI37" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="38" spans="1:37">
       <c r="A38" s="10" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AJ38" t="s">
         <v>2</v>
@@ -5257,19 +5261,19 @@
       <selection activeCell="AU24" sqref="AU24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="18.7265625" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultColWidth="18.7109375" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.453125" customWidth="1"/>
-    <col min="2" max="2" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="23.26953125" customWidth="1"/>
-    <col min="9" max="9" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="20.7265625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="35.7265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="25.85546875" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="35.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" s="2" customFormat="1">
@@ -5677,7 +5681,7 @@
         <v>2</v>
       </c>
       <c r="AU23" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="24" spans="1:48">
@@ -5697,24 +5701,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" s="2" customFormat="1">
@@ -5728,70 +5732,70 @@
         <v>46</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>178</v>
-      </c>
       <c r="K1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>182</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="Q1" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="R1" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="S1" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="T1" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>351</v>
-      </c>
       <c r="U1" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="Y1" s="2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="2" spans="1:25">
@@ -5812,7 +5816,7 @@
     </row>
     <row r="4" spans="1:25">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -5820,7 +5824,7 @@
     </row>
     <row r="5" spans="1:25">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -5828,7 +5832,7 @@
     </row>
     <row r="6" spans="1:25">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -5836,7 +5840,7 @@
     </row>
     <row r="7" spans="1:25">
       <c r="A7" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -5844,7 +5848,7 @@
     </row>
     <row r="8" spans="1:25">
       <c r="A8" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -5852,7 +5856,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="I9" t="s">
         <v>2</v>
@@ -5860,29 +5864,29 @@
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J10" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L12" s="13"/>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="M13" t="s">
         <v>2</v>
@@ -5890,7 +5894,7 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="N14" t="s">
         <v>27</v>
@@ -5898,7 +5902,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="O15" t="s">
         <v>2</v>
@@ -5906,7 +5910,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="P16" t="s">
         <v>2</v>
@@ -5914,7 +5918,7 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="Q17" t="s">
         <v>2</v>
@@ -5922,7 +5926,7 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="R18" t="s">
         <v>2</v>
@@ -5930,7 +5934,7 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="S19" t="s">
         <v>2</v>
@@ -5938,7 +5942,7 @@
     </row>
     <row r="20" spans="1:25">
       <c r="A20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="T20" t="s">
         <v>27</v>
@@ -5946,7 +5950,7 @@
     </row>
     <row r="21" spans="1:25">
       <c r="A21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="U21" t="s">
         <v>27</v>
@@ -5954,7 +5958,7 @@
     </row>
     <row r="22" spans="1:25">
       <c r="A22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="V22" t="s">
         <v>2</v>
@@ -5962,23 +5966,23 @@
     </row>
     <row r="23" spans="1:25">
       <c r="A23" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="W23" s="4" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24" spans="1:25">
       <c r="A24" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="X24" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Y25" t="s">
         <v>2</v>
@@ -6001,10 +6005,10 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.6328125" customWidth="1"/>
-    <col min="2" max="2" width="26.7265625" customWidth="1"/>
+    <col min="1" max="1" width="17.5703125" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6012,13 +6016,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -6037,10 +6041,10 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" customWidth="1"/>
-    <col min="2" max="2" width="24.7265625" customWidth="1"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1"/>
+    <col min="2" max="2" width="24.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6079,38 +6083,38 @@
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" customWidth="1"/>
-    <col min="2" max="2" width="30.54296875" customWidth="1"/>
-    <col min="3" max="3" width="23.7265625" customWidth="1"/>
-    <col min="4" max="4" width="28.81640625" customWidth="1"/>
-    <col min="5" max="5" width="22.1796875" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" customWidth="1"/>
-    <col min="7" max="7" width="34.1796875" customWidth="1"/>
-    <col min="8" max="8" width="32.1796875" customWidth="1"/>
-    <col min="9" max="9" width="12.81640625" customWidth="1"/>
-    <col min="10" max="10" width="14.54296875" customWidth="1"/>
-    <col min="11" max="12" width="12.81640625" customWidth="1"/>
-    <col min="13" max="13" width="13.7265625" customWidth="1"/>
-    <col min="14" max="15" width="12.81640625" customWidth="1"/>
-    <col min="17" max="17" width="11.7265625" customWidth="1"/>
-    <col min="18" max="18" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7265625" customWidth="1"/>
-    <col min="21" max="21" width="13.81640625" customWidth="1"/>
-    <col min="22" max="22" width="15.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" customWidth="1"/>
+    <col min="5" max="5" width="22.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="7" max="7" width="34.140625" customWidth="1"/>
+    <col min="8" max="8" width="32.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="12" width="12.85546875" customWidth="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1"/>
+    <col min="14" max="15" width="12.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11.7109375" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" customWidth="1"/>
+    <col min="22" max="22" width="15.140625" customWidth="1"/>
     <col min="23" max="23" width="14" customWidth="1"/>
-    <col min="24" max="24" width="14.54296875" customWidth="1"/>
-    <col min="25" max="25" width="10.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.26953125" customWidth="1"/>
-    <col min="28" max="28" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" customWidth="1"/>
+    <col min="25" max="25" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.28515625" customWidth="1"/>
+    <col min="28" max="28" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="13" customWidth="1"/>
-    <col min="30" max="31" width="16.1796875" customWidth="1"/>
-    <col min="33" max="33" width="10.54296875" customWidth="1"/>
-    <col min="34" max="34" width="14.26953125" customWidth="1"/>
-    <col min="35" max="35" width="18.54296875" customWidth="1"/>
-    <col min="36" max="36" width="20.7265625" customWidth="1"/>
+    <col min="30" max="31" width="16.140625" customWidth="1"/>
+    <col min="33" max="33" width="10.5703125" customWidth="1"/>
+    <col min="34" max="34" width="14.28515625" customWidth="1"/>
+    <col min="35" max="35" width="18.5703125" customWidth="1"/>
+    <col min="36" max="36" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" s="1" customFormat="1">
@@ -6118,30 +6122,30 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>166</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>153</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>156</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>168</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -6149,7 +6153,7 @@
     </row>
     <row r="3" spans="1:14" ht="26.25" customHeight="1">
       <c r="A3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C3" t="s">
         <v>162</v>
@@ -6163,35 +6167,35 @@
         <v>132</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="15" thickBot="1">
+    <row r="5" spans="1:14" ht="15.75" thickBot="1">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="15" thickBot="1">
+    <row r="6" spans="1:14" ht="15.75" thickBot="1">
       <c r="A6" s="10" t="s">
         <v>156</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="10" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F7" s="12"/>
       <c r="G7" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="10" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -6302,10 +6306,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.81640625" customWidth="1"/>
-    <col min="2" max="2" width="12.453125" customWidth="1"/>
+    <col min="1" max="1" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6313,13 +6317,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="23" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B2" s="24" t="s">
         <v>2</v>
@@ -6338,10 +6342,10 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.36328125" customWidth="1"/>
-    <col min="2" max="2" width="23.26953125" customWidth="1"/>
+    <col min="1" max="1" width="22.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -6349,13 +6353,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C1" s="16"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="26" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -6390,10 +6394,10 @@
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="37.453125" customWidth="1"/>
-    <col min="2" max="2" width="22.08984375" customWidth="1"/>
+    <col min="1" max="1" width="37.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -6401,13 +6405,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
@@ -6422,35 +6426,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0FAFA6AD-6022-40EA-988B-6F5370EE5D4C}">
   <dimension ref="A1:AP41"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
-    <col min="3" max="3" width="26.81640625" customWidth="1"/>
-    <col min="4" max="4" width="25.26953125" customWidth="1"/>
-    <col min="5" max="5" width="41.54296875" customWidth="1"/>
-    <col min="6" max="6" width="20.1796875" customWidth="1"/>
-    <col min="7" max="8" width="17.81640625" customWidth="1"/>
-    <col min="9" max="12" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="41.5703125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="8" width="17.85546875" customWidth="1"/>
+    <col min="9" max="12" width="16.7109375" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
-    <col min="14" max="14" width="31.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="31.1796875" customWidth="1"/>
-    <col min="17" max="17" width="18.1796875" customWidth="1"/>
-    <col min="18" max="18" width="21.54296875" customWidth="1"/>
-    <col min="19" max="19" width="17.81640625" customWidth="1"/>
-    <col min="20" max="20" width="11.54296875" customWidth="1"/>
-    <col min="21" max="21" width="20.1796875" customWidth="1"/>
-    <col min="22" max="23" width="16.81640625" customWidth="1"/>
-    <col min="24" max="24" width="11.7265625" customWidth="1"/>
-    <col min="25" max="25" width="36.54296875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.453125" customWidth="1"/>
-    <col min="28" max="28" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="35.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="31.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="31.140625" customWidth="1"/>
+    <col min="17" max="17" width="18.140625" customWidth="1"/>
+    <col min="18" max="18" width="21.5703125" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" customWidth="1"/>
+    <col min="20" max="20" width="11.5703125" customWidth="1"/>
+    <col min="21" max="21" width="20.140625" customWidth="1"/>
+    <col min="22" max="23" width="16.85546875" customWidth="1"/>
+    <col min="24" max="24" width="11.7109375" customWidth="1"/>
+    <col min="25" max="25" width="36.5703125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.42578125" customWidth="1"/>
+    <col min="28" max="28" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="35.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:42">
@@ -6458,97 +6462,97 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="N1" s="8" t="s">
+      <c r="O1" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="O1" s="8" t="s">
+      <c r="P1" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>105</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="S1" s="2" t="s">
         <v>58</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>157</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="X1" s="2" t="s">
-        <v>190</v>
-      </c>
       <c r="Y1" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="Z1" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="AA1" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="AB1" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AD1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="AE1" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="AF1" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="AG1" s="20"/>
       <c r="AH1" s="2"/>
@@ -6563,7 +6567,7 @@
     </row>
     <row r="2" spans="1:42">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
@@ -6571,7 +6575,7 @@
     </row>
     <row r="3" spans="1:42">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C3" t="s">
         <v>1</v>
@@ -6579,7 +6583,7 @@
     </row>
     <row r="4" spans="1:42">
       <c r="A4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -6587,7 +6591,7 @@
     </row>
     <row r="5" spans="1:42">
       <c r="A5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -6595,7 +6599,7 @@
     </row>
     <row r="6" spans="1:42">
       <c r="A6" s="10" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -6603,7 +6607,7 @@
     </row>
     <row r="7" spans="1:42">
       <c r="A7" s="10" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -6611,15 +6615,15 @@
     </row>
     <row r="8" spans="1:42">
       <c r="A8" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="H8" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:42">
       <c r="A9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I9" t="s">
         <v>2</v>
@@ -6627,7 +6631,7 @@
     </row>
     <row r="10" spans="1:42">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -6635,7 +6639,7 @@
     </row>
     <row r="11" spans="1:42">
       <c r="A11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K11" t="s">
         <v>2</v>
@@ -6643,23 +6647,23 @@
     </row>
     <row r="12" spans="1:42">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="L12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13" spans="1:42">
       <c r="A13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:42">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="N14" t="s">
         <v>2</v>
@@ -6667,7 +6671,7 @@
     </row>
     <row r="15" spans="1:42">
       <c r="A15" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="O15" t="s">
         <v>2</v>
@@ -6675,7 +6679,7 @@
     </row>
     <row r="16" spans="1:42">
       <c r="A16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="P16">
         <v>1</v>
@@ -6691,7 +6695,7 @@
     </row>
     <row r="18" spans="1:31">
       <c r="A18" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="R18" t="s">
         <v>2</v>
@@ -6707,7 +6711,7 @@
     </row>
     <row r="20" spans="1:31">
       <c r="A20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="T20" t="s">
         <v>2</v>
@@ -6723,23 +6727,23 @@
     </row>
     <row r="22" spans="1:31">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="V22" s="4" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="1:31">
       <c r="A23" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="W23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="24" spans="1:31">
       <c r="A24" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="X24" t="s">
         <v>2</v>
@@ -6747,23 +6751,23 @@
     </row>
     <row r="25" spans="1:31">
       <c r="A25" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Y25" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="26" spans="1:31">
       <c r="A26" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Z26" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="27" spans="1:31">
       <c r="A27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AA27" t="s">
         <v>2</v>
@@ -6771,23 +6775,23 @@
     </row>
     <row r="28" spans="1:31">
       <c r="A28" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AB28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="29" spans="1:31">
       <c r="A29" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y29" t="s">
         <v>211</v>
-      </c>
-      <c r="Y29" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="30" spans="1:31">
       <c r="A30" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AC30" s="13" t="str">
         <f>M13</f>
@@ -6796,7 +6800,7 @@
     </row>
     <row r="31" spans="1:31">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AD31" t="s">
         <v>27</v>
@@ -6804,7 +6808,7 @@
     </row>
     <row r="32" spans="1:31">
       <c r="A32" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="AE32" t="s">
         <v>27</v>
@@ -6812,7 +6816,7 @@
     </row>
     <row r="33" spans="1:42">
       <c r="A33" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF33" t="s">
         <v>1</v>
@@ -6825,7 +6829,7 @@
     </row>
     <row r="35" spans="1:42">
       <c r="AH35" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AI35" t="s">
         <v>2</v>
@@ -6849,7 +6853,7 @@
     </row>
     <row r="40" spans="1:42">
       <c r="AN40" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AO40" t="s">
         <v>2</v>
@@ -6878,26 +6882,26 @@
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -6905,52 +6909,52 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C1" t="s">
         <v>259</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>260</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>261</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>262</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>263</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>264</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>265</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
+        <v>278</v>
+      </c>
+      <c r="K1" t="s">
         <v>266</v>
       </c>
-      <c r="J1" t="s">
+      <c r="L1" t="s">
+        <v>267</v>
+      </c>
+      <c r="M1" t="s">
+        <v>268</v>
+      </c>
+      <c r="N1" t="s">
+        <v>269</v>
+      </c>
+      <c r="O1" t="s">
+        <v>270</v>
+      </c>
+      <c r="P1" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q1" t="s">
         <v>279</v>
-      </c>
-      <c r="K1" t="s">
-        <v>267</v>
-      </c>
-      <c r="L1" t="s">
-        <v>268</v>
-      </c>
-      <c r="M1" t="s">
-        <v>269</v>
-      </c>
-      <c r="N1" t="s">
-        <v>270</v>
-      </c>
-      <c r="O1" t="s">
-        <v>271</v>
-      </c>
-      <c r="P1" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>280</v>
       </c>
       <c r="R1" t="s">
         <v>58</v>
@@ -6958,7 +6962,7 @@
     </row>
     <row r="2" spans="1:18">
       <c r="A2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -6966,7 +6970,7 @@
     </row>
     <row r="3" spans="1:18">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -6974,7 +6978,7 @@
     </row>
     <row r="4" spans="1:18">
       <c r="A4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D4" t="s">
         <v>2</v>
@@ -6982,15 +6986,15 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="6" spans="1:18">
       <c r="A6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F6" t="s">
         <v>2</v>
@@ -6998,15 +7002,15 @@
     </row>
     <row r="7" spans="1:18">
       <c r="A7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:18">
       <c r="A8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H8" t="s">
         <v>2</v>
@@ -7014,15 +7018,15 @@
     </row>
     <row r="9" spans="1:18">
       <c r="A9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:18">
       <c r="A10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -7030,23 +7034,23 @@
     </row>
     <row r="11" spans="1:18">
       <c r="A11" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="K11" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:18">
       <c r="A12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L12" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>53</v>
@@ -7054,23 +7058,23 @@
     </row>
     <row r="14" spans="1:18">
       <c r="A14" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="N14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:18">
       <c r="A15" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="16" spans="1:18">
       <c r="A16" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="P16" t="s">
         <v>2</v>
@@ -7078,10 +7082,10 @@
     </row>
     <row r="17" spans="1:18">
       <c r="A17" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q17" t="s">
         <v>280</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:18">
@@ -7089,15 +7093,15 @@
         <v>58</v>
       </c>
       <c r="R18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:18">
       <c r="A19" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q19" t="s">
         <v>282</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -7117,17 +7121,17 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -7135,66 +7139,66 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="I1" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="K1" s="2" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2" spans="1:12">
       <c r="A2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C3" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D4" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E5" t="s">
         <v>2</v>
@@ -7202,15 +7206,15 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="10" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="10" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G7" t="s">
         <v>2</v>
@@ -7218,7 +7222,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H8" t="s">
         <v>1</v>
@@ -7226,7 +7230,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I9" t="s">
         <v>1</v>
@@ -7234,7 +7238,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J10" t="s">
         <v>2</v>
@@ -7242,15 +7246,15 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="L12" t="s">
         <v>1</v>
@@ -7258,18 +7262,18 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="K13" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
+        <v>401</v>
+      </c>
+      <c r="K14" t="s">
         <v>403</v>
-      </c>
-      <c r="K14" t="s">
-        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -7286,30 +7290,30 @@
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="26.26953125" customWidth="1"/>
-    <col min="13" max="13" width="67.453125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="32.1796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26.28515625" customWidth="1"/>
+    <col min="13" max="13" width="67.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="32.140625" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="19" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="27.7265625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="32.54296875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="35.90625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="32.5703125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="35.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" s="2" customFormat="1">
@@ -7353,7 +7357,7 @@
         <v>60</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="O1" s="2" t="s">
         <v>50</v>
@@ -7371,16 +7375,16 @@
         <v>59</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="V1" s="2" t="s">
+        <v>407</v>
+      </c>
+      <c r="W1" s="2" t="s">
         <v>409</v>
-      </c>
-      <c r="W1" s="2" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="2" spans="1:23">
@@ -7397,7 +7401,7 @@
       </c>
       <c r="B3" s="3"/>
       <c r="C3" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D3" t="s">
         <v>27</v>
@@ -7476,7 +7480,7 @@
         <v>60</v>
       </c>
       <c r="S12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -7495,7 +7499,7 @@
         <v>53</v>
       </c>
       <c r="Q14" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -7516,15 +7520,15 @@
         <v>59</v>
       </c>
       <c r="S17" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T18" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -7545,31 +7549,31 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="U21" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="V22" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
+        <v>406</v>
+      </c>
+      <c r="V23" t="s">
         <v>408</v>
-      </c>
-      <c r="V23" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="W24" t="s">
         <v>1</v>
